--- a/data/final/xlsx/msf_laboratory_moissala_2023-09-24.xlsx
+++ b/data/final/xlsx/msf_laboratory_moissala_2023-09-24.xlsx
@@ -405,7 +405,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
@@ -422,7 +422,7 @@
         <v>44819.90793877289</v>
       </c>
       <c r="D3">
-        <v>28.1</v>
+        <v>27.8</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -443,7 +443,7 @@
         <v>44838.39111491715</v>
       </c>
       <c r="D4">
-        <v>26.5</v>
+        <v>27.8</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -464,7 +464,7 @@
         <v>44828.28800632375</v>
       </c>
       <c r="D5">
-        <v>26.5</v>
+        <v>24</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -485,7 +485,7 @@
         <v>44843.42567221409</v>
       </c>
       <c r="D6">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -505,9 +505,12 @@
       <c r="C7" s="2">
         <v>44837.98226319189</v>
       </c>
+      <c r="D7">
+        <v>26.4</v>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -523,9 +526,12 @@
       <c r="C8" s="2">
         <v>44852.8785645372</v>
       </c>
+      <c r="D8">
+        <v>27.3</v>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -541,9 +547,12 @@
       <c r="C9" s="2">
         <v>44857.56754854512</v>
       </c>
+      <c r="D9">
+        <v>26.7</v>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -560,7 +569,7 @@
         <v>44860.43275049273</v>
       </c>
       <c r="D10">
-        <v>26.6</v>
+        <v>26.9</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -581,7 +590,7 @@
         <v>44850.80513726493</v>
       </c>
       <c r="D11">
-        <v>26.5</v>
+        <v>26</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -602,7 +611,7 @@
         <v>44856.79800416289</v>
       </c>
       <c r="D12">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -623,7 +632,7 @@
         <v>44869.74449974149</v>
       </c>
       <c r="D13">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -644,7 +653,7 @@
         <v>44879.90352682373</v>
       </c>
       <c r="D14">
-        <v>28.8</v>
+        <v>27.2</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -664,12 +673,9 @@
       <c r="C15" s="2">
         <v>44887.65642638742</v>
       </c>
-      <c r="D15">
-        <v>27.9</v>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
@@ -685,12 +691,9 @@
       <c r="C16" s="2">
         <v>44875.38656726654</v>
       </c>
-      <c r="D16">
-        <v>27.2</v>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -707,7 +710,7 @@
         <v>44891.16944689759</v>
       </c>
       <c r="D17">
-        <v>26.8</v>
+        <v>25.9</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -728,7 +731,7 @@
         <v>44871.94646386517</v>
       </c>
       <c r="D18">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -749,7 +752,7 @@
         <v>44881.65698280384</v>
       </c>
       <c r="D19">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -770,7 +773,7 @@
         <v>44915.89179912641</v>
       </c>
       <c r="D20">
-        <v>27.3</v>
+        <v>28</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -791,7 +794,7 @@
         <v>44883.1739926795</v>
       </c>
       <c r="D21">
-        <v>27.7</v>
+        <v>29.7</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -812,7 +815,7 @@
         <v>44886.16294495176</v>
       </c>
       <c r="D22">
-        <v>26.1</v>
+        <v>27.8</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -833,7 +836,7 @@
         <v>44885.0478343671</v>
       </c>
       <c r="D23">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -854,7 +857,7 @@
         <v>44906.63158326525</v>
       </c>
       <c r="D24">
-        <v>26.3</v>
+        <v>27.3</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -875,7 +878,7 @@
         <v>44900.05401210366</v>
       </c>
       <c r="D25">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -895,9 +898,12 @@
       <c r="C26" s="2">
         <v>44910.77857215742</v>
       </c>
+      <c r="D26">
+        <v>27.5</v>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -914,7 +920,7 @@
         <v>44898.52763743659</v>
       </c>
       <c r="D27">
-        <v>26.8</v>
+        <v>27.6</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -934,9 +940,12 @@
       <c r="C28" s="2">
         <v>44914.0324201647</v>
       </c>
+      <c r="D28">
+        <v>25.7</v>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -953,7 +962,7 @@
         <v>44920.75502975154</v>
       </c>
       <c r="D29">
-        <v>26.8</v>
+        <v>27.3</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -974,7 +983,7 @@
         <v>44918.99321863773</v>
       </c>
       <c r="D30">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -995,7 +1004,7 @@
         <v>44912.41765574194</v>
       </c>
       <c r="D31">
-        <v>27</v>
+        <v>26.5</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1016,7 +1025,7 @@
         <v>44935.36804296336</v>
       </c>
       <c r="D32">
-        <v>26.1</v>
+        <v>28.4</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1037,7 +1046,7 @@
         <v>44938.40937408138</v>
       </c>
       <c r="D33">
-        <v>29.9</v>
+        <v>27.2</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1057,12 +1066,9 @@
       <c r="C34" s="2">
         <v>44900.83192364582</v>
       </c>
-      <c r="D34">
-        <v>28.1</v>
-      </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -1078,12 +1084,9 @@
       <c r="C35" s="2">
         <v>44943.64070092564</v>
       </c>
-      <c r="D35">
-        <v>27.9</v>
-      </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
@@ -1100,7 +1103,7 @@
         <v>44943.19849281058</v>
       </c>
       <c r="D36">
-        <v>28</v>
+        <v>28.8</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1120,12 +1123,9 @@
       <c r="C37" s="2">
         <v>44936.99564069252</v>
       </c>
-      <c r="D37">
-        <v>29.1</v>
-      </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -1141,12 +1141,9 @@
       <c r="C38" s="2">
         <v>44952.69771936965</v>
       </c>
-      <c r="D38">
-        <v>27.8</v>
-      </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
@@ -1163,7 +1160,7 @@
         <v>44936.79481277062</v>
       </c>
       <c r="D39">
-        <v>27.2</v>
+        <v>26.3</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1183,12 +1180,9 @@
       <c r="C40" s="2">
         <v>44946.0368422882</v>
       </c>
-      <c r="D40">
-        <v>27.9</v>
-      </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
@@ -1205,7 +1199,7 @@
         <v>44939.62604426149</v>
       </c>
       <c r="D41">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1225,9 +1219,12 @@
       <c r="C42" s="2">
         <v>44910.26443701306</v>
       </c>
+      <c r="D42">
+        <v>28</v>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -1244,7 +1241,7 @@
         <v>44947.31456131321</v>
       </c>
       <c r="D43">
-        <v>27.9</v>
+        <v>27.1</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1264,9 +1261,12 @@
       <c r="C44" s="2">
         <v>44940.89818069786</v>
       </c>
+      <c r="D44">
+        <v>27.3</v>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
         <v>44955.71223621765</v>
       </c>
       <c r="D45">
-        <v>26.6</v>
+        <v>28</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>44967.83448608371</v>
       </c>
       <c r="D46">
-        <v>28.1</v>
+        <v>28.5</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>44952.88116249233</v>
       </c>
       <c r="D47">
-        <v>29.1</v>
+        <v>26.7</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         <v>44954.11456234784</v>
       </c>
       <c r="D48">
-        <v>26.3</v>
+        <v>27.7</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44967.29759356887</v>
       </c>
       <c r="D49">
-        <v>26</v>
+        <v>26.7</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1387,12 +1387,9 @@
       <c r="C50" s="2">
         <v>44976.21784818983</v>
       </c>
-      <c r="D50">
-        <v>28.1</v>
-      </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
@@ -1408,12 +1405,9 @@
       <c r="C51" s="2">
         <v>44958.32514182435</v>
       </c>
-      <c r="D51">
-        <v>26.8</v>
-      </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -1430,7 +1424,7 @@
         <v>44963.15765320799</v>
       </c>
       <c r="D52">
-        <v>26.1</v>
+        <v>27.7</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1451,7 +1445,7 @@
         <v>44962.50214021889</v>
       </c>
       <c r="D53">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1472,7 +1466,7 @@
         <v>44975.22186277975</v>
       </c>
       <c r="D54">
-        <v>27.9</v>
+        <v>26.6</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1493,7 +1487,7 @@
         <v>44972.3783896134</v>
       </c>
       <c r="D55">
-        <v>28.1</v>
+        <v>25.3</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1513,9 +1507,12 @@
       <c r="C56" s="2">
         <v>44968.30227425558</v>
       </c>
+      <c r="D56">
+        <v>26.1</v>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -1531,12 +1528,9 @@
       <c r="C57" s="2">
         <v>44973.20153183212</v>
       </c>
-      <c r="D57">
-        <v>26.3</v>
-      </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
@@ -1552,12 +1546,9 @@
       <c r="C58" s="2">
         <v>44965.53989275932</v>
       </c>
-      <c r="D58">
-        <v>25.9</v>
-      </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1565,7 @@
         <v>44980.24274497592</v>
       </c>
       <c r="D59">
-        <v>27.8</v>
+        <v>26.3</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1594,12 +1585,9 @@
       <c r="C60" s="2">
         <v>44981.71521283925</v>
       </c>
-      <c r="D60">
-        <v>29.4</v>
-      </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -1634,7 +1622,7 @@
         <v>44996.53753321301</v>
       </c>
       <c r="D62">
-        <v>25.6</v>
+        <v>27.5</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1654,9 +1642,12 @@
       <c r="C63" s="2">
         <v>44992.15124751707</v>
       </c>
+      <c r="D63">
+        <v>27.1</v>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -1673,7 +1664,7 @@
         <v>44987.28798158045</v>
       </c>
       <c r="D64">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1693,9 +1684,12 @@
       <c r="C65" s="2">
         <v>44993.6043183575</v>
       </c>
+      <c r="D65">
+        <v>25.4</v>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -1711,12 +1705,9 @@
       <c r="C66" s="2">
         <v>45002.57931985162</v>
       </c>
-      <c r="D66">
-        <v>27.8</v>
-      </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -1732,12 +1723,9 @@
       <c r="C67" s="2">
         <v>44986.14060004799</v>
       </c>
-      <c r="D67">
-        <v>26.9</v>
-      </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -1753,9 +1741,12 @@
       <c r="C68" s="2">
         <v>44983.60744182799</v>
       </c>
+      <c r="D68">
+        <v>27.8</v>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -1771,12 +1762,9 @@
       <c r="C69" s="2">
         <v>45004.30859678594</v>
       </c>
-      <c r="D69">
-        <v>29.6</v>
-      </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1781,7 @@
         <v>45006.16042170937</v>
       </c>
       <c r="D70">
-        <v>25.9</v>
+        <v>27.6</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -1814,7 +1802,7 @@
         <v>44996.65988373545</v>
       </c>
       <c r="D71">
-        <v>26.2</v>
+        <v>27.5</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -1835,7 +1823,7 @@
         <v>44995.28422181921</v>
       </c>
       <c r="D72">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -1855,9 +1843,12 @@
       <c r="C73" s="2">
         <v>44982.79778194692</v>
       </c>
+      <c r="D73">
+        <v>28.3</v>
+      </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1865,7 @@
         <v>44985.76080455848</v>
       </c>
       <c r="D74">
-        <v>28.7</v>
+        <v>25.9</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -1895,7 +1886,7 @@
         <v>45009.53290315486</v>
       </c>
       <c r="D75">
-        <v>26.6</v>
+        <v>27.1</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -1916,7 +1907,7 @@
         <v>44995.22405344402</v>
       </c>
       <c r="D76">
-        <v>27.4</v>
+        <v>26.2</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -1936,9 +1927,12 @@
       <c r="C77" s="2">
         <v>45017.30181541376</v>
       </c>
+      <c r="D77">
+        <v>27.4</v>
+      </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -1955,7 +1949,7 @@
         <v>45022.14190692731</v>
       </c>
       <c r="D78">
-        <v>26.4</v>
+        <v>26</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -1975,12 +1969,9 @@
       <c r="C79" s="2">
         <v>45017.08434580434</v>
       </c>
-      <c r="D79">
-        <v>28.2</v>
-      </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -1997,7 +1988,7 @@
         <v>44990.89847432802</v>
       </c>
       <c r="D80">
-        <v>27.4</v>
+        <v>26.2</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2018,7 +2009,7 @@
         <v>45020.52390981741</v>
       </c>
       <c r="D81">
-        <v>29.1</v>
+        <v>25.7</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2039,7 +2030,7 @@
         <v>44999.28386001081</v>
       </c>
       <c r="D82">
-        <v>27</v>
+        <v>28.4</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2059,9 +2050,12 @@
       <c r="C83" s="2">
         <v>45019.99484403338</v>
       </c>
+      <c r="D83">
+        <v>28.5</v>
+      </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2072,7 @@
         <v>45024.69128170291</v>
       </c>
       <c r="D84">
-        <v>27.9</v>
+        <v>27.2</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2099,7 +2093,7 @@
         <v>45038.41486670459</v>
       </c>
       <c r="D85">
-        <v>27.3</v>
+        <v>26.6</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2119,12 +2113,9 @@
       <c r="C86" s="2">
         <v>45014.64140680563</v>
       </c>
-      <c r="D86">
-        <v>26.9</v>
-      </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2132,7 @@
         <v>45012.57871818931</v>
       </c>
       <c r="D87">
-        <v>25.7</v>
+        <v>26.9</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2162,7 +2153,7 @@
         <v>45022.23424849716</v>
       </c>
       <c r="D88">
-        <v>27.1</v>
+        <v>26.8</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2183,7 +2174,7 @@
         <v>45021.71992864476</v>
       </c>
       <c r="D89">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2204,7 +2195,7 @@
         <v>45025.9874110021</v>
       </c>
       <c r="D90">
-        <v>27.1</v>
+        <v>28.2</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2224,12 +2215,9 @@
       <c r="C91" s="2">
         <v>45048.66071797392</v>
       </c>
-      <c r="D91">
-        <v>27.9</v>
-      </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
@@ -2246,7 +2234,7 @@
         <v>45040.10458805067</v>
       </c>
       <c r="D92">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2266,12 +2254,9 @@
       <c r="C93" s="2">
         <v>45041.61696312052</v>
       </c>
-      <c r="D93">
-        <v>28.4</v>
-      </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -2288,7 +2273,7 @@
         <v>45038.70849249711</v>
       </c>
       <c r="D94">
-        <v>28.6</v>
+        <v>27.2</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2331,7 +2316,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
@@ -2348,7 +2333,7 @@
         <v>45045.23422440798</v>
       </c>
       <c r="D97">
-        <v>28</v>
+        <v>26.6</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2369,7 +2354,7 @@
         <v>45042.94499360998</v>
       </c>
       <c r="D98">
-        <v>28</v>
+        <v>26.5</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2389,9 +2374,12 @@
       <c r="C99" s="2">
         <v>45041.83954549171</v>
       </c>
+      <c r="D99">
+        <v>29.2</v>
+      </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -2408,7 +2396,7 @@
         <v>45049.11370468572</v>
       </c>
       <c r="D100">
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2429,7 +2417,7 @@
         <v>45009.9348130874</v>
       </c>
       <c r="D101">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2449,9 +2437,12 @@
       <c r="C102" s="2">
         <v>45039.64539371984</v>
       </c>
+      <c r="D102">
+        <v>29.2</v>
+      </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -2467,12 +2458,9 @@
       <c r="C103" s="2">
         <v>45030.70420986893</v>
       </c>
-      <c r="D103">
-        <v>27.3</v>
-      </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
@@ -2488,9 +2476,12 @@
       <c r="C104" s="2">
         <v>45037.85204829129</v>
       </c>
+      <c r="D104">
+        <v>28.7</v>
+      </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -2506,9 +2497,12 @@
       <c r="C105" s="2">
         <v>45037.68957679503</v>
       </c>
+      <c r="D105">
+        <v>28.7</v>
+      </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -2525,7 +2519,7 @@
         <v>45049.72248530478</v>
       </c>
       <c r="D106">
-        <v>28.3</v>
+        <v>28.6</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2546,7 +2540,7 @@
         <v>45023.39539944143</v>
       </c>
       <c r="D107">
-        <v>26.7</v>
+        <v>26</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -2566,9 +2560,12 @@
       <c r="C108" s="2">
         <v>45028.85955482703</v>
       </c>
+      <c r="D108">
+        <v>27.4</v>
+      </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -2584,9 +2581,12 @@
       <c r="C109" s="2">
         <v>45029.89588080787</v>
       </c>
+      <c r="D109">
+        <v>26.1</v>
+      </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -2603,7 +2603,7 @@
         <v>45014.52102969485</v>
       </c>
       <c r="D110">
-        <v>29.2</v>
+        <v>25.7</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>45016.96762746694</v>
       </c>
       <c r="D111">
-        <v>26.6</v>
+        <v>26.4</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>45038.09927218755</v>
       </c>
       <c r="D112">
-        <v>28.8</v>
+        <v>28.4</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>45059.93627730936</v>
       </c>
       <c r="D113">
-        <v>27.3</v>
+        <v>26.6</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -2686,12 +2686,9 @@
       <c r="C114" s="2">
         <v>45020.71927410193</v>
       </c>
-      <c r="D114">
-        <v>26.3</v>
-      </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -2708,7 +2705,7 @@
         <v>45040.59410715254</v>
       </c>
       <c r="D115">
-        <v>27.5</v>
+        <v>26.7</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2729,7 +2726,7 @@
         <v>45025.89007628156</v>
       </c>
       <c r="D116">
-        <v>28</v>
+        <v>27.3</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -2750,7 +2747,7 @@
         <v>45037.73932700278</v>
       </c>
       <c r="D117">
-        <v>25.2</v>
+        <v>26.8</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -2770,12 +2767,9 @@
       <c r="C118" s="2">
         <v>45052.76072005015</v>
       </c>
-      <c r="D118">
-        <v>25.5</v>
-      </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -2791,9 +2785,12 @@
       <c r="C119" s="2">
         <v>45022.18015011087</v>
       </c>
+      <c r="D119">
+        <v>27.2</v>
+      </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -2810,7 +2807,7 @@
         <v>45029.62865405576</v>
       </c>
       <c r="D120">
-        <v>27.5</v>
+        <v>28.3</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -2830,12 +2827,9 @@
       <c r="C121" s="2">
         <v>45020.88847954694</v>
       </c>
-      <c r="D121">
-        <v>27.6</v>
-      </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
@@ -2852,7 +2846,7 @@
         <v>45053.60946938767</v>
       </c>
       <c r="D122">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -2873,7 +2867,7 @@
         <v>45052.30366931683</v>
       </c>
       <c r="D123">
-        <v>26.8</v>
+        <v>26</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -2894,7 +2888,7 @@
         <v>45069.50068817231</v>
       </c>
       <c r="D124">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -2914,12 +2908,9 @@
       <c r="C125" s="2">
         <v>45061.8692527642</v>
       </c>
-      <c r="D125">
-        <v>25.8</v>
-      </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
@@ -2936,7 +2927,7 @@
         <v>45031.12441226168</v>
       </c>
       <c r="D126">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -2957,7 +2948,7 @@
         <v>45033.30092947741</v>
       </c>
       <c r="D127">
-        <v>28.3</v>
+        <v>27.1</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -2977,9 +2968,12 @@
       <c r="C128" s="2">
         <v>45061.57260960942</v>
       </c>
+      <c r="D128">
+        <v>28</v>
+      </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -2995,9 +2989,12 @@
       <c r="C129" s="2">
         <v>45064.97982902497</v>
       </c>
+      <c r="D129">
+        <v>25.7</v>
+      </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -3014,7 +3011,7 @@
         <v>45041.82697463233</v>
       </c>
       <c r="D130">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3035,7 +3032,7 @@
         <v>45068.42134093468</v>
       </c>
       <c r="D131">
-        <v>27.5</v>
+        <v>28.8</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -3056,7 +3053,7 @@
         <v>45039.53467587596</v>
       </c>
       <c r="D132">
-        <v>28.1</v>
+        <v>26.1</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -3077,7 +3074,7 @@
         <v>45041.87705960278</v>
       </c>
       <c r="D133">
-        <v>26.8</v>
+        <v>27.3</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -3098,7 +3095,7 @@
         <v>45059.59953734608</v>
       </c>
       <c r="D134">
-        <v>28.7</v>
+        <v>26.6</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -3119,7 +3116,7 @@
         <v>45079.37148472259</v>
       </c>
       <c r="D135">
-        <v>28.6</v>
+        <v>27.2</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3140,7 +3137,7 @@
         <v>45048.95544875994</v>
       </c>
       <c r="D136">
-        <v>28.1</v>
+        <v>27</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -3161,7 +3158,7 @@
         <v>45043.06669811087</v>
       </c>
       <c r="D137">
-        <v>27.9</v>
+        <v>26.6</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3182,7 +3179,7 @@
         <v>45047.61053871371</v>
       </c>
       <c r="D138">
-        <v>28.6</v>
+        <v>27.1</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3203,7 +3200,7 @@
         <v>45049.63090861114</v>
       </c>
       <c r="D139">
-        <v>27.8</v>
+        <v>27</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3224,7 +3221,7 @@
         <v>45081.19333012986</v>
       </c>
       <c r="D140">
-        <v>25.3</v>
+        <v>28.6</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -3245,7 +3242,7 @@
         <v>45077.52933106283</v>
       </c>
       <c r="D141">
-        <v>27.2</v>
+        <v>26.5</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -3266,7 +3263,7 @@
         <v>45091.87404744526</v>
       </c>
       <c r="D142">
-        <v>28.4</v>
+        <v>26.6</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -3287,7 +3284,7 @@
         <v>45043.33244976289</v>
       </c>
       <c r="D143">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -3308,7 +3305,7 @@
         <v>45074.96426977804</v>
       </c>
       <c r="D144">
-        <v>27.5</v>
+        <v>28.2</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3329,7 +3326,7 @@
         <v>45074.58096279972</v>
       </c>
       <c r="D145">
-        <v>25.6</v>
+        <v>26.5</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -3350,7 +3347,7 @@
         <v>45087.6765715794</v>
       </c>
       <c r="D146">
-        <v>27</v>
+        <v>28.2</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -3371,7 +3368,7 @@
         <v>45107.09128769867</v>
       </c>
       <c r="D147">
-        <v>25.9</v>
+        <v>27.4</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -3392,7 +3389,7 @@
         <v>45090.32063200872</v>
       </c>
       <c r="D148">
-        <v>27.3</v>
+        <v>26.3</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3413,7 +3410,7 @@
         <v>45098.91967749098</v>
       </c>
       <c r="D149">
-        <v>27.9</v>
+        <v>27.3</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3434,7 +3431,7 @@
         <v>45092.25834017359</v>
       </c>
       <c r="D150">
-        <v>26.6</v>
+        <v>26</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3455,7 +3452,7 @@
         <v>45050.58155541359</v>
       </c>
       <c r="D151">
-        <v>28.3</v>
+        <v>26.9</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3476,7 +3473,7 @@
         <v>45050.73804316539</v>
       </c>
       <c r="D152">
-        <v>28.8</v>
+        <v>26.9</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -3497,7 +3494,7 @@
         <v>45103.79362863957</v>
       </c>
       <c r="D153">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -3518,7 +3515,7 @@
         <v>45106.21857808711</v>
       </c>
       <c r="D154">
-        <v>28.4</v>
+        <v>27.9</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -3538,12 +3535,9 @@
       <c r="C155" s="2">
         <v>45068.51847140295</v>
       </c>
-      <c r="D155">
-        <v>27.5</v>
-      </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -3560,7 +3554,7 @@
         <v>45077.68296847444</v>
       </c>
       <c r="D156">
-        <v>28.2</v>
+        <v>27.8</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -3581,7 +3575,7 @@
         <v>45094.61024688848</v>
       </c>
       <c r="D157">
-        <v>26</v>
+        <v>26.9</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -3602,7 +3596,7 @@
         <v>45136.15651897936</v>
       </c>
       <c r="D158">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -3623,7 +3617,7 @@
         <v>45113.93341192012</v>
       </c>
       <c r="D159">
-        <v>28.9</v>
+        <v>27.8</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -3643,12 +3637,9 @@
       <c r="C160" s="2">
         <v>45118.96939557753</v>
       </c>
-      <c r="D160">
-        <v>28.6</v>
-      </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
@@ -3664,12 +3655,9 @@
       <c r="C161" s="2">
         <v>45067.82703593654</v>
       </c>
-      <c r="D161">
-        <v>27.5</v>
-      </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -3686,7 +3674,7 @@
         <v>45062.61200382268</v>
       </c>
       <c r="D162">
-        <v>25.5</v>
+        <v>26.7</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -3725,7 +3713,7 @@
         <v>45085.55805937434</v>
       </c>
       <c r="D164">
-        <v>28.1</v>
+        <v>26.7</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -3746,7 +3734,7 @@
         <v>45119.18496933944</v>
       </c>
       <c r="D165">
-        <v>28.7</v>
+        <v>27</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -3766,12 +3754,9 @@
       <c r="C166" s="2">
         <v>45122.79060258323</v>
       </c>
-      <c r="D166">
-        <v>26.6</v>
-      </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -3788,7 +3773,7 @@
         <v>45100.43844195276</v>
       </c>
       <c r="D167">
-        <v>27.5</v>
+        <v>28</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -3809,7 +3794,7 @@
         <v>45122.78997057029</v>
       </c>
       <c r="D168">
-        <v>25.5</v>
+        <v>25.2</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -3829,9 +3814,12 @@
       <c r="C169" s="2">
         <v>45114.68319698665</v>
       </c>
+      <c r="D169">
+        <v>28.1</v>
+      </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -3848,7 +3836,7 @@
         <v>45118.49101784821</v>
       </c>
       <c r="D170">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -3868,12 +3856,9 @@
       <c r="C171" s="2">
         <v>45125.00343150909</v>
       </c>
-      <c r="D171">
-        <v>27.4</v>
-      </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
@@ -3890,7 +3875,7 @@
         <v>45120.40457647461</v>
       </c>
       <c r="D172">
-        <v>26.6</v>
+        <v>28.7</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -3911,7 +3896,7 @@
         <v>45072.15156054891</v>
       </c>
       <c r="D173">
-        <v>27.2</v>
+        <v>26</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -3932,7 +3917,7 @@
         <v>45119.58034688514</v>
       </c>
       <c r="D174">
-        <v>27.9</v>
+        <v>28.2</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -3952,12 +3937,9 @@
       <c r="C175" s="2">
         <v>45123.63317763583</v>
       </c>
-      <c r="D175">
-        <v>26.3</v>
-      </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
@@ -3974,7 +3956,7 @@
         <v>45140.83358806097</v>
       </c>
       <c r="D176">
-        <v>26.4</v>
+        <v>28.8</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -3994,12 +3976,9 @@
       <c r="C177" s="2">
         <v>45137.53601004006</v>
       </c>
-      <c r="D177">
-        <v>26.1</v>
-      </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -4016,7 +3995,7 @@
         <v>45136.48311448856</v>
       </c>
       <c r="D178">
-        <v>28.9</v>
+        <v>27.3</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -4037,7 +4016,7 @@
         <v>45133.4296885266</v>
       </c>
       <c r="D179">
-        <v>26.4</v>
+        <v>25.5</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -4079,7 +4058,7 @@
         <v>45097.09783262051</v>
       </c>
       <c r="D181">
-        <v>25.5</v>
+        <v>28.3</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -4121,7 +4100,7 @@
         <v>45135.1447132553</v>
       </c>
       <c r="D183">
-        <v>27.1</v>
+        <v>28.6</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -4141,9 +4120,12 @@
       <c r="C184" s="2">
         <v>45141.44475879412</v>
       </c>
+      <c r="D184">
+        <v>26.5</v>
+      </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -4160,7 +4142,7 @@
         <v>45096.05453674852</v>
       </c>
       <c r="D185">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -4180,9 +4162,12 @@
       <c r="C186" s="2">
         <v>45097.76746935285</v>
       </c>
+      <c r="D186">
+        <v>26.8</v>
+      </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -4199,7 +4184,7 @@
         <v>45083.76744698847</v>
       </c>
       <c r="D187">
-        <v>27</v>
+        <v>26.3</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -4220,7 +4205,7 @@
         <v>45149.1194908863</v>
       </c>
       <c r="D188">
-        <v>27.8</v>
+        <v>25.3</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -4241,7 +4226,7 @@
         <v>45148.9921063018</v>
       </c>
       <c r="D189">
-        <v>26.3</v>
+        <v>27.6</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -4262,7 +4247,7 @@
         <v>45144.98267805765</v>
       </c>
       <c r="D190">
-        <v>28.9</v>
+        <v>29.6</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -4283,7 +4268,7 @@
         <v>45145.58550127494</v>
       </c>
       <c r="D191">
-        <v>25.9</v>
+        <v>26.7</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -4303,9 +4288,12 @@
       <c r="C192" s="2">
         <v>45109.04776806245</v>
       </c>
+      <c r="D192">
+        <v>25.5</v>
+      </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -4322,7 +4310,7 @@
         <v>45117.22969539791</v>
       </c>
       <c r="D193">
-        <v>28.4</v>
+        <v>27</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -4343,7 +4331,7 @@
         <v>45156.62355695136</v>
       </c>
       <c r="D194">
-        <v>25.7</v>
+        <v>26.9</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -4364,7 +4352,7 @@
         <v>45146.87602922673</v>
       </c>
       <c r="D195">
-        <v>27.6</v>
+        <v>28.5</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -4385,7 +4373,7 @@
         <v>45158.49463536756</v>
       </c>
       <c r="D196">
-        <v>26.9</v>
+        <v>27.9</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -4406,7 +4394,7 @@
         <v>45153.87273567406</v>
       </c>
       <c r="D197">
-        <v>28.9</v>
+        <v>27.3</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -4426,12 +4414,9 @@
       <c r="C198" s="2">
         <v>45175.65096184623</v>
       </c>
-      <c r="D198">
-        <v>29</v>
-      </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -4448,7 +4433,7 @@
         <v>45146.32846256671</v>
       </c>
       <c r="D199">
-        <v>29.5</v>
+        <v>25</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -4469,7 +4454,7 @@
         <v>45172.99501134927</v>
       </c>
       <c r="D200">
-        <v>28.2</v>
+        <v>28.1</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -4490,7 +4475,7 @@
         <v>45156.22416868196</v>
       </c>
       <c r="D201">
-        <v>27</v>
+        <v>26.4</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -4511,7 +4496,7 @@
         <v>45164.08236028154</v>
       </c>
       <c r="D202">
-        <v>27.5</v>
+        <v>27.1</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -4532,7 +4517,7 @@
         <v>45171.84956031654</v>
       </c>
       <c r="D203">
-        <v>27.5</v>
+        <v>26.6</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -4553,7 +4538,7 @@
         <v>45150.21053777897</v>
       </c>
       <c r="D204">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -4573,9 +4558,12 @@
       <c r="C205" s="2">
         <v>45174.97927223805</v>
       </c>
+      <c r="D205">
+        <v>27.3</v>
+      </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -4591,12 +4579,9 @@
       <c r="C206" s="2">
         <v>45155.78562242621</v>
       </c>
-      <c r="D206">
-        <v>26.3</v>
-      </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -4613,7 +4598,7 @@
         <v>45161.17289830798</v>
       </c>
       <c r="D207">
-        <v>28.3</v>
+        <v>27.9</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -4634,7 +4619,7 @@
         <v>45166.15636573635</v>
       </c>
       <c r="D208">
-        <v>26.8</v>
+        <v>25.1</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -4655,7 +4640,7 @@
         <v>45155.5595440999</v>
       </c>
       <c r="D209">
-        <v>28.4</v>
+        <v>25.7</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -4675,9 +4660,12 @@
       <c r="C210" s="2">
         <v>45163.3376699354</v>
       </c>
+      <c r="D210">
+        <v>28.8</v>
+      </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -4693,9 +4681,12 @@
       <c r="C211" s="2">
         <v>45127.34868558131</v>
       </c>
+      <c r="D211">
+        <v>27.9</v>
+      </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -4712,7 +4703,7 @@
         <v>45117.9418895142</v>
       </c>
       <c r="D212">
-        <v>26.3</v>
+        <v>28.3</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -4733,7 +4724,7 @@
         <v>45119.43757728559</v>
       </c>
       <c r="D213">
-        <v>28.2</v>
+        <v>28.6</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -4754,7 +4745,7 @@
         <v>45114.95850654985</v>
       </c>
       <c r="D214">
-        <v>28.1</v>
+        <v>27.6</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -4775,7 +4766,7 @@
         <v>45167.48497358055</v>
       </c>
       <c r="D215">
-        <v>28.7</v>
+        <v>26.4</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -4817,7 +4808,7 @@
         <v>45151.75095487626</v>
       </c>
       <c r="D217">
-        <v>27.5</v>
+        <v>27</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -4838,7 +4829,7 @@
         <v>45158.57707481145</v>
       </c>
       <c r="D218">
-        <v>26.8</v>
+        <v>27.9</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -4859,7 +4850,7 @@
         <v>45156.72937531074</v>
       </c>
       <c r="D219">
-        <v>25.2</v>
+        <v>25.9</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -4880,7 +4871,7 @@
         <v>45174.8414424713</v>
       </c>
       <c r="D220">
-        <v>26.7</v>
+        <v>29</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -4901,7 +4892,7 @@
         <v>45160.01992525295</v>
       </c>
       <c r="D221">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -4922,7 +4913,7 @@
         <v>45165.76719569121</v>
       </c>
       <c r="D222">
-        <v>26.9</v>
+        <v>28.3</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -4943,7 +4934,7 @@
         <v>45171.13007678971</v>
       </c>
       <c r="D223">
-        <v>27.6</v>
+        <v>27</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -4964,7 +4955,7 @@
         <v>45131.85495057618</v>
       </c>
       <c r="D224">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -4985,7 +4976,7 @@
         <v>45177.88520427365</v>
       </c>
       <c r="D225">
-        <v>26.6</v>
+        <v>25.3</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -5006,7 +4997,7 @@
         <v>45162.04064841198</v>
       </c>
       <c r="D226">
-        <v>25.9</v>
+        <v>26.6</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -5027,7 +5018,7 @@
         <v>45163.66401549815</v>
       </c>
       <c r="D227">
-        <v>27.5</v>
+        <v>27.9</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -5048,7 +5039,7 @@
         <v>45164.8168185457</v>
       </c>
       <c r="D228">
-        <v>26.8</v>
+        <v>27.2</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -5068,9 +5059,12 @@
       <c r="C229" s="2">
         <v>45173.75534857293</v>
       </c>
+      <c r="D229">
+        <v>25.6</v>
+      </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -5087,7 +5081,7 @@
         <v>45161.3728142067</v>
       </c>
       <c r="D230">
-        <v>28.2</v>
+        <v>25.7</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -5108,7 +5102,7 @@
         <v>45171.74477447316</v>
       </c>
       <c r="D231">
-        <v>28.7</v>
+        <v>27.5</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -5129,7 +5123,7 @@
         <v>45165.44873479631</v>
       </c>
       <c r="D232">
-        <v>26.5</v>
+        <v>26</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -5149,9 +5143,12 @@
       <c r="C233" s="2">
         <v>45176.53122822641</v>
       </c>
+      <c r="D233">
+        <v>26.9</v>
+      </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -5167,12 +5164,9 @@
       <c r="C234" s="2">
         <v>45105.95932106242</v>
       </c>
-      <c r="D234">
-        <v>28.1</v>
-      </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
@@ -5189,7 +5183,7 @@
         <v>45115.22416727751</v>
       </c>
       <c r="D235">
-        <v>26.8</v>
+        <v>28.4</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -5210,7 +5204,7 @@
         <v>45121.5960408525</v>
       </c>
       <c r="D236">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -5230,12 +5224,9 @@
       <c r="C237" s="2">
         <v>45170.4875667587</v>
       </c>
-      <c r="D237">
-        <v>27.7</v>
-      </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -5272,9 +5263,12 @@
       <c r="C239" s="2">
         <v>45173.0229124945</v>
       </c>
+      <c r="D239">
+        <v>27.5</v>
+      </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -5291,7 +5285,7 @@
         <v>45187.60976323736</v>
       </c>
       <c r="D240">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -5311,12 +5305,9 @@
       <c r="C241" s="2">
         <v>45187.87789507692</v>
       </c>
-      <c r="D241">
-        <v>27.6</v>
-      </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -5333,7 +5324,7 @@
         <v>45174.4672436503</v>
       </c>
       <c r="D242">
-        <v>27.4</v>
+        <v>25.9</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -5353,12 +5344,9 @@
       <c r="C243" s="2">
         <v>45174.43905103994</v>
       </c>
-      <c r="D243">
-        <v>28.3</v>
-      </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
@@ -5375,7 +5363,7 @@
         <v>45172.78704062275</v>
       </c>
       <c r="D244">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -5396,7 +5384,7 @@
         <v>45179.64158621425</v>
       </c>
       <c r="D245">
-        <v>28.7</v>
+        <v>26.5</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -5416,9 +5404,12 @@
       <c r="C246" s="2">
         <v>45128.92619077267</v>
       </c>
+      <c r="D246">
+        <v>28.6</v>
+      </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -5435,7 +5426,7 @@
         <v>45187.16937921479</v>
       </c>
       <c r="D247">
-        <v>26</v>
+        <v>25.3</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -5456,7 +5447,7 @@
         <v>45166.36433189923</v>
       </c>
       <c r="D248">
-        <v>26.8</v>
+        <v>28.6</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -5477,7 +5468,7 @@
         <v>45172.37955375794</v>
       </c>
       <c r="D249">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -5498,7 +5489,7 @@
         <v>45209.1130332001</v>
       </c>
       <c r="D250">
-        <v>28.5</v>
+        <v>28</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -5519,7 +5510,7 @@
         <v>45174.57287936648</v>
       </c>
       <c r="D251">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -5540,7 +5531,7 @@
         <v>45168.56327445831</v>
       </c>
       <c r="D252">
-        <v>25.8</v>
+        <v>26.7</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -5561,7 +5552,7 @@
         <v>45197.70899101415</v>
       </c>
       <c r="D253">
-        <v>27.8</v>
+        <v>28.5</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -5582,7 +5573,7 @@
         <v>45181.75811716363</v>
       </c>
       <c r="D254">
-        <v>27.2</v>
+        <v>26.4</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -5603,7 +5594,7 @@
         <v>45150.19816555857</v>
       </c>
       <c r="D255">
-        <v>26.6</v>
+        <v>27.1</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -5624,7 +5615,7 @@
         <v>45136.28723842138</v>
       </c>
       <c r="D256">
-        <v>28.4</v>
+        <v>25.9</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -5645,7 +5636,7 @@
         <v>45188.37413700551</v>
       </c>
       <c r="D257">
-        <v>26.8</v>
+        <v>28.5</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -5666,7 +5657,7 @@
         <v>45185.62303146782</v>
       </c>
       <c r="D258">
-        <v>29.3</v>
+        <v>27.2</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -5687,7 +5678,7 @@
         <v>45197.13457694845</v>
       </c>
       <c r="D259">
-        <v>28.5</v>
+        <v>26.2</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -5708,7 +5699,7 @@
         <v>45176.40828267092</v>
       </c>
       <c r="D260">
-        <v>28.3</v>
+        <v>26.7</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -5747,7 +5738,7 @@
         <v>45182.50800214302</v>
       </c>
       <c r="D262">
-        <v>26</v>
+        <v>26.7</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -5768,7 +5759,7 @@
         <v>45140.94656394287</v>
       </c>
       <c r="D263">
-        <v>27.4</v>
+        <v>29</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -5788,12 +5779,9 @@
       <c r="C264" s="2">
         <v>45160.96888237024</v>
       </c>
-      <c r="D264">
-        <v>27</v>
-      </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -5810,7 +5798,7 @@
         <v>45137.38668399477</v>
       </c>
       <c r="D265">
-        <v>28.6</v>
+        <v>27.8</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -5831,7 +5819,7 @@
         <v>45138.9421337555</v>
       </c>
       <c r="D266">
-        <v>27.4</v>
+        <v>28.1</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -5851,12 +5839,9 @@
       <c r="C267" s="2">
         <v>45141.86749624342</v>
       </c>
-      <c r="D267">
-        <v>25.7</v>
-      </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -5872,9 +5857,12 @@
       <c r="C268" s="2">
         <v>45194.32024743386</v>
       </c>
+      <c r="D268">
+        <v>26.2</v>
+      </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -5890,12 +5878,9 @@
       <c r="C269" s="2">
         <v>45171.08440506604</v>
       </c>
-      <c r="D269">
-        <v>25.7</v>
-      </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -5911,9 +5896,12 @@
       <c r="C270" s="2">
         <v>45186.05092572678</v>
       </c>
+      <c r="D270">
+        <v>30.4</v>
+      </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -5930,7 +5918,7 @@
         <v>45181.52308345456</v>
       </c>
       <c r="D271">
-        <v>28.6</v>
+        <v>26.6</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -5951,7 +5939,7 @@
         <v>45181.10242770913</v>
       </c>
       <c r="D272">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -5971,9 +5959,12 @@
       <c r="C273" s="2">
         <v>45179.06879638798</v>
       </c>
+      <c r="D273">
+        <v>26</v>
+      </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -5989,9 +5980,12 @@
       <c r="C274" s="2">
         <v>45158.80864279444</v>
       </c>
+      <c r="D274">
+        <v>27.8</v>
+      </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -6008,7 +6002,7 @@
         <v>45164.5283690647</v>
       </c>
       <c r="D275">
-        <v>26.2</v>
+        <v>27.3</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -6029,7 +6023,7 @@
         <v>45154.35135025391</v>
       </c>
       <c r="D276">
-        <v>30</v>
+        <v>27.5</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -6050,7 +6044,7 @@
         <v>45158.85430661269</v>
       </c>
       <c r="D277">
-        <v>28.6</v>
+        <v>29.8</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -6071,7 +6065,7 @@
         <v>45172.731154522</v>
       </c>
       <c r="D278">
-        <v>27.6</v>
+        <v>25.1</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -6091,9 +6085,12 @@
       <c r="C279" s="2">
         <v>45191.42678304935</v>
       </c>
+      <c r="D279">
+        <v>26.8</v>
+      </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -6110,7 +6107,7 @@
         <v>45218.24850167149</v>
       </c>
       <c r="D280">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -6149,7 +6146,7 @@
         <v>45195.78690253645</v>
       </c>
       <c r="D282">
-        <v>28.4</v>
+        <v>26.9</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -6169,12 +6166,9 @@
       <c r="C283" s="2">
         <v>45191.34420456933</v>
       </c>
-      <c r="D283">
-        <v>28.7</v>
-      </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -6190,12 +6184,9 @@
       <c r="C284" s="2">
         <v>45181.90510061485</v>
       </c>
-      <c r="D284">
-        <v>27.8</v>
-      </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -6211,9 +6202,12 @@
       <c r="C285" s="2">
         <v>45186.90426325909</v>
       </c>
+      <c r="D285">
+        <v>28</v>
+      </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -6230,7 +6224,7 @@
         <v>45144.49102431467</v>
       </c>
       <c r="D286">
-        <v>26.8</v>
+        <v>29.5</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -6250,12 +6244,9 @@
       <c r="C287" s="2">
         <v>45148.80562522684</v>
       </c>
-      <c r="D287">
-        <v>27.9</v>
-      </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -6272,7 +6263,7 @@
         <v>45164.89807736564</v>
       </c>
       <c r="D288">
-        <v>28.5</v>
+        <v>27.4</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -6293,7 +6284,7 @@
         <v>45142.62106369351</v>
       </c>
       <c r="D289">
-        <v>27</v>
+        <v>28.5</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -6313,12 +6304,9 @@
       <c r="C290" s="2">
         <v>45149.83483466823</v>
       </c>
-      <c r="D290">
-        <v>27.2</v>
-      </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -6335,7 +6323,7 @@
         <v>45160.61031722977</v>
       </c>
       <c r="D291">
-        <v>29.2</v>
+        <v>25.6</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -6356,7 +6344,7 @@
         <v>45155.61867393303</v>
       </c>
       <c r="D292">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -6377,7 +6365,7 @@
         <v>45197.20936526438</v>
       </c>
       <c r="D293">
-        <v>25.9</v>
+        <v>27</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -6419,7 +6407,7 @@
         <v>45219.72963556199</v>
       </c>
       <c r="D295">
-        <v>26.5</v>
+        <v>28.2</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -6439,12 +6427,9 @@
       <c r="C296" s="2">
         <v>45182.55432989181</v>
       </c>
-      <c r="D296">
-        <v>29</v>
-      </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
@@ -6461,7 +6446,7 @@
         <v>45211.67617898893</v>
       </c>
       <c r="D297">
-        <v>29.6</v>
+        <v>28</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -6482,7 +6467,7 @@
         <v>45197.66583849987</v>
       </c>
       <c r="D298">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -6503,7 +6488,7 @@
         <v>45150.09524211648</v>
       </c>
       <c r="D299">
-        <v>27.9</v>
+        <v>28.3</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -6524,7 +6509,7 @@
         <v>45203.45713252692</v>
       </c>
       <c r="D300">
-        <v>27.6</v>
+        <v>28.7</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -6544,12 +6529,9 @@
       <c r="C301" s="2">
         <v>45210.18116381004</v>
       </c>
-      <c r="D301">
-        <v>25.7</v>
-      </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -6566,7 +6548,7 @@
         <v>45225.42099572161</v>
       </c>
       <c r="D302">
-        <v>27.2</v>
+        <v>27.9</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -6587,7 +6569,7 @@
         <v>45199.41974920206</v>
       </c>
       <c r="D303">
-        <v>27.1</v>
+        <v>28.2</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -6608,7 +6590,7 @@
         <v>45221.5796068395</v>
       </c>
       <c r="D304">
-        <v>27.5</v>
+        <v>28.6</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -6629,7 +6611,7 @@
         <v>45188.12030518241</v>
       </c>
       <c r="D305">
-        <v>24.4</v>
+        <v>27.6</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -6650,7 +6632,7 @@
         <v>45186.7615385938</v>
       </c>
       <c r="D306">
-        <v>27.8</v>
+        <v>25.7</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -6671,7 +6653,7 @@
         <v>45150.23536558871</v>
       </c>
       <c r="D307">
-        <v>25.4</v>
+        <v>26.5</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -6692,7 +6674,7 @@
         <v>45187.66956437344</v>
       </c>
       <c r="D308">
-        <v>26.3</v>
+        <v>25.7</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -6713,7 +6695,7 @@
         <v>45198.27668660138</v>
       </c>
       <c r="D309">
-        <v>26.3</v>
+        <v>27.9</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -6734,7 +6716,7 @@
         <v>45162.08922498164</v>
       </c>
       <c r="D310">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -6755,7 +6737,7 @@
         <v>45172.84368335789</v>
       </c>
       <c r="D311">
-        <v>27.4</v>
+        <v>26.7</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -6775,12 +6757,9 @@
       <c r="C312" s="2">
         <v>45204.72526405678</v>
       </c>
-      <c r="D312">
-        <v>26.9</v>
-      </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -6797,7 +6776,7 @@
         <v>45210.08113469656</v>
       </c>
       <c r="D313">
-        <v>28.1</v>
+        <v>27.4</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -6818,7 +6797,7 @@
         <v>45212.92672521633</v>
       </c>
       <c r="D314">
-        <v>27.4</v>
+        <v>27.9</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -6839,7 +6818,7 @@
         <v>45209.40991488716</v>
       </c>
       <c r="D315">
-        <v>28.4</v>
+        <v>27.6</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -6859,12 +6838,9 @@
       <c r="C316" s="2">
         <v>45220.14890794801</v>
       </c>
-      <c r="D316">
-        <v>27.4</v>
-      </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -6898,9 +6874,12 @@
       <c r="C318" s="2">
         <v>45170.01844328441</v>
       </c>
+      <c r="D318">
+        <v>23.7</v>
+      </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -6917,7 +6896,7 @@
         <v>45178.19134210075</v>
       </c>
       <c r="D319">
-        <v>24.5</v>
+        <v>25.3</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -6939,7 +6918,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -6956,7 +6935,7 @@
         <v>45173.59341180327</v>
       </c>
       <c r="D321">
-        <v>24.9</v>
+        <v>27.8</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -6977,7 +6956,7 @@
         <v>45172.19445507194</v>
       </c>
       <c r="D322">
-        <v>26.6</v>
+        <v>25.6</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -6998,7 +6977,7 @@
         <v>45205.38025427525</v>
       </c>
       <c r="D323">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -7018,12 +6997,9 @@
       <c r="C324" s="2">
         <v>45218.60236604348</v>
       </c>
-      <c r="D324">
-        <v>26.8</v>
-      </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -7039,9 +7015,12 @@
       <c r="C325" s="2">
         <v>45210.32135620818</v>
       </c>
+      <c r="D325">
+        <v>26.4</v>
+      </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -7057,12 +7036,9 @@
       <c r="C326" s="2">
         <v>45208.56036752462</v>
       </c>
-      <c r="D326">
-        <v>26.9</v>
-      </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -7078,12 +7054,9 @@
       <c r="C327" s="2">
         <v>45178.52724176434</v>
       </c>
-      <c r="D327">
-        <v>26.9</v>
-      </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -7099,9 +7072,12 @@
       <c r="C328" s="2">
         <v>45174.48167561749</v>
       </c>
+      <c r="D328">
+        <v>26.1</v>
+      </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -7118,7 +7094,7 @@
         <v>45185.45622301212</v>
       </c>
       <c r="D329">
-        <v>27.4</v>
+        <v>26.8</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
@@ -7138,9 +7114,12 @@
       <c r="C330" s="2">
         <v>45193.88765211606</v>
       </c>
+      <c r="D330">
+        <v>25.7</v>
+      </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -7157,7 +7136,7 @@
         <v>45202.74579640119</v>
       </c>
       <c r="D331">
-        <v>26.9</v>
+        <v>28.7</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -7178,7 +7157,7 @@
         <v>45163.01038870525</v>
       </c>
       <c r="D332">
-        <v>28</v>
+        <v>25.8</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -7199,7 +7178,7 @@
         <v>45220.63641970992</v>
       </c>
       <c r="D333">
-        <v>28.4</v>
+        <v>26.7</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
@@ -7220,7 +7199,7 @@
         <v>45233.43389151656</v>
       </c>
       <c r="D334">
-        <v>26.6</v>
+        <v>26.9</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
@@ -7241,7 +7220,7 @@
         <v>45213.37507786936</v>
       </c>
       <c r="D335">
-        <v>26.5</v>
+        <v>27.2</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
@@ -7262,7 +7241,7 @@
         <v>45207.37945884126</v>
       </c>
       <c r="D336">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
@@ -7283,7 +7262,7 @@
         <v>45224.15151937799</v>
       </c>
       <c r="D337">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
@@ -7304,7 +7283,7 @@
         <v>45201.69929401853</v>
       </c>
       <c r="D338">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
@@ -7324,9 +7303,12 @@
       <c r="C339" s="2">
         <v>45218.46098390785</v>
       </c>
+      <c r="D339">
+        <v>26.8</v>
+      </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -7343,7 +7325,7 @@
         <v>45214.44639049647</v>
       </c>
       <c r="D340">
-        <v>27.9</v>
+        <v>26.6</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
@@ -7365,7 +7347,7 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -7382,7 +7364,7 @@
         <v>45216.20716405024</v>
       </c>
       <c r="D342">
-        <v>25.6</v>
+        <v>27.3</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
@@ -7402,9 +7384,12 @@
       <c r="C343" s="2">
         <v>45179.98026257205</v>
       </c>
+      <c r="D343">
+        <v>27.8</v>
+      </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -7421,7 +7406,7 @@
         <v>45243.39798041979</v>
       </c>
       <c r="D344">
-        <v>27.2</v>
+        <v>25.8</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
@@ -7441,12 +7426,9 @@
       <c r="C345" s="2">
         <v>45209.21459186074</v>
       </c>
-      <c r="D345">
-        <v>26.2</v>
-      </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
@@ -7462,9 +7444,12 @@
       <c r="C346" s="2">
         <v>45207.58874401829</v>
       </c>
+      <c r="D346">
+        <v>26.9</v>
+      </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -7481,7 +7466,7 @@
         <v>45222.54659443477</v>
       </c>
       <c r="D347">
-        <v>27.1</v>
+        <v>28.4</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
@@ -7501,12 +7486,9 @@
       <c r="C348" s="2">
         <v>45213.39694328088</v>
       </c>
-      <c r="D348">
-        <v>27</v>
-      </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
@@ -7523,7 +7505,7 @@
         <v>45218.0872892861</v>
       </c>
       <c r="D349">
-        <v>27.1</v>
+        <v>29.6</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
@@ -7543,9 +7525,12 @@
       <c r="C350" s="2">
         <v>45209.16783045266</v>
       </c>
+      <c r="D350">
+        <v>29.1</v>
+      </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -7562,7 +7547,7 @@
         <v>45248.00037143286</v>
       </c>
       <c r="D351">
-        <v>27.9</v>
+        <v>28.3</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
@@ -7583,7 +7568,7 @@
         <v>45252.19179635945</v>
       </c>
       <c r="D352">
-        <v>26.3</v>
+        <v>27.4</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
@@ -7604,7 +7589,7 @@
         <v>45227.89631790902</v>
       </c>
       <c r="D353">
-        <v>28.4</v>
+        <v>26.4</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
@@ -7624,9 +7609,12 @@
       <c r="C354" s="2">
         <v>45242.15577188382</v>
       </c>
+      <c r="D354">
+        <v>25.9</v>
+      </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -7643,7 +7631,7 @@
         <v>45246.28387737996</v>
       </c>
       <c r="D355">
-        <v>27.6</v>
+        <v>25</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
@@ -7663,29 +7651,26 @@
       <c r="C356" s="2">
         <v>45225.54803646688</v>
       </c>
-      <c r="D356">
-        <v>26.9</v>
-      </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>MOI-6_retest</t>
+          <t>MOI-1_retest</t>
         </is>
       </c>
       <c r="C357" s="2">
-        <v>44840.98226319189</v>
+        <v>44816.460688308</v>
       </c>
       <c r="D357">
-        <v>26.90318126496571</v>
+        <v>26.21441213708726</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
@@ -7695,18 +7680,18 @@
     </row>
     <row r="358">
       <c r="A358">
-        <v>492</v>
+        <v>262</v>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>MOI-25_retest</t>
+          <t>MOI-14_retest</t>
         </is>
       </c>
       <c r="C358" s="2">
-        <v>44913.77857215742</v>
+        <v>44889.65642638742</v>
       </c>
       <c r="D358">
-        <v>27.82488899237661</v>
+        <v>27.40479069428121</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
@@ -7716,18 +7701,18 @@
     </row>
     <row r="359">
       <c r="A359">
-        <v>873</v>
+        <v>831</v>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>MOI-37_retest</t>
+          <t>BOU-1_retest</t>
         </is>
       </c>
       <c r="C359" s="2">
-        <v>44914.26443701306</v>
+        <v>44944.64070092564</v>
       </c>
       <c r="D359">
-        <v>27.04212824020561</v>
+        <v>26.95986782086363</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
@@ -7737,39 +7722,36 @@
     </row>
     <row r="360">
       <c r="A360">
-        <v>1294</v>
+        <v>851</v>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>MOI-45_retest</t>
+          <t>MOI-36_retest</t>
         </is>
       </c>
       <c r="C360" s="2">
-        <v>44971.30227425558</v>
-      </c>
-      <c r="D360">
-        <v>27.60037931914769</v>
+        <v>44955.69771936965</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361">
-        <v>1602</v>
+        <v>860</v>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>BOU-14_retest</t>
+          <t>BOU-3_retest</t>
         </is>
       </c>
       <c r="C361" s="2">
-        <v>44997.6043183575</v>
+        <v>44948.0368422882</v>
       </c>
       <c r="D361">
-        <v>26.97257013392567</v>
+        <v>26.78997272500722</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
@@ -7779,18 +7761,18 @@
     </row>
     <row r="362">
       <c r="A362">
-        <v>1907</v>
+        <v>1136</v>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>MOI-56_retest</t>
+          <t>MOI-42_retest</t>
         </is>
       </c>
       <c r="C362" s="2">
-        <v>45020.30181541376</v>
+        <v>44979.21784818983</v>
       </c>
       <c r="D362">
-        <v>26.1285522593086</v>
+        <v>26.07140398177497</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
@@ -7800,18 +7782,18 @@
     </row>
     <row r="363">
       <c r="A363">
-        <v>2195</v>
+        <v>1366</v>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>MOI-60_retest</t>
+          <t>MOI-46_retest</t>
         </is>
       </c>
       <c r="C363" s="2">
-        <v>45023.99484403338</v>
+        <v>44975.20153183212</v>
       </c>
       <c r="D363">
-        <v>29.69726247047421</v>
+        <v>28.86354360943189</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
@@ -7821,18 +7803,18 @@
     </row>
     <row r="364">
       <c r="A364">
-        <v>2605</v>
+        <v>2431</v>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>MOI-71_retest</t>
+          <t>MOI-66_retest</t>
         </is>
       </c>
       <c r="C364" s="2">
-        <v>45043.83954549171</v>
+        <v>45052.66071797392</v>
       </c>
       <c r="D364">
-        <v>26.75288902524803</v>
+        <v>26.90118567062084</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
@@ -7842,18 +7824,18 @@
     </row>
     <row r="365">
       <c r="A365">
-        <v>2772</v>
+        <v>2503</v>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>BOU-29_retest</t>
+          <t>MOI-69_retest</t>
         </is>
       </c>
       <c r="C365" s="2">
-        <v>45042.64539371984</v>
+        <v>45008.3490645122</v>
       </c>
       <c r="D365">
-        <v>26.61236451078183</v>
+        <v>27.04797753701229</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
@@ -7863,18 +7845,18 @@
     </row>
     <row r="366">
       <c r="A366">
-        <v>3143</v>
+        <v>2776</v>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>MOI-81_retest</t>
+          <t>BOU-30_retest</t>
         </is>
       </c>
       <c r="C366" s="2">
-        <v>45026.18015011087</v>
+        <v>45034.70420986893</v>
       </c>
       <c r="D366">
-        <v>26.51354513974704</v>
+        <v>28.39858707353732</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
@@ -7884,39 +7866,36 @@
     </row>
     <row r="367">
       <c r="A367">
-        <v>3377</v>
+        <v>3182</v>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>BOU-43_retest</t>
+          <t>BOU-38_retest</t>
         </is>
       </c>
       <c r="C367" s="2">
-        <v>45067.97982902497</v>
-      </c>
-      <c r="D367">
-        <v>25.67329331858682</v>
+        <v>45024.88847954694</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368">
-        <v>5455</v>
+        <v>3231</v>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>BED-15_retest</t>
+          <t>BOU-41_retest</t>
         </is>
       </c>
       <c r="C368" s="2">
-        <v>45113.04776806245</v>
+        <v>45064.8692527642</v>
       </c>
       <c r="D368">
-        <v>25.77840634035126</v>
+        <v>26.31723893390956</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
@@ -7926,57 +7905,57 @@
     </row>
     <row r="369">
       <c r="A369">
-        <v>5826</v>
+        <v>4286</v>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>BOU-67_retest</t>
+          <t>BED-4_retest</t>
         </is>
       </c>
       <c r="C369" s="2">
-        <v>45166.3376699354</v>
-      </c>
-      <c r="D369">
-        <v>26.2462392746038</v>
+        <v>45121.96939557753</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370">
-        <v>6244</v>
+        <v>4629</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>GOU-2_retest</t>
+          <t>BOU-54_retest</t>
         </is>
       </c>
       <c r="C370" s="2">
-        <v>45175.75534857293</v>
+        <v>45129.00343150909</v>
+      </c>
+      <c r="D370">
+        <v>26.67599151374615</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371">
-        <v>6321</v>
+        <v>4843</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>MOI-118_retest</t>
+          <t>BOU-55_retest</t>
         </is>
       </c>
       <c r="C371" s="2">
-        <v>45180.53122822641</v>
+        <v>45127.63317763583</v>
       </c>
       <c r="D371">
-        <v>27.73194885481909</v>
+        <v>27.35932294312863</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
@@ -7986,18 +7965,18 @@
     </row>
     <row r="372">
       <c r="A372">
-        <v>6710</v>
+        <v>6357</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>BOU-73_retest</t>
+          <t>BED-28_retest</t>
         </is>
       </c>
       <c r="C372" s="2">
-        <v>45129.92619077267</v>
+        <v>45107.95932106242</v>
       </c>
       <c r="D372">
-        <v>27.44383790878092</v>
+        <v>27.37517128532842</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
@@ -8007,39 +7986,36 @@
     </row>
     <row r="373">
       <c r="A373">
-        <v>7161</v>
+        <v>6550</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>GOU-3_retest</t>
+          <t>KOU-6_retest</t>
         </is>
       </c>
       <c r="C373" s="2">
-        <v>45179.71961259466</v>
-      </c>
-      <c r="D373">
-        <v>25.95641640128715</v>
+        <v>45177.43905103994</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374">
-        <v>8967</v>
+        <v>7161</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>BEK-25_retest</t>
+          <t>GOU-3_retest</t>
         </is>
       </c>
       <c r="C374" s="2">
-        <v>45153.91728996491</v>
+        <v>45177.71961259466</v>
       </c>
       <c r="D374">
-        <v>25.76890697321917</v>
+        <v>27.03569555058931</v>
       </c>
       <c r="E374" t="inlineStr">
         <is>
@@ -8049,18 +8025,18 @@
     </row>
     <row r="375">
       <c r="A375">
-        <v>9232</v>
+        <v>8152</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>BOU-84_retest</t>
+          <t>MOI-127_retest</t>
         </is>
       </c>
       <c r="C375" s="2">
-        <v>45211.32135620818</v>
+        <v>45185.55432989181</v>
       </c>
       <c r="D375">
-        <v>26.81084864770478</v>
+        <v>28.24132220042384</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
@@ -8070,36 +8046,39 @@
     </row>
     <row r="376">
       <c r="A376">
-        <v>9288</v>
+        <v>9743</v>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>KOU-22_retest</t>
+          <t>KOU-26_retest</t>
         </is>
       </c>
       <c r="C376" s="2">
-        <v>45196.88765211606</v>
+        <v>45213.21459186074</v>
+      </c>
+      <c r="D376">
+        <v>27.58441580989046</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377">
-        <v>9570</v>
+        <v>9773</v>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>BED-55_retest</t>
+          <t>BED-57_retest</t>
         </is>
       </c>
       <c r="C377" s="2">
-        <v>45227.54691981114</v>
+        <v>45215.39694328088</v>
       </c>
       <c r="D377">
-        <v>28.3773058317071</v>
+        <v>26.59831771048832</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
@@ -8109,19 +8088,22 @@
     </row>
     <row r="378">
       <c r="A378">
-        <v>9637</v>
+        <v>9967</v>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>BOU-86_retest</t>
+          <t>KOU-27_retest</t>
         </is>
       </c>
       <c r="C378" s="2">
-        <v>45180.98026257205</v>
+        <v>45229.54803646688</v>
+      </c>
+      <c r="D378">
+        <v>27.44011500162427</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>

--- a/data/final/xlsx/msf_laboratory_moissala_2023-09-24.xlsx
+++ b/data/final/xlsx/msf_laboratory_moissala_2023-09-24.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E378"/>
+  <dimension ref="A1:E397"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -393,7 +393,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -401,17 +401,20 @@
         </is>
       </c>
       <c r="C2" s="2">
-        <v>44815.460688308</v>
+        <v>44832.85478018647</v>
+      </c>
+      <c r="D2">
+        <v>26.6</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -419,10 +422,10 @@
         </is>
       </c>
       <c r="C3" s="2">
-        <v>44819.90793877289</v>
+        <v>44838.39111491715</v>
       </c>
       <c r="D3">
-        <v>27.8</v>
+        <v>25.3</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -432,7 +435,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -440,20 +443,17 @@
         </is>
       </c>
       <c r="C4" s="2">
-        <v>44838.39111491715</v>
-      </c>
-      <c r="D4">
-        <v>27.8</v>
+        <v>44835.94976414814</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -461,10 +461,10 @@
         </is>
       </c>
       <c r="C5" s="2">
-        <v>44828.28800632375</v>
+        <v>44853.8785645372</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>27.3</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -474,7 +474,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C6" s="2">
-        <v>44843.42567221409</v>
+        <v>44855.67708525682</v>
       </c>
       <c r="D6">
-        <v>27.7</v>
+        <v>27</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -495,7 +495,7 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -503,10 +503,10 @@
         </is>
       </c>
       <c r="C7" s="2">
-        <v>44837.98226319189</v>
+        <v>44845.7755746156</v>
       </c>
       <c r="D7">
-        <v>26.4</v>
+        <v>27.4</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -516,7 +516,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="C8" s="2">
-        <v>44852.8785645372</v>
+        <v>44872.07295598084</v>
       </c>
       <c r="D8">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -537,7 +537,7 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>162</v>
+        <v>264</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -545,10 +545,10 @@
         </is>
       </c>
       <c r="C9" s="2">
-        <v>44857.56754854512</v>
+        <v>44885.56373631555</v>
       </c>
       <c r="D9">
-        <v>26.7</v>
+        <v>27.3</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -558,7 +558,7 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>166</v>
+        <v>278</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -566,20 +566,17 @@
         </is>
       </c>
       <c r="C10" s="2">
-        <v>44860.43275049273</v>
-      </c>
-      <c r="D10">
-        <v>26.9</v>
+        <v>44865.86357383079</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>174</v>
+        <v>280</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -587,10 +584,10 @@
         </is>
       </c>
       <c r="C11" s="2">
-        <v>44850.80513726493</v>
+        <v>44866.54213738762</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>26.8</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -600,7 +597,7 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>194</v>
+        <v>346</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -608,10 +605,10 @@
         </is>
       </c>
       <c r="C12" s="2">
-        <v>44856.79800416289</v>
+        <v>44892.79360118094</v>
       </c>
       <c r="D12">
-        <v>27.3</v>
+        <v>25.8</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -621,7 +618,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>210</v>
+        <v>394</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -629,10 +626,10 @@
         </is>
       </c>
       <c r="C13" s="2">
-        <v>44869.74449974149</v>
+        <v>44872.04704098029</v>
       </c>
       <c r="D13">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -642,7 +639,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>239</v>
+        <v>396</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -650,10 +647,10 @@
         </is>
       </c>
       <c r="C14" s="2">
-        <v>44879.90352682373</v>
+        <v>44877.31942186924</v>
       </c>
       <c r="D14">
-        <v>27.2</v>
+        <v>26.2</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -663,7 +660,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>262</v>
+        <v>405</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -671,17 +668,20 @@
         </is>
       </c>
       <c r="C15" s="2">
-        <v>44887.65642638742</v>
+        <v>44891.43616749209</v>
+      </c>
+      <c r="D15">
+        <v>26.3</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>266</v>
+        <v>427</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -689,17 +689,20 @@
         </is>
       </c>
       <c r="C16" s="2">
-        <v>44875.38656726654</v>
+        <v>44913.52342779198</v>
+      </c>
+      <c r="D16">
+        <v>26.5</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>293</v>
+        <v>429</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -707,20 +710,17 @@
         </is>
       </c>
       <c r="C17" s="2">
-        <v>44891.16944689759</v>
-      </c>
-      <c r="D17">
-        <v>25.9</v>
+        <v>44907.11122777834</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>316</v>
+        <v>438</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -728,10 +728,10 @@
         </is>
       </c>
       <c r="C18" s="2">
-        <v>44871.94646386517</v>
+        <v>44886.16294495176</v>
       </c>
       <c r="D18">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -741,7 +741,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>374</v>
+        <v>492</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="C19" s="2">
-        <v>44881.65698280384</v>
+        <v>44910.77857215742</v>
       </c>
       <c r="D19">
-        <v>26.6</v>
+        <v>27</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>379</v>
+        <v>498</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -770,10 +770,10 @@
         </is>
       </c>
       <c r="C20" s="2">
-        <v>44915.89179912641</v>
+        <v>44895.59733906842</v>
       </c>
       <c r="D20">
-        <v>28</v>
+        <v>28.7</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -783,7 +783,7 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>423</v>
+        <v>504</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -791,10 +791,10 @@
         </is>
       </c>
       <c r="C21" s="2">
-        <v>44883.1739926795</v>
+        <v>44905.39608552265</v>
       </c>
       <c r="D21">
-        <v>29.7</v>
+        <v>28.2</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -804,7 +804,7 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>438</v>
+        <v>514</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -812,10 +812,10 @@
         </is>
       </c>
       <c r="C22" s="2">
-        <v>44886.16294495176</v>
+        <v>44888.6888366741</v>
       </c>
       <c r="D22">
-        <v>27.8</v>
+        <v>26.2</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>439</v>
+        <v>519</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -833,10 +833,10 @@
         </is>
       </c>
       <c r="C23" s="2">
-        <v>44885.0478343671</v>
+        <v>44903.31136826523</v>
       </c>
       <c r="D23">
-        <v>27.2</v>
+        <v>28.4</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>446</v>
+        <v>537</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -854,10 +854,10 @@
         </is>
       </c>
       <c r="C24" s="2">
-        <v>44906.63158326525</v>
+        <v>44879.67350993239</v>
       </c>
       <c r="D24">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>450</v>
+        <v>538</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -875,20 +875,17 @@
         </is>
       </c>
       <c r="C25" s="2">
-        <v>44900.05401210366</v>
-      </c>
-      <c r="D25">
-        <v>27.2</v>
+        <v>44895.81992070255</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>492</v>
+        <v>556</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -896,10 +893,10 @@
         </is>
       </c>
       <c r="C26" s="2">
-        <v>44910.77857215742</v>
+        <v>44910.10624201338</v>
       </c>
       <c r="D26">
-        <v>27.5</v>
+        <v>27</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -909,7 +906,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>496</v>
+        <v>592</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -917,10 +914,10 @@
         </is>
       </c>
       <c r="C27" s="2">
-        <v>44898.52763743659</v>
+        <v>44923.35491089767</v>
       </c>
       <c r="D27">
-        <v>27.6</v>
+        <v>26.7</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -930,7 +927,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>561</v>
+        <v>602</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -938,10 +935,10 @@
         </is>
       </c>
       <c r="C28" s="2">
-        <v>44914.0324201647</v>
+        <v>44934.45694460894</v>
       </c>
       <c r="D28">
-        <v>25.7</v>
+        <v>27.3</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -951,7 +948,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>612</v>
+        <v>660</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -959,20 +956,17 @@
         </is>
       </c>
       <c r="C29" s="2">
-        <v>44920.75502975154</v>
-      </c>
-      <c r="D29">
-        <v>27.3</v>
+        <v>44933.07808852893</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>749</v>
+        <v>804</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -980,20 +974,17 @@
         </is>
       </c>
       <c r="C30" s="2">
-        <v>44918.99321863773</v>
-      </c>
-      <c r="D30">
-        <v>28</v>
+        <v>44940.19201111265</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>750</v>
+        <v>845</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1001,10 +992,10 @@
         </is>
       </c>
       <c r="C31" s="2">
-        <v>44912.41765574194</v>
+        <v>44936.99564069252</v>
       </c>
       <c r="D31">
-        <v>26.5</v>
+        <v>28.2</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1014,18 +1005,18 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>792</v>
+        <v>866</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MOI-31</t>
+          <t>BOU-1</t>
         </is>
       </c>
       <c r="C32" s="2">
-        <v>44935.36804296336</v>
+        <v>44940.62604426149</v>
       </c>
       <c r="D32">
-        <v>28.4</v>
+        <v>27.5</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1035,18 +1026,18 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>819</v>
+        <v>914</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MOI-32</t>
+          <t>BOU-2</t>
         </is>
       </c>
       <c r="C33" s="2">
-        <v>44938.40937408138</v>
+        <v>44939.97522180891</v>
       </c>
       <c r="D33">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1056,33 +1047,36 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>821</v>
+        <v>934</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MOI-33</t>
+          <t>MOI-31</t>
         </is>
       </c>
       <c r="C34" s="2">
-        <v>44900.83192364582</v>
+        <v>44941.42534251595</v>
+      </c>
+      <c r="D34">
+        <v>26.4</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>831</v>
+        <v>951</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BOU-1</t>
+          <t>MOI-32</t>
         </is>
       </c>
       <c r="C35" s="2">
-        <v>44943.64070092564</v>
+        <v>44915.26378107126</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1092,18 +1086,18 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>838</v>
+        <v>960</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MOI-34</t>
+          <t>BOU-3</t>
         </is>
       </c>
       <c r="C36" s="2">
-        <v>44943.19849281058</v>
+        <v>44953.96639236058</v>
       </c>
       <c r="D36">
-        <v>28.8</v>
+        <v>27.3</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1113,54 +1107,60 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>845</v>
+        <v>982</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MOI-35</t>
+          <t>MOI-33</t>
         </is>
       </c>
       <c r="C37" s="2">
-        <v>44936.99564069252</v>
+        <v>44948.90430018147</v>
+      </c>
+      <c r="D37">
+        <v>27.6</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>851</v>
+        <v>987</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MOI-36</t>
+          <t>MOI-34</t>
         </is>
       </c>
       <c r="C38" s="2">
-        <v>44952.69771936965</v>
+        <v>44952.03331005512</v>
+      </c>
+      <c r="D38">
+        <v>27.5</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>857</v>
+        <v>1019</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BOU-2</t>
+          <t>BOU-4</t>
         </is>
       </c>
       <c r="C39" s="2">
-        <v>44936.79481277062</v>
+        <v>44951.21230595524</v>
       </c>
       <c r="D39">
-        <v>26.3</v>
+        <v>27.2</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1170,36 +1170,39 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>860</v>
+        <v>1075</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BOU-3</t>
+          <t>BOU-5</t>
         </is>
       </c>
       <c r="C40" s="2">
-        <v>44946.0368422882</v>
+        <v>44966.98785276897</v>
+      </c>
+      <c r="D40">
+        <v>28</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>866</v>
+        <v>1080</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>BOU-4</t>
+          <t>MOI-35</t>
         </is>
       </c>
       <c r="C41" s="2">
-        <v>44939.62604426149</v>
+        <v>44953.88116249233</v>
       </c>
       <c r="D41">
-        <v>26.4</v>
+        <v>29.1</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1209,18 +1212,18 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>873</v>
+        <v>1089</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MOI-37</t>
+          <t>MOI-36</t>
         </is>
       </c>
       <c r="C42" s="2">
-        <v>44910.26443701306</v>
+        <v>44954.11456234784</v>
       </c>
       <c r="D42">
-        <v>28</v>
+        <v>26.2</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1230,39 +1233,36 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>895</v>
+        <v>1111</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MOI-38</t>
+          <t>MOI-37</t>
         </is>
       </c>
       <c r="C43" s="2">
-        <v>44947.31456131321</v>
-      </c>
-      <c r="D43">
-        <v>27.1</v>
+        <v>44945.71181834045</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>913</v>
+        <v>1116</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MOI-39</t>
+          <t>MOI-38</t>
         </is>
       </c>
       <c r="C44" s="2">
-        <v>44940.89818069786</v>
+        <v>44961.4810214348</v>
       </c>
       <c r="D44">
-        <v>27.3</v>
+        <v>25.5</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1272,18 +1272,18 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>1020</v>
+        <v>1126</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BOU-5</t>
+          <t>MOI-39</t>
         </is>
       </c>
       <c r="C45" s="2">
-        <v>44955.71223621765</v>
+        <v>44965.59003268908</v>
       </c>
       <c r="D45">
-        <v>28</v>
+        <v>26.9</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>1051</v>
+        <v>1127</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="C46" s="2">
-        <v>44967.83448608371</v>
+        <v>44968.29759356887</v>
       </c>
       <c r="D46">
-        <v>28.5</v>
+        <v>25.3</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1314,18 +1314,18 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>1080</v>
+        <v>1148</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BOU-6</t>
+          <t>MOI-41</t>
         </is>
       </c>
       <c r="C47" s="2">
-        <v>44952.88116249233</v>
+        <v>44959.09270958045</v>
       </c>
       <c r="D47">
-        <v>26.7</v>
+        <v>27.1</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1335,18 +1335,18 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>1089</v>
+        <v>1152</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BOU-7</t>
+          <t>BOU-6</t>
         </is>
       </c>
       <c r="C48" s="2">
-        <v>44954.11456234784</v>
+        <v>44962.12681568851</v>
       </c>
       <c r="D48">
-        <v>27.7</v>
+        <v>26.8</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1356,15 +1356,15 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>1127</v>
+        <v>1198</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MOI-41</t>
+          <t>MOI-42</t>
         </is>
       </c>
       <c r="C49" s="2">
-        <v>44967.29759356887</v>
+        <v>44961.99752621686</v>
       </c>
       <c r="D49">
         <v>26.7</v>
@@ -1377,25 +1377,28 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>1136</v>
+        <v>1251</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MOI-42</t>
+          <t>BOU-7</t>
         </is>
       </c>
       <c r="C50" s="2">
-        <v>44976.21784818983</v>
+        <v>44974.04360261073</v>
+      </c>
+      <c r="D50">
+        <v>27.9</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>1142</v>
+        <v>1272</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1403,28 +1406,31 @@
         </is>
       </c>
       <c r="C51" s="2">
-        <v>44958.32514182435</v>
+        <v>44986.09796685302</v>
+      </c>
+      <c r="D51">
+        <v>26.5</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>1211</v>
+        <v>1273</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MOI-43</t>
+          <t>BOU-9</t>
         </is>
       </c>
       <c r="C52" s="2">
-        <v>44963.15765320799</v>
+        <v>44979.47451539832</v>
       </c>
       <c r="D52">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1434,18 +1440,18 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>1218</v>
+        <v>1294</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BOU-9</t>
+          <t>MOI-43</t>
         </is>
       </c>
       <c r="C53" s="2">
-        <v>44962.50214021889</v>
+        <v>44969.30227425558</v>
       </c>
       <c r="D53">
-        <v>26.9</v>
+        <v>27.8</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1455,7 +1461,7 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>1247</v>
+        <v>1306</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1463,10 +1469,10 @@
         </is>
       </c>
       <c r="C54" s="2">
-        <v>44975.22186277975</v>
+        <v>44964.24334884733</v>
       </c>
       <c r="D54">
-        <v>26.6</v>
+        <v>28.4</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1476,18 +1482,18 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>1264</v>
+        <v>1379</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BOU-10</t>
+          <t>MOI-45</t>
         </is>
       </c>
       <c r="C55" s="2">
-        <v>44972.3783896134</v>
+        <v>44965.11240427283</v>
       </c>
       <c r="D55">
-        <v>25.3</v>
+        <v>27.4</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1497,18 +1503,18 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>1294</v>
+        <v>1380</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MOI-45</t>
+          <t>BOU-10</t>
         </is>
       </c>
       <c r="C56" s="2">
-        <v>44968.30227425558</v>
+        <v>44973.83305609917</v>
       </c>
       <c r="D56">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1518,7 +1524,7 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>1366</v>
+        <v>1395</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1526,17 +1532,20 @@
         </is>
       </c>
       <c r="C57" s="2">
-        <v>44973.20153183212</v>
+        <v>44970.3509593719</v>
+      </c>
+      <c r="D57">
+        <v>27</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>1461</v>
+        <v>1397</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1544,28 +1553,31 @@
         </is>
       </c>
       <c r="C58" s="2">
-        <v>44965.53989275932</v>
+        <v>44980.50223520458</v>
+      </c>
+      <c r="D58">
+        <v>27.4</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>1510</v>
+        <v>1429</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MOI-47</t>
+          <t>BOU-12</t>
         </is>
       </c>
       <c r="C59" s="2">
-        <v>44980.24274497592</v>
+        <v>44980.17972537615</v>
       </c>
       <c r="D59">
-        <v>26.3</v>
+        <v>29.4</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1575,54 +1587,60 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>1522</v>
+        <v>1442</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MOI-48</t>
+          <t>BOU-13</t>
         </is>
       </c>
       <c r="C60" s="2">
-        <v>44981.71521283925</v>
+        <v>44968.99129597329</v>
+      </c>
+      <c r="D60">
+        <v>26.5</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>1571</v>
+        <v>1470</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MOI-49</t>
+          <t>BOU-14</t>
         </is>
       </c>
       <c r="C61" s="2">
-        <v>44976.24378386853</v>
+        <v>44984.27288470825</v>
+      </c>
+      <c r="D61">
+        <v>26.5</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>1573</v>
+        <v>1497</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BOU-12</t>
+          <t>MOI-47</t>
         </is>
       </c>
       <c r="C62" s="2">
-        <v>44996.53753321301</v>
+        <v>44996.0240531868</v>
       </c>
       <c r="D62">
-        <v>27.5</v>
+        <v>29.6</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1632,18 +1650,18 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>1580</v>
+        <v>1501</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MOI-50</t>
+          <t>MOI-48</t>
         </is>
       </c>
       <c r="C63" s="2">
-        <v>44992.15124751707</v>
+        <v>44982.79660974306</v>
       </c>
       <c r="D63">
-        <v>27.1</v>
+        <v>26.2</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1653,96 +1671,96 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>1598</v>
+        <v>1522</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BOU-13</t>
+          <t>MOI-49</t>
         </is>
       </c>
       <c r="C64" s="2">
-        <v>44987.28798158045</v>
-      </c>
-      <c r="D64">
-        <v>27.2</v>
+        <v>44981.71521283925</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>1602</v>
+        <v>1568</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BOU-14</t>
+          <t>BOU-15</t>
         </is>
       </c>
       <c r="C65" s="2">
-        <v>44993.6043183575</v>
-      </c>
-      <c r="D65">
-        <v>25.4</v>
+        <v>44981.86138258835</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>1641</v>
+        <v>1604</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MOI-51</t>
+          <t>BOU-16</t>
         </is>
       </c>
       <c r="C66" s="2">
-        <v>45002.57931985162</v>
+        <v>44990.65509367475</v>
+      </c>
+      <c r="D66">
+        <v>26.4</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>1707</v>
+        <v>1642</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BOU-15</t>
+          <t>MOI-50</t>
         </is>
       </c>
       <c r="C67" s="2">
-        <v>44986.14060004799</v>
+        <v>44997.84179973303</v>
+      </c>
+      <c r="D67">
+        <v>26.5</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>1718</v>
+        <v>1660</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BOU-16</t>
+          <t>MOI-51</t>
         </is>
       </c>
       <c r="C68" s="2">
-        <v>44983.60744182799</v>
+        <v>45002.33990000078</v>
       </c>
       <c r="D68">
-        <v>27.8</v>
+        <v>25.4</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -1752,7 +1770,7 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>1730</v>
+        <v>1735</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -1760,28 +1778,31 @@
         </is>
       </c>
       <c r="C69" s="2">
-        <v>45004.30859678594</v>
+        <v>45007.16042170937</v>
+      </c>
+      <c r="D69">
+        <v>26</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>1735</v>
+        <v>1739</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MOI-53</t>
+          <t>BOU-17</t>
         </is>
       </c>
       <c r="C70" s="2">
-        <v>45006.16042170937</v>
+        <v>45002.36037942332</v>
       </c>
       <c r="D70">
-        <v>27.6</v>
+        <v>26.5</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -1791,18 +1812,18 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BOU-17</t>
+          <t>BOU-18</t>
         </is>
       </c>
       <c r="C71" s="2">
-        <v>44996.65988373545</v>
+        <v>44998.51528349551</v>
       </c>
       <c r="D71">
-        <v>27.5</v>
+        <v>26.8</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -1816,14 +1837,14 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MOI-54</t>
+          <t>BOU-19</t>
         </is>
       </c>
       <c r="C72" s="2">
         <v>44995.28422181921</v>
       </c>
       <c r="D72">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -1833,18 +1854,18 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>1795</v>
+        <v>1791</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MOI-55</t>
+          <t>BOU-20</t>
         </is>
       </c>
       <c r="C73" s="2">
-        <v>44982.79778194692</v>
+        <v>44980.86889441409</v>
       </c>
       <c r="D73">
-        <v>28.3</v>
+        <v>27.9</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -1854,18 +1875,18 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>1801</v>
+        <v>1793</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BOU-18</t>
+          <t>BOU-21</t>
         </is>
       </c>
       <c r="C74" s="2">
-        <v>44985.76080455848</v>
+        <v>44981.72346664036</v>
       </c>
       <c r="D74">
-        <v>25.9</v>
+        <v>27.8</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -1875,18 +1896,18 @@
     </row>
     <row r="75">
       <c r="A75">
-        <v>1834</v>
+        <v>1822</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>BOU-19</t>
+          <t>MOI-53</t>
         </is>
       </c>
       <c r="C75" s="2">
-        <v>45009.53290315486</v>
+        <v>44998.5936682295</v>
       </c>
       <c r="D75">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -1896,18 +1917,18 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>1847</v>
+        <v>1830</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>BOU-20</t>
+          <t>MOI-54</t>
         </is>
       </c>
       <c r="C76" s="2">
-        <v>44995.22405344402</v>
+        <v>45022.83893075613</v>
       </c>
       <c r="D76">
-        <v>26.2</v>
+        <v>26.7</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -1917,18 +1938,18 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>1907</v>
+        <v>1869</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MOI-56</t>
+          <t>BOU-22</t>
         </is>
       </c>
       <c r="C77" s="2">
-        <v>45017.30181541376</v>
+        <v>45002.6072143758</v>
       </c>
       <c r="D77">
-        <v>27.4</v>
+        <v>28.4</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -1938,18 +1959,18 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>1908</v>
+        <v>1972</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BOU-21</t>
+          <t>BOU-23</t>
         </is>
       </c>
       <c r="C78" s="2">
-        <v>45022.14190692731</v>
+        <v>44997.50404442361</v>
       </c>
       <c r="D78">
-        <v>26</v>
+        <v>26.8</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -1959,15 +1980,15 @@
     </row>
     <row r="79">
       <c r="A79">
-        <v>1969</v>
+        <v>1991</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MOI-57</t>
+          <t>BOU-24</t>
         </is>
       </c>
       <c r="C79" s="2">
-        <v>45017.08434580434</v>
+        <v>44992.77815739364</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -1977,18 +1998,18 @@
     </row>
     <row r="80">
       <c r="A80">
-        <v>1999</v>
+        <v>1993</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MOI-58</t>
+          <t>BOU-25</t>
         </is>
       </c>
       <c r="C80" s="2">
-        <v>44990.89847432802</v>
+        <v>44981.09071648348</v>
       </c>
       <c r="D80">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -1998,18 +2019,18 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>2077</v>
+        <v>2004</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MOI-59</t>
+          <t>BOU-26</t>
         </is>
       </c>
       <c r="C81" s="2">
-        <v>45020.52390981741</v>
+        <v>44998.20442726873</v>
       </c>
       <c r="D81">
-        <v>25.7</v>
+        <v>26.6</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2019,39 +2040,36 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>2128</v>
+        <v>2008</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>BOU-22</t>
+          <t>MOI-55</t>
         </is>
       </c>
       <c r="C82" s="2">
-        <v>44999.28386001081</v>
-      </c>
-      <c r="D82">
-        <v>28.4</v>
+        <v>45010.09978002966</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>2195</v>
+        <v>2026</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MOI-60</t>
+          <t>MOI-56</t>
         </is>
       </c>
       <c r="C83" s="2">
-        <v>45019.99484403338</v>
+        <v>45021.91750877898</v>
       </c>
       <c r="D83">
-        <v>28.5</v>
+        <v>26.8</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2061,15 +2079,15 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>2200</v>
+        <v>2056</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MOI-61</t>
+          <t>BOU-27</t>
         </is>
       </c>
       <c r="C84" s="2">
-        <v>45024.69128170291</v>
+        <v>45014.95709227034</v>
       </c>
       <c r="D84">
         <v>27.2</v>
@@ -2082,18 +2100,18 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>2343</v>
+        <v>2065</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>BOU-23</t>
+          <t>MOI-57</t>
         </is>
       </c>
       <c r="C85" s="2">
-        <v>45038.41486670459</v>
+        <v>45019.94303900286</v>
       </c>
       <c r="D85">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2103,57 +2121,57 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>2356</v>
+        <v>2078</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MOI-62</t>
+          <t>MOI-58</t>
         </is>
       </c>
       <c r="C86" s="2">
-        <v>45014.64140680563</v>
+        <v>45020.31065295114</v>
+      </c>
+      <c r="D86">
+        <v>27.7</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>2380</v>
+        <v>2083</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>MOI-63</t>
+          <t>MOI-59</t>
         </is>
       </c>
       <c r="C87" s="2">
-        <v>45012.57871818931</v>
-      </c>
-      <c r="D87">
-        <v>26.9</v>
+        <v>44994.03585757473</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>2387</v>
+        <v>2084</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>BOU-24</t>
+          <t>BOU-28</t>
         </is>
       </c>
       <c r="C88" s="2">
-        <v>45022.23424849716</v>
+        <v>44995.61839153706</v>
       </c>
       <c r="D88">
-        <v>26.8</v>
+        <v>27</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2163,15 +2181,15 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>2402</v>
+        <v>2132</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>MOI-64</t>
+          <t>BOU-29</t>
         </is>
       </c>
       <c r="C89" s="2">
-        <v>45021.71992864476</v>
+        <v>45006.2717651881</v>
       </c>
       <c r="D89">
         <v>27.9</v>
@@ -2184,18 +2202,18 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>2418</v>
+        <v>2158</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>MOI-65</t>
+          <t>BOU-30</t>
         </is>
       </c>
       <c r="C90" s="2">
-        <v>45025.9874110021</v>
+        <v>45035.91677818907</v>
       </c>
       <c r="D90">
-        <v>28.2</v>
+        <v>25.9</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2205,36 +2223,39 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>2431</v>
+        <v>2181</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>MOI-66</t>
+          <t>MOI-60</t>
         </is>
       </c>
       <c r="C91" s="2">
-        <v>45048.66071797392</v>
+        <v>45022.12105951995</v>
+      </c>
+      <c r="D91">
+        <v>28</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>2434</v>
+        <v>2189</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>BOU-25</t>
+          <t>BOU-31</t>
         </is>
       </c>
       <c r="C92" s="2">
-        <v>45040.10458805067</v>
+        <v>45022.76840423352</v>
       </c>
       <c r="D92">
-        <v>27</v>
+        <v>25.8</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2244,36 +2265,39 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>2436</v>
+        <v>2195</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>BOU-26</t>
+          <t>MOI-61</t>
         </is>
       </c>
       <c r="C93" s="2">
-        <v>45041.61696312052</v>
+        <v>45020.99484403338</v>
+      </c>
+      <c r="D93">
+        <v>28.3</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>2447</v>
+        <v>2200</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>MOI-67</t>
+          <t>BOU-32</t>
         </is>
       </c>
       <c r="C94" s="2">
-        <v>45038.70849249711</v>
+        <v>45024.69128170291</v>
       </c>
       <c r="D94">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2283,15 +2307,15 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>2448</v>
+        <v>2235</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>MOI-68</t>
+          <t>MOI-62</t>
         </is>
       </c>
       <c r="C95" s="2">
-        <v>45048.85627897174</v>
+        <v>45010.08776005487</v>
       </c>
       <c r="D95">
         <v>27.4</v>
@@ -2304,36 +2328,36 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>2503</v>
+        <v>2393</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>MOI-69</t>
+          <t>BOU-33</t>
         </is>
       </c>
       <c r="C96" s="2">
-        <v>45004.3490645122</v>
+        <v>45024.42707274081</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>2552</v>
+        <v>2402</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>MOI-70</t>
+          <t>BOU-34</t>
         </is>
       </c>
       <c r="C97" s="2">
-        <v>45045.23422440798</v>
+        <v>45021.71992864476</v>
       </c>
       <c r="D97">
-        <v>26.6</v>
+        <v>27.3</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2343,18 +2367,18 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>2588</v>
+        <v>2444</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>BOU-27</t>
+          <t>MOI-63</t>
         </is>
       </c>
       <c r="C98" s="2">
-        <v>45042.94499360998</v>
+        <v>45032.9098395384</v>
       </c>
       <c r="D98">
-        <v>26.5</v>
+        <v>28.2</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2364,18 +2388,18 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>2605</v>
+        <v>2503</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MOI-71</t>
+          <t>MOI-64</t>
         </is>
       </c>
       <c r="C99" s="2">
-        <v>45041.83954549171</v>
+        <v>45005.3490645122</v>
       </c>
       <c r="D99">
-        <v>29.2</v>
+        <v>28.4</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2385,18 +2409,18 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>2616</v>
+        <v>2530</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MOI-72</t>
+          <t>MOI-65</t>
         </is>
       </c>
       <c r="C100" s="2">
-        <v>45049.11370468572</v>
+        <v>45026.55422875434</v>
       </c>
       <c r="D100">
-        <v>26.5</v>
+        <v>27.3</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2406,18 +2430,18 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>2746</v>
+        <v>2543</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>BOU-28</t>
+          <t>MOI-66</t>
         </is>
       </c>
       <c r="C101" s="2">
-        <v>45009.9348130874</v>
+        <v>45020.1802348121</v>
       </c>
       <c r="D101">
-        <v>26.9</v>
+        <v>29</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2427,18 +2451,18 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>2772</v>
+        <v>2589</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>BOU-29</t>
+          <t>BOU-35</t>
         </is>
       </c>
       <c r="C102" s="2">
-        <v>45039.64539371984</v>
+        <v>45052.20185733565</v>
       </c>
       <c r="D102">
-        <v>29.2</v>
+        <v>25.9</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2448,36 +2472,39 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>2776</v>
+        <v>2598</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>BOU-30</t>
+          <t>BOU-36</t>
         </is>
       </c>
       <c r="C103" s="2">
-        <v>45030.70420986893</v>
+        <v>45012.72100291024</v>
+      </c>
+      <c r="D103">
+        <v>27.5</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>2777</v>
+        <v>2641</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>MOI-73</t>
+          <t>BOU-37</t>
         </is>
       </c>
       <c r="C104" s="2">
-        <v>45037.85204829129</v>
+        <v>45031.52101670795</v>
       </c>
       <c r="D104">
-        <v>28.7</v>
+        <v>29</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -2487,18 +2514,18 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>2783</v>
+        <v>2643</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>MOI-74</t>
+          <t>MOI-67</t>
         </is>
       </c>
       <c r="C105" s="2">
-        <v>45037.68957679503</v>
+        <v>45031.15205087682</v>
       </c>
       <c r="D105">
-        <v>28.7</v>
+        <v>27.2</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -2508,18 +2535,18 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>2792</v>
+        <v>2648</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>MOI-75</t>
+          <t>BOU-38</t>
         </is>
       </c>
       <c r="C106" s="2">
-        <v>45049.72248530478</v>
+        <v>45041.91137452148</v>
       </c>
       <c r="D106">
-        <v>28.6</v>
+        <v>27.1</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2529,39 +2556,36 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>2803</v>
+        <v>2649</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MOI-76</t>
+          <t>BOU-39</t>
         </is>
       </c>
       <c r="C107" s="2">
-        <v>45023.39539944143</v>
-      </c>
-      <c r="D107">
-        <v>26</v>
+        <v>45039.4362911573</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>2806</v>
+        <v>2666</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>BOU-31</t>
+          <t>MOI-68</t>
         </is>
       </c>
       <c r="C108" s="2">
-        <v>45028.85955482703</v>
+        <v>45033.77477625637</v>
       </c>
       <c r="D108">
-        <v>27.4</v>
+        <v>25.8</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -2571,18 +2595,18 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>2883</v>
+        <v>2682</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>MOI-77</t>
+          <t>MOI-69</t>
         </is>
       </c>
       <c r="C109" s="2">
-        <v>45029.89588080787</v>
+        <v>45044.22582549752</v>
       </c>
       <c r="D109">
-        <v>26.1</v>
+        <v>27.1</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -2592,18 +2616,18 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>2888</v>
+        <v>2684</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>BOU-32</t>
+          <t>MOI-70</t>
         </is>
       </c>
       <c r="C110" s="2">
-        <v>45014.52102969485</v>
+        <v>45056.04452825906</v>
       </c>
       <c r="D110">
-        <v>25.7</v>
+        <v>26.5</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2613,18 +2637,18 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>2890</v>
+        <v>2692</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>BOU-33</t>
+          <t>MOI-71</t>
         </is>
       </c>
       <c r="C111" s="2">
-        <v>45016.96762746694</v>
+        <v>45054.26987495118</v>
       </c>
       <c r="D111">
-        <v>26.4</v>
+        <v>27.4</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -2634,18 +2658,18 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>2928</v>
+        <v>2697</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>BOU-34</t>
+          <t>MOI-72</t>
         </is>
       </c>
       <c r="C112" s="2">
-        <v>45038.09927218755</v>
+        <v>45063.43978323878</v>
       </c>
       <c r="D112">
-        <v>28.4</v>
+        <v>26.2</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -2655,18 +2679,18 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>2947</v>
+        <v>2766</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>BOU-35</t>
+          <t>MOI-73</t>
         </is>
       </c>
       <c r="C113" s="2">
-        <v>45059.93627730936</v>
+        <v>45014.76377559066</v>
       </c>
       <c r="D113">
-        <v>26.6</v>
+        <v>26.4</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -2676,36 +2700,36 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>3002</v>
+        <v>2777</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>BOU-36</t>
+          <t>BOU-40</t>
         </is>
       </c>
       <c r="C114" s="2">
-        <v>45020.71927410193</v>
+        <v>45037.85204829129</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>3017</v>
+        <v>2801</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>MOI-78</t>
+          <t>BOU-41</t>
         </is>
       </c>
       <c r="C115" s="2">
-        <v>45040.59410715254</v>
+        <v>45028.25233260475</v>
       </c>
       <c r="D115">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2715,18 +2739,18 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>3019</v>
+        <v>2803</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MOI-79</t>
+          <t>MOI-74</t>
         </is>
       </c>
       <c r="C116" s="2">
-        <v>45025.89007628156</v>
+        <v>45023.39539944143</v>
       </c>
       <c r="D116">
-        <v>27.3</v>
+        <v>25.8</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -2736,18 +2760,18 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>3068</v>
+        <v>2806</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>BOU-37</t>
+          <t>BOU-42</t>
         </is>
       </c>
       <c r="C117" s="2">
-        <v>45037.73932700278</v>
+        <v>45029.85955482703</v>
       </c>
       <c r="D117">
-        <v>26.8</v>
+        <v>27.6</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -2757,36 +2781,36 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>3100</v>
+        <v>2856</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>MOI-80</t>
+          <t>MOI-75</t>
         </is>
       </c>
       <c r="C118" s="2">
-        <v>45052.76072005015</v>
+        <v>45059.37018561996</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>3143</v>
+        <v>2879</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>MOI-81</t>
+          <t>BOU-43</t>
         </is>
       </c>
       <c r="C119" s="2">
-        <v>45022.18015011087</v>
+        <v>45029.19520492543</v>
       </c>
       <c r="D119">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -2796,18 +2820,18 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>3149</v>
+        <v>2883</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MOI-82</t>
+          <t>BOU-44</t>
         </is>
       </c>
       <c r="C120" s="2">
-        <v>45029.62865405576</v>
+        <v>45029.89588080787</v>
       </c>
       <c r="D120">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -2817,36 +2841,39 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>3182</v>
+        <v>2888</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>BOU-38</t>
+          <t>BOU-45</t>
         </is>
       </c>
       <c r="C121" s="2">
-        <v>45020.88847954694</v>
+        <v>45015.52102969485</v>
+      </c>
+      <c r="D121">
+        <v>28.8</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>3194</v>
+        <v>2911</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>MOI-83</t>
+          <t>BOU-46</t>
         </is>
       </c>
       <c r="C122" s="2">
-        <v>45053.60946938767</v>
+        <v>45051.07196598651</v>
       </c>
       <c r="D122">
-        <v>26.7</v>
+        <v>28.2</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -2856,18 +2883,18 @@
     </row>
     <row r="123">
       <c r="A123">
-        <v>3204</v>
+        <v>2924</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>BOU-39</t>
+          <t>MOI-76</t>
         </is>
       </c>
       <c r="C123" s="2">
-        <v>45052.30366931683</v>
+        <v>45040.11921934789</v>
       </c>
       <c r="D123">
-        <v>26</v>
+        <v>28.6</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -2877,15 +2904,15 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>3211</v>
+        <v>2963</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>BOU-40</t>
+          <t>MOI-77</t>
         </is>
       </c>
       <c r="C124" s="2">
-        <v>45069.50068817231</v>
+        <v>45062.18726216973</v>
       </c>
       <c r="D124">
         <v>27.5</v>
@@ -2898,36 +2925,39 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>3231</v>
+        <v>3004</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>BOU-41</t>
+          <t>BOU-47</t>
         </is>
       </c>
       <c r="C125" s="2">
-        <v>45061.8692527642</v>
+        <v>45022.59313848973</v>
+      </c>
+      <c r="D125">
+        <v>27.6</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>3277</v>
+        <v>3058</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>BOU-42</t>
+          <t>BOU-48</t>
         </is>
       </c>
       <c r="C126" s="2">
-        <v>45031.12441226168</v>
+        <v>45059.35554253867</v>
       </c>
       <c r="D126">
-        <v>27.3</v>
+        <v>25.5</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -2937,18 +2967,18 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>3318</v>
+        <v>3090</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MOI-84</t>
+          <t>BOU-49</t>
         </is>
       </c>
       <c r="C127" s="2">
-        <v>45033.30092947741</v>
+        <v>45071.06666257069</v>
       </c>
       <c r="D127">
-        <v>27.1</v>
+        <v>28.8</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -2958,18 +2988,18 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>3368</v>
+        <v>3111</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>MOI-85</t>
+          <t>BOU-50</t>
         </is>
       </c>
       <c r="C128" s="2">
-        <v>45061.57260960942</v>
+        <v>45056.15173936551</v>
       </c>
       <c r="D128">
-        <v>28</v>
+        <v>25.8</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -2979,18 +3009,18 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>3377</v>
+        <v>3123</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>BOU-43</t>
+          <t>MOI-78</t>
         </is>
       </c>
       <c r="C129" s="2">
-        <v>45064.97982902497</v>
+        <v>45062.56655830742</v>
       </c>
       <c r="D129">
-        <v>25.7</v>
+        <v>27.9</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -3000,18 +3030,18 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>3427</v>
+        <v>3150</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>MOI-86</t>
+          <t>BOU-51</t>
         </is>
       </c>
       <c r="C130" s="2">
-        <v>45041.82697463233</v>
+        <v>45024.60304867399</v>
       </c>
       <c r="D130">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3021,18 +3051,18 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>3481</v>
+        <v>3164</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>MOI-87</t>
+          <t>MOI-79</t>
         </is>
       </c>
       <c r="C131" s="2">
-        <v>45068.42134093468</v>
+        <v>45031.10881378181</v>
       </c>
       <c r="D131">
-        <v>28.8</v>
+        <v>27</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -3042,18 +3072,18 @@
     </row>
     <row r="132">
       <c r="A132">
-        <v>3531</v>
+        <v>3178</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>MOI-88</t>
+          <t>BOU-52</t>
         </is>
       </c>
       <c r="C132" s="2">
-        <v>45039.53467587596</v>
+        <v>45039.41378572502</v>
       </c>
       <c r="D132">
-        <v>26.1</v>
+        <v>27.3</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -3063,18 +3093,18 @@
     </row>
     <row r="133">
       <c r="A133">
-        <v>3574</v>
+        <v>3181</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>BOU-44</t>
+          <t>MOI-80</t>
         </is>
       </c>
       <c r="C133" s="2">
-        <v>45041.87705960278</v>
+        <v>45028.1006044419</v>
       </c>
       <c r="D133">
-        <v>27.3</v>
+        <v>28.3</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -3084,18 +3114,18 @@
     </row>
     <row r="134">
       <c r="A134">
-        <v>3580</v>
+        <v>3196</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>MOI-89</t>
+          <t>MOI-81</t>
         </is>
       </c>
       <c r="C134" s="2">
-        <v>45059.59953734608</v>
+        <v>45049.14236570967</v>
       </c>
       <c r="D134">
-        <v>26.6</v>
+        <v>27.1</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -3105,18 +3135,18 @@
     </row>
     <row r="135">
       <c r="A135">
-        <v>3626</v>
+        <v>3228</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>MOI-90</t>
+          <t>MOI-82</t>
         </is>
       </c>
       <c r="C135" s="2">
-        <v>45079.37148472259</v>
+        <v>45057.70067970396</v>
       </c>
       <c r="D135">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3126,39 +3156,36 @@
     </row>
     <row r="136">
       <c r="A136">
-        <v>3682</v>
+        <v>3233</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>BOU-45</t>
+          <t>MOI-83</t>
         </is>
       </c>
       <c r="C136" s="2">
-        <v>45048.95544875994</v>
-      </c>
-      <c r="D136">
-        <v>27</v>
+        <v>45062.02540295778</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>3704</v>
+        <v>3246</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>MOI-91</t>
+          <t>MOI-84</t>
         </is>
       </c>
       <c r="C137" s="2">
-        <v>45043.06669811087</v>
+        <v>45082.8887742243</v>
       </c>
       <c r="D137">
-        <v>26.6</v>
+        <v>28</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3168,39 +3195,36 @@
     </row>
     <row r="138">
       <c r="A138">
-        <v>3707</v>
+        <v>3342</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>MOI-92</t>
+          <t>MOI-85</t>
         </is>
       </c>
       <c r="C138" s="2">
-        <v>45047.61053871371</v>
-      </c>
-      <c r="D138">
-        <v>27.1</v>
+        <v>45071.49779586529</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>3708</v>
+        <v>3363</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>MOI-93</t>
+          <t>BOU-53</t>
         </is>
       </c>
       <c r="C139" s="2">
-        <v>45049.63090861114</v>
+        <v>45066.98770369581</v>
       </c>
       <c r="D139">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3210,18 +3234,18 @@
     </row>
     <row r="140">
       <c r="A140">
-        <v>3733</v>
+        <v>3368</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>MOI-94</t>
+          <t>MOI-86</t>
         </is>
       </c>
       <c r="C140" s="2">
-        <v>45081.19333012986</v>
+        <v>45061.57260960942</v>
       </c>
       <c r="D140">
-        <v>28.6</v>
+        <v>27.1</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -3231,18 +3255,18 @@
     </row>
     <row r="141">
       <c r="A141">
-        <v>3741</v>
+        <v>3377</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>BOU-46</t>
+          <t>BOU-54</t>
         </is>
       </c>
       <c r="C141" s="2">
-        <v>45077.52933106283</v>
+        <v>45065.97982902497</v>
       </c>
       <c r="D141">
-        <v>26.5</v>
+        <v>27.3</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -3252,18 +3276,18 @@
     </row>
     <row r="142">
       <c r="A142">
-        <v>3765</v>
+        <v>3394</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>BOU-47</t>
+          <t>MOI-87</t>
         </is>
       </c>
       <c r="C142" s="2">
-        <v>45091.87404744526</v>
+        <v>45036.49999646192</v>
       </c>
       <c r="D142">
-        <v>26.6</v>
+        <v>28</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -3273,18 +3297,18 @@
     </row>
     <row r="143">
       <c r="A143">
-        <v>3800</v>
+        <v>3395</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>MOI-95</t>
+          <t>MOI-88</t>
         </is>
       </c>
       <c r="C143" s="2">
-        <v>45043.33244976289</v>
+        <v>45035.33388972201</v>
       </c>
       <c r="D143">
-        <v>26.7</v>
+        <v>27.6</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -3294,39 +3318,36 @@
     </row>
     <row r="144">
       <c r="A144">
-        <v>3821</v>
+        <v>3481</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>BOU-48</t>
+          <t>MOI-89</t>
         </is>
       </c>
       <c r="C144" s="2">
-        <v>45074.96426977804</v>
-      </c>
-      <c r="D144">
-        <v>28.2</v>
+        <v>45068.42134093468</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>3915</v>
+        <v>3546</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>BOU-49</t>
+          <t>MOI-90</t>
         </is>
       </c>
       <c r="C145" s="2">
-        <v>45074.58096279972</v>
+        <v>45039.55615714521</v>
       </c>
       <c r="D145">
-        <v>26.5</v>
+        <v>28</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -3336,39 +3357,36 @@
     </row>
     <row r="146">
       <c r="A146">
-        <v>3924</v>
+        <v>3580</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>MOI-96</t>
+          <t>MOI-91</t>
         </is>
       </c>
       <c r="C146" s="2">
-        <v>45087.6765715794</v>
-      </c>
-      <c r="D146">
-        <v>28.2</v>
+        <v>45059.59953734608</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>3936</v>
+        <v>3626</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>MOI-97</t>
+          <t>MOI-92</t>
         </is>
       </c>
       <c r="C147" s="2">
-        <v>45107.09128769867</v>
+        <v>45079.37148472259</v>
       </c>
       <c r="D147">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -3378,18 +3396,18 @@
     </row>
     <row r="148">
       <c r="A148">
-        <v>3938</v>
+        <v>3690</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>BOU-50</t>
+          <t>BOU-55</t>
         </is>
       </c>
       <c r="C148" s="2">
-        <v>45090.32063200872</v>
+        <v>45061.18771924981</v>
       </c>
       <c r="D148">
-        <v>26.3</v>
+        <v>27.4</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3399,18 +3417,18 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>3946</v>
+        <v>3694</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>MOI-98</t>
+          <t>MOI-93</t>
         </is>
       </c>
       <c r="C149" s="2">
-        <v>45098.91967749098</v>
+        <v>45054.48941556818</v>
       </c>
       <c r="D149">
-        <v>27.3</v>
+        <v>28</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3420,18 +3438,18 @@
     </row>
     <row r="150">
       <c r="A150">
-        <v>4028</v>
+        <v>3699</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>BED-1</t>
+          <t>BOU-56</t>
         </is>
       </c>
       <c r="C150" s="2">
-        <v>45092.25834017359</v>
+        <v>45038.93046315743</v>
       </c>
       <c r="D150">
-        <v>26</v>
+        <v>27.7</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3441,18 +3459,18 @@
     </row>
     <row r="151">
       <c r="A151">
-        <v>4106</v>
+        <v>3754</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>BOU-51</t>
+          <t>MOI-94</t>
         </is>
       </c>
       <c r="C151" s="2">
-        <v>45050.58155541359</v>
+        <v>45073.99855490464</v>
       </c>
       <c r="D151">
-        <v>26.9</v>
+        <v>29.5</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3462,18 +3480,18 @@
     </row>
     <row r="152">
       <c r="A152">
-        <v>4107</v>
+        <v>3777</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>MOI-99</t>
+          <t>MOI-95</t>
         </is>
       </c>
       <c r="C152" s="2">
-        <v>45050.73804316539</v>
+        <v>45047.0185070953</v>
       </c>
       <c r="D152">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -3483,18 +3501,18 @@
     </row>
     <row r="153">
       <c r="A153">
-        <v>4129</v>
+        <v>3781</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>BED-2</t>
+          <t>MOI-96</t>
         </is>
       </c>
       <c r="C153" s="2">
-        <v>45103.79362863957</v>
+        <v>45052.58504206374</v>
       </c>
       <c r="D153">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -3504,18 +3522,18 @@
     </row>
     <row r="154">
       <c r="A154">
-        <v>4173</v>
+        <v>3814</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>MOI-100</t>
+          <t>MOI-97</t>
         </is>
       </c>
       <c r="C154" s="2">
-        <v>45106.21857808711</v>
+        <v>45053.84980243554</v>
       </c>
       <c r="D154">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -3525,33 +3543,36 @@
     </row>
     <row r="155">
       <c r="A155">
-        <v>4216</v>
+        <v>3858</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>MOI-101</t>
+          <t>MOI-98</t>
         </is>
       </c>
       <c r="C155" s="2">
-        <v>45068.51847140295</v>
+        <v>45103.21001256564</v>
+      </c>
+      <c r="D155">
+        <v>27.9</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>4224</v>
+        <v>3897</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>MOI-102</t>
+          <t>BOU-57</t>
         </is>
       </c>
       <c r="C156" s="2">
-        <v>45077.68296847444</v>
+        <v>45062.32736522541</v>
       </c>
       <c r="D156">
         <v>27.8</v>
@@ -3564,18 +3585,18 @@
     </row>
     <row r="157">
       <c r="A157">
-        <v>4226</v>
+        <v>3910</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>BED-3</t>
+          <t>BOU-58</t>
         </is>
       </c>
       <c r="C157" s="2">
-        <v>45094.61024688848</v>
+        <v>45082.49456742901</v>
       </c>
       <c r="D157">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -3585,18 +3606,18 @@
     </row>
     <row r="158">
       <c r="A158">
-        <v>4278</v>
+        <v>3918</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>BEK-1</t>
+          <t>BOU-59</t>
         </is>
       </c>
       <c r="C158" s="2">
-        <v>45136.15651897936</v>
+        <v>45077.40907581955</v>
       </c>
       <c r="D158">
-        <v>26.3</v>
+        <v>27.3</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -3606,18 +3627,18 @@
     </row>
     <row r="159">
       <c r="A159">
-        <v>4285</v>
+        <v>3924</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>MOI-103</t>
+          <t>MOI-99</t>
         </is>
       </c>
       <c r="C159" s="2">
-        <v>45113.93341192012</v>
+        <v>45088.6765715794</v>
       </c>
       <c r="D159">
-        <v>27.8</v>
+        <v>26.2</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -3627,54 +3648,60 @@
     </row>
     <row r="160">
       <c r="A160">
-        <v>4286</v>
+        <v>3938</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>BED-4</t>
+          <t>BOU-60</t>
         </is>
       </c>
       <c r="C160" s="2">
-        <v>45118.96939557753</v>
+        <v>45091.32063200872</v>
+      </c>
+      <c r="D160">
+        <v>26.5</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>4295</v>
+        <v>3942</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>MOI-104</t>
+          <t>BED-1</t>
         </is>
       </c>
       <c r="C161" s="2">
-        <v>45067.82703593654</v>
+        <v>45092.25924597024</v>
+      </c>
+      <c r="D161">
+        <v>27</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>4311</v>
+        <v>3951</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>BOU-52</t>
+          <t>BOU-61</t>
         </is>
       </c>
       <c r="C162" s="2">
-        <v>45062.61200382268</v>
+        <v>45101.58511808</v>
       </c>
       <c r="D162">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -3684,36 +3711,39 @@
     </row>
     <row r="163">
       <c r="A163">
-        <v>4312</v>
+        <v>3964</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>MOI-105</t>
+          <t>MOI-100</t>
         </is>
       </c>
       <c r="C163" s="2">
-        <v>45081.71899240385</v>
+        <v>45112.69298222162</v>
+      </c>
+      <c r="D163">
+        <v>26.3</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>4329</v>
+        <v>3968</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>MOI-106</t>
+          <t>MOI-101</t>
         </is>
       </c>
       <c r="C164" s="2">
-        <v>45085.55805937434</v>
+        <v>45063.67189145276</v>
       </c>
       <c r="D164">
-        <v>26.7</v>
+        <v>28.5</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -3723,78 +3753,75 @@
     </row>
     <row r="165">
       <c r="A165">
-        <v>4469</v>
+        <v>4016</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>BEK-2</t>
+          <t>BOU-62</t>
         </is>
       </c>
       <c r="C165" s="2">
-        <v>45119.18496933944</v>
-      </c>
-      <c r="D165">
-        <v>27</v>
+        <v>45051.38394084573</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>4488</v>
+        <v>4023</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>BED-5</t>
+          <t>BOU-63</t>
         </is>
       </c>
       <c r="C166" s="2">
-        <v>45122.79060258323</v>
+        <v>45082.14370035002</v>
+      </c>
+      <c r="D166">
+        <v>27.5</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>4546</v>
+        <v>4026</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>MOI-107</t>
+          <t>BED-2</t>
         </is>
       </c>
       <c r="C167" s="2">
-        <v>45100.43844195276</v>
-      </c>
-      <c r="D167">
-        <v>28</v>
+        <v>45094.04713785452</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>4577</v>
+        <v>4027</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>BOU-53</t>
+          <t>MOI-102</t>
         </is>
       </c>
       <c r="C168" s="2">
-        <v>45122.78997057029</v>
+        <v>45088.92716482757</v>
       </c>
       <c r="D168">
-        <v>25.2</v>
+        <v>25.7</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -3804,18 +3831,18 @@
     </row>
     <row r="169">
       <c r="A169">
-        <v>4588</v>
+        <v>4048</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>BEK-3</t>
+          <t>BOU-64</t>
         </is>
       </c>
       <c r="C169" s="2">
-        <v>45114.68319698665</v>
+        <v>45093.64160694399</v>
       </c>
       <c r="D169">
-        <v>28.1</v>
+        <v>27.1</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -3825,54 +3852,54 @@
     </row>
     <row r="170">
       <c r="A170">
-        <v>4598</v>
+        <v>4148</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>BED-6</t>
+          <t>BEK-1</t>
         </is>
       </c>
       <c r="C170" s="2">
-        <v>45118.49101784821</v>
-      </c>
-      <c r="D170">
-        <v>26.8</v>
+        <v>45107.20682093133</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>4629</v>
+        <v>4158</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>BOU-54</t>
+          <t>BOU-65</t>
         </is>
       </c>
       <c r="C171" s="2">
-        <v>45125.00343150909</v>
+        <v>45100.97887953722</v>
+      </c>
+      <c r="D171">
+        <v>28.1</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>4729</v>
+        <v>4177</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>MOI-108</t>
+          <t>MOI-103</t>
         </is>
       </c>
       <c r="C172" s="2">
-        <v>45120.40457647461</v>
+        <v>45114.06236330172</v>
       </c>
       <c r="D172">
         <v>28.7</v>
@@ -3885,18 +3912,18 @@
     </row>
     <row r="173">
       <c r="A173">
-        <v>4747</v>
+        <v>4209</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>MOI-109</t>
+          <t>MOI-104</t>
         </is>
       </c>
       <c r="C173" s="2">
-        <v>45072.15156054891</v>
+        <v>45053.07505267931</v>
       </c>
       <c r="D173">
-        <v>26</v>
+        <v>28.2</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -3906,18 +3933,18 @@
     </row>
     <row r="174">
       <c r="A174">
-        <v>4786</v>
+        <v>4213</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>BED-7</t>
+          <t>MOI-105</t>
         </is>
       </c>
       <c r="C174" s="2">
-        <v>45119.58034688514</v>
+        <v>45069.74680257317</v>
       </c>
       <c r="D174">
-        <v>28.2</v>
+        <v>26.6</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -3927,36 +3954,39 @@
     </row>
     <row r="175">
       <c r="A175">
-        <v>4843</v>
+        <v>4221</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>BOU-55</t>
+          <t>BOU-66</t>
         </is>
       </c>
       <c r="C175" s="2">
-        <v>45123.63317763583</v>
+        <v>45080.22256439082</v>
+      </c>
+      <c r="D175">
+        <v>28.4</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>4865</v>
+        <v>4224</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>BED-8</t>
+          <t>MOI-106</t>
         </is>
       </c>
       <c r="C176" s="2">
-        <v>45140.83358806097</v>
+        <v>45078.68296847444</v>
       </c>
       <c r="D176">
-        <v>28.8</v>
+        <v>27.4</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -3966,15 +3996,15 @@
     </row>
     <row r="177">
       <c r="A177">
-        <v>4964</v>
+        <v>4251</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>BED-9</t>
+          <t>MOI-107</t>
         </is>
       </c>
       <c r="C177" s="2">
-        <v>45137.53601004006</v>
+        <v>45113.63239683378</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -3984,18 +4014,18 @@
     </row>
     <row r="178">
       <c r="A178">
-        <v>4985</v>
+        <v>4278</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>BED-10</t>
+          <t>BEK-2</t>
         </is>
       </c>
       <c r="C178" s="2">
-        <v>45136.48311448856</v>
+        <v>45136.15651897936</v>
       </c>
       <c r="D178">
-        <v>27.3</v>
+        <v>28.5</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -4005,18 +4035,18 @@
     </row>
     <row r="179">
       <c r="A179">
-        <v>4994</v>
+        <v>4286</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>BOU-56</t>
+          <t>BED-3</t>
         </is>
       </c>
       <c r="C179" s="2">
-        <v>45133.4296885266</v>
+        <v>45118.96939557753</v>
       </c>
       <c r="D179">
-        <v>25.5</v>
+        <v>26.9</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -4026,18 +4056,18 @@
     </row>
     <row r="180">
       <c r="A180">
-        <v>5047</v>
+        <v>4346</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>BOU-57</t>
+          <t>BEK-3</t>
         </is>
       </c>
       <c r="C180" s="2">
-        <v>45099.74798795408</v>
+        <v>45104.48493324564</v>
       </c>
       <c r="D180">
-        <v>28.4</v>
+        <v>26.6</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -4047,18 +4077,18 @@
     </row>
     <row r="181">
       <c r="A181">
-        <v>5049</v>
+        <v>4421</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>BED-11</t>
+          <t>BED-4</t>
         </is>
       </c>
       <c r="C181" s="2">
-        <v>45097.09783262051</v>
+        <v>45094.87216097932</v>
       </c>
       <c r="D181">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -4068,18 +4098,18 @@
     </row>
     <row r="182">
       <c r="A182">
-        <v>5056</v>
+        <v>4535</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>BOU-58</t>
+          <t>MOI-108</t>
         </is>
       </c>
       <c r="C182" s="2">
-        <v>45082.14819444307</v>
+        <v>45082.29106518293</v>
       </c>
       <c r="D182">
-        <v>28.3</v>
+        <v>27.7</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -4089,18 +4119,18 @@
     </row>
     <row r="183">
       <c r="A183">
-        <v>5095</v>
+        <v>4536</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>BED-12</t>
+          <t>BOU-67</t>
         </is>
       </c>
       <c r="C183" s="2">
-        <v>45135.1447132553</v>
+        <v>45077.07689498448</v>
       </c>
       <c r="D183">
-        <v>28.6</v>
+        <v>27.3</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -4110,18 +4140,18 @@
     </row>
     <row r="184">
       <c r="A184">
-        <v>5097</v>
+        <v>4541</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>MOI-110</t>
+          <t>MOI-109</t>
         </is>
       </c>
       <c r="C184" s="2">
-        <v>45141.44475879412</v>
+        <v>45079.32565878319</v>
       </c>
       <c r="D184">
-        <v>26.5</v>
+        <v>28.1</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -4131,18 +4161,18 @@
     </row>
     <row r="185">
       <c r="A185">
-        <v>5158</v>
+        <v>4583</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>BOU-59</t>
+          <t>MOI-110</t>
         </is>
       </c>
       <c r="C185" s="2">
-        <v>45096.05453674852</v>
+        <v>45125.52647241264</v>
       </c>
       <c r="D185">
-        <v>27.1</v>
+        <v>25.5</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -4152,18 +4182,18 @@
     </row>
     <row r="186">
       <c r="A186">
-        <v>5169</v>
+        <v>4604</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>BOU-60</t>
+          <t>BOU-68</t>
         </is>
       </c>
       <c r="C186" s="2">
-        <v>45097.76746935285</v>
+        <v>45124.59835864417</v>
       </c>
       <c r="D186">
-        <v>26.8</v>
+        <v>25.6</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -4173,18 +4203,18 @@
     </row>
     <row r="187">
       <c r="A187">
-        <v>5196</v>
+        <v>4720</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>BOU-61</t>
+          <t>BOU-69</t>
         </is>
       </c>
       <c r="C187" s="2">
-        <v>45083.76744698847</v>
+        <v>45132.21919616275</v>
       </c>
       <c r="D187">
-        <v>26.3</v>
+        <v>28.1</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -4194,18 +4224,18 @@
     </row>
     <row r="188">
       <c r="A188">
-        <v>5217</v>
+        <v>4741</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>BOU-62</t>
+          <t>BED-5</t>
         </is>
       </c>
       <c r="C188" s="2">
-        <v>45149.1194908863</v>
+        <v>45134.99469063235</v>
       </c>
       <c r="D188">
-        <v>25.3</v>
+        <v>27.9</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -4215,18 +4245,18 @@
     </row>
     <row r="189">
       <c r="A189">
-        <v>5253</v>
+        <v>4790</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>BED-13</t>
+          <t>BED-6</t>
         </is>
       </c>
       <c r="C189" s="2">
-        <v>45148.9921063018</v>
+        <v>45143.41485211848</v>
       </c>
       <c r="D189">
-        <v>27.6</v>
+        <v>26.3</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -4236,18 +4266,18 @@
     </row>
     <row r="190">
       <c r="A190">
-        <v>5406</v>
+        <v>4796</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>BOU-63</t>
+          <t>BEK-4</t>
         </is>
       </c>
       <c r="C190" s="2">
-        <v>45144.98267805765</v>
+        <v>45131.93488816659</v>
       </c>
       <c r="D190">
-        <v>29.6</v>
+        <v>27.5</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -4257,18 +4287,18 @@
     </row>
     <row r="191">
       <c r="A191">
-        <v>5419</v>
+        <v>4830</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>BED-14</t>
+          <t>MOI-111</t>
         </is>
       </c>
       <c r="C191" s="2">
-        <v>45145.58550127494</v>
+        <v>45135.00119856636</v>
       </c>
       <c r="D191">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -4278,18 +4308,18 @@
     </row>
     <row r="192">
       <c r="A192">
-        <v>5455</v>
+        <v>4842</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>BED-15</t>
+          <t>BED-7</t>
         </is>
       </c>
       <c r="C192" s="2">
-        <v>45109.04776806245</v>
+        <v>45132.6131958538</v>
       </c>
       <c r="D192">
-        <v>25.5</v>
+        <v>26</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -4299,18 +4329,18 @@
     </row>
     <row r="193">
       <c r="A193">
-        <v>5478</v>
+        <v>4866</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>BED-16</t>
+          <t>BOU-70</t>
         </is>
       </c>
       <c r="C193" s="2">
-        <v>45117.22969539791</v>
+        <v>45140.00766137287</v>
       </c>
       <c r="D193">
-        <v>27</v>
+        <v>27.6</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -4320,18 +4350,18 @@
     </row>
     <row r="194">
       <c r="A194">
-        <v>5532</v>
+        <v>4903</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>BOU-64</t>
+          <t>BOU-71</t>
         </is>
       </c>
       <c r="C194" s="2">
-        <v>45156.62355695136</v>
+        <v>45093.92952258451</v>
       </c>
       <c r="D194">
-        <v>26.9</v>
+        <v>27.5</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -4341,18 +4371,18 @@
     </row>
     <row r="195">
       <c r="A195">
-        <v>5540</v>
+        <v>5025</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>MOI-111</t>
+          <t>MOI-112</t>
         </is>
       </c>
       <c r="C195" s="2">
-        <v>45146.87602922673</v>
+        <v>45086.48865014339</v>
       </c>
       <c r="D195">
-        <v>28.5</v>
+        <v>26.3</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -4362,18 +4392,18 @@
     </row>
     <row r="196">
       <c r="A196">
-        <v>5565</v>
+        <v>5047</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>BED-17</t>
+          <t>BED-8</t>
         </is>
       </c>
       <c r="C196" s="2">
-        <v>45158.49463536756</v>
+        <v>45100.74798795408</v>
       </c>
       <c r="D196">
-        <v>27.9</v>
+        <v>26.6</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -4383,18 +4413,18 @@
     </row>
     <row r="197">
       <c r="A197">
-        <v>5570</v>
+        <v>5114</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>MOI-112</t>
+          <t>BEK-5</t>
         </is>
       </c>
       <c r="C197" s="2">
-        <v>45153.87273567406</v>
+        <v>45138.15478144643</v>
       </c>
       <c r="D197">
-        <v>27.3</v>
+        <v>29.6</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -4404,36 +4434,39 @@
     </row>
     <row r="198">
       <c r="A198">
-        <v>5575</v>
+        <v>5120</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>BEK-4</t>
+          <t>BEK-6</t>
         </is>
       </c>
       <c r="C198" s="2">
-        <v>45175.65096184623</v>
+        <v>45129.65405553098</v>
+      </c>
+      <c r="D198">
+        <v>27.1</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>5592</v>
+        <v>5122</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>MOI-113</t>
+          <t>BOU-72</t>
         </is>
       </c>
       <c r="C199" s="2">
-        <v>45146.32846256671</v>
+        <v>45139.25651070851</v>
       </c>
       <c r="D199">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -4443,18 +4476,18 @@
     </row>
     <row r="200">
       <c r="A200">
-        <v>5608</v>
+        <v>5169</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>BED-18</t>
+          <t>MOI-113</t>
         </is>
       </c>
       <c r="C200" s="2">
-        <v>45172.99501134927</v>
+        <v>45097.76746935285</v>
       </c>
       <c r="D200">
-        <v>28.1</v>
+        <v>27.7</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -4464,18 +4497,18 @@
     </row>
     <row r="201">
       <c r="A201">
-        <v>5699</v>
+        <v>5220</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>BEK-5</t>
+          <t>BED-9</t>
         </is>
       </c>
       <c r="C201" s="2">
-        <v>45156.22416868196</v>
+        <v>45148.07338214567</v>
       </c>
       <c r="D201">
-        <v>26.4</v>
+        <v>27.7</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -4485,18 +4518,18 @@
     </row>
     <row r="202">
       <c r="A202">
-        <v>5702</v>
+        <v>5221</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>BEK-6</t>
+          <t>BED-10</t>
         </is>
       </c>
       <c r="C202" s="2">
-        <v>45164.08236028154</v>
+        <v>45140.23516150457</v>
       </c>
       <c r="D202">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -4506,18 +4539,18 @@
     </row>
     <row r="203">
       <c r="A203">
-        <v>5724</v>
+        <v>5230</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>BOU-65</t>
+          <t>BED-11</t>
         </is>
       </c>
       <c r="C203" s="2">
-        <v>45171.84956031654</v>
+        <v>45141.43773123628</v>
       </c>
       <c r="D203">
-        <v>26.6</v>
+        <v>26.9</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -4527,28 +4560,25 @@
     </row>
     <row r="204">
       <c r="A204">
-        <v>5737</v>
+        <v>5290</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>BOU-66</t>
+          <t>BED-12</t>
         </is>
       </c>
       <c r="C204" s="2">
-        <v>45150.21053777897</v>
-      </c>
-      <c r="D204">
-        <v>27.1</v>
+        <v>45161.92767917434</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>5764</v>
+        <v>5296</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -4556,10 +4586,10 @@
         </is>
       </c>
       <c r="C205" s="2">
-        <v>45174.97927223805</v>
+        <v>45096.10347152814</v>
       </c>
       <c r="D205">
-        <v>27.3</v>
+        <v>26</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -4569,36 +4599,39 @@
     </row>
     <row r="206">
       <c r="A206">
-        <v>5781</v>
+        <v>5300</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>KOU-1</t>
+          <t>BOU-73</t>
         </is>
       </c>
       <c r="C206" s="2">
-        <v>45155.78562242621</v>
+        <v>45088.5401944347</v>
+      </c>
+      <c r="D206">
+        <v>27.6</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>5805</v>
+        <v>5311</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>BED-19</t>
+          <t>BOU-74</t>
         </is>
       </c>
       <c r="C207" s="2">
-        <v>45161.17289830798</v>
+        <v>45105.73744488944</v>
       </c>
       <c r="D207">
-        <v>27.9</v>
+        <v>27.4</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -4608,18 +4641,18 @@
     </row>
     <row r="208">
       <c r="A208">
-        <v>5820</v>
+        <v>5392</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>KOU-2</t>
+          <t>BED-13</t>
         </is>
       </c>
       <c r="C208" s="2">
-        <v>45166.15636573635</v>
+        <v>45146.26597947811</v>
       </c>
       <c r="D208">
-        <v>25.1</v>
+        <v>27.6</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -4629,18 +4662,18 @@
     </row>
     <row r="209">
       <c r="A209">
-        <v>5823</v>
+        <v>5450</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>BED-20</t>
+          <t>MOI-115</t>
         </is>
       </c>
       <c r="C209" s="2">
-        <v>45155.5595440999</v>
+        <v>45097.6352121728</v>
       </c>
       <c r="D209">
-        <v>25.7</v>
+        <v>26.7</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -4650,18 +4683,18 @@
     </row>
     <row r="210">
       <c r="A210">
-        <v>5826</v>
+        <v>5478</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>BOU-67</t>
+          <t>BED-14</t>
         </is>
       </c>
       <c r="C210" s="2">
-        <v>45163.3376699354</v>
+        <v>45118.22969539791</v>
       </c>
       <c r="D210">
-        <v>28.8</v>
+        <v>27.2</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -4671,18 +4704,18 @@
     </row>
     <row r="211">
       <c r="A211">
-        <v>5853</v>
+        <v>5488</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>MOI-115</t>
+          <t>BED-15</t>
         </is>
       </c>
       <c r="C211" s="2">
-        <v>45127.34868558131</v>
+        <v>45108.8683163808</v>
       </c>
       <c r="D211">
-        <v>27.9</v>
+        <v>26.7</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -4692,18 +4725,18 @@
     </row>
     <row r="212">
       <c r="A212">
-        <v>5865</v>
+        <v>5524</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>BOU-68</t>
+          <t>BED-16</t>
         </is>
       </c>
       <c r="C212" s="2">
-        <v>45117.9418895142</v>
+        <v>45162.39564056885</v>
       </c>
       <c r="D212">
-        <v>28.3</v>
+        <v>25.3</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -4713,18 +4746,18 @@
     </row>
     <row r="213">
       <c r="A213">
-        <v>5871</v>
+        <v>5532</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>BEK-7</t>
+          <t>BED-17</t>
         </is>
       </c>
       <c r="C213" s="2">
-        <v>45119.43757728559</v>
+        <v>45157.62355695136</v>
       </c>
       <c r="D213">
-        <v>28.6</v>
+        <v>25.3</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -4734,18 +4767,18 @@
     </row>
     <row r="214">
       <c r="A214">
-        <v>5880</v>
+        <v>5540</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>BED-21</t>
+          <t>MOI-116</t>
         </is>
       </c>
       <c r="C214" s="2">
-        <v>45114.95850654985</v>
+        <v>45147.87602922673</v>
       </c>
       <c r="D214">
-        <v>27.6</v>
+        <v>28.6</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -4755,39 +4788,36 @@
     </row>
     <row r="215">
       <c r="A215">
-        <v>5899</v>
+        <v>5565</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>GOU-1</t>
+          <t>BED-18</t>
         </is>
       </c>
       <c r="C215" s="2">
-        <v>45167.48497358055</v>
-      </c>
-      <c r="D215">
-        <v>26.4</v>
+        <v>45159.49463536756</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>5912</v>
+        <v>5620</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>BED-22</t>
+          <t>MOI-117</t>
         </is>
       </c>
       <c r="C216" s="2">
-        <v>45166.63372921804</v>
+        <v>45171.05337911229</v>
       </c>
       <c r="D216">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -4797,18 +4827,18 @@
     </row>
     <row r="217">
       <c r="A217">
-        <v>5927</v>
+        <v>5625</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>BOU-69</t>
+          <t>BOU-75</t>
         </is>
       </c>
       <c r="C217" s="2">
-        <v>45151.75095487626</v>
+        <v>45156.9420356448</v>
       </c>
       <c r="D217">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -4818,15 +4848,15 @@
     </row>
     <row r="218">
       <c r="A218">
-        <v>5943</v>
+        <v>5693</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>BEK-8</t>
+          <t>BOU-76</t>
         </is>
       </c>
       <c r="C218" s="2">
-        <v>45158.57707481145</v>
+        <v>45119.67873527878</v>
       </c>
       <c r="D218">
         <v>27.9</v>
@@ -4839,18 +4869,18 @@
     </row>
     <row r="219">
       <c r="A219">
-        <v>5949</v>
+        <v>5755</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>BEK-9</t>
+          <t>BED-19</t>
         </is>
       </c>
       <c r="C219" s="2">
-        <v>45156.72937531074</v>
+        <v>45149.42252159246</v>
       </c>
       <c r="D219">
-        <v>25.9</v>
+        <v>26.8</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -4860,39 +4890,36 @@
     </row>
     <row r="220">
       <c r="A220">
-        <v>5988</v>
+        <v>5787</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>BED-23</t>
+          <t>KOU-1</t>
         </is>
       </c>
       <c r="C220" s="2">
-        <v>45174.8414424713</v>
-      </c>
-      <c r="D220">
-        <v>29</v>
+        <v>45159.85383977472</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>6061</v>
+        <v>5854</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>BED-24</t>
+          <t>BEK-7</t>
         </is>
       </c>
       <c r="C221" s="2">
-        <v>45160.01992525295</v>
+        <v>45128.02441958332</v>
       </c>
       <c r="D221">
-        <v>27</v>
+        <v>27.7</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -4902,18 +4929,18 @@
     </row>
     <row r="222">
       <c r="A222">
-        <v>6067</v>
+        <v>5857</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>BED-25</t>
+          <t>MOI-118</t>
         </is>
       </c>
       <c r="C222" s="2">
-        <v>45165.76719569121</v>
+        <v>45128.16138892582</v>
       </c>
       <c r="D222">
-        <v>28.3</v>
+        <v>26.7</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -4923,18 +4950,18 @@
     </row>
     <row r="223">
       <c r="A223">
-        <v>6068</v>
+        <v>5927</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>KOU-3</t>
+          <t>BOU-77</t>
         </is>
       </c>
       <c r="C223" s="2">
-        <v>45171.13007678971</v>
+        <v>45152.75095487626</v>
       </c>
       <c r="D223">
-        <v>27</v>
+        <v>28.5</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -4944,18 +4971,18 @@
     </row>
     <row r="224">
       <c r="A224">
-        <v>6102</v>
+        <v>5961</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>MOI-116</t>
+          <t>KOU-2</t>
         </is>
       </c>
       <c r="C224" s="2">
-        <v>45131.85495057618</v>
+        <v>45159.43242269414</v>
       </c>
       <c r="D224">
-        <v>27.8</v>
+        <v>26.9</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -4965,18 +4992,18 @@
     </row>
     <row r="225">
       <c r="A225">
-        <v>6140</v>
+        <v>5965</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>BOU-70</t>
+          <t>BOU-78</t>
         </is>
       </c>
       <c r="C225" s="2">
-        <v>45177.88520427365</v>
+        <v>45162.66513864809</v>
       </c>
       <c r="D225">
-        <v>25.3</v>
+        <v>28.5</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -4986,18 +5013,18 @@
     </row>
     <row r="226">
       <c r="A226">
-        <v>6176</v>
+        <v>6061</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>MOI-117</t>
+          <t>BED-20</t>
         </is>
       </c>
       <c r="C226" s="2">
-        <v>45162.04064841198</v>
+        <v>45160.01992525295</v>
       </c>
       <c r="D226">
-        <v>26.6</v>
+        <v>26.1</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -5007,18 +5034,18 @@
     </row>
     <row r="227">
       <c r="A227">
-        <v>6195</v>
+        <v>6099</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>BOU-71</t>
+          <t>BED-21</t>
         </is>
       </c>
       <c r="C227" s="2">
-        <v>45163.66401549815</v>
+        <v>45128.93591358</v>
       </c>
       <c r="D227">
-        <v>27.9</v>
+        <v>26.6</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -5028,18 +5055,18 @@
     </row>
     <row r="228">
       <c r="A228">
-        <v>6227</v>
+        <v>6129</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>BEK-10</t>
+          <t>BOU-79</t>
         </is>
       </c>
       <c r="C228" s="2">
-        <v>45164.8168185457</v>
+        <v>45122.7528719812</v>
       </c>
       <c r="D228">
-        <v>27.2</v>
+        <v>26.7</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -5049,18 +5076,18 @@
     </row>
     <row r="229">
       <c r="A229">
-        <v>6244</v>
+        <v>6139</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>GOU-2</t>
+          <t>BED-22</t>
         </is>
       </c>
       <c r="C229" s="2">
-        <v>45173.75534857293</v>
+        <v>45117.71016102487</v>
       </c>
       <c r="D229">
-        <v>25.6</v>
+        <v>27.1</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -5070,18 +5097,18 @@
     </row>
     <row r="230">
       <c r="A230">
-        <v>6262</v>
+        <v>6143</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>KOU-4</t>
+          <t>BED-23</t>
         </is>
       </c>
       <c r="C230" s="2">
-        <v>45161.3728142067</v>
+        <v>45169.14132735787</v>
       </c>
       <c r="D230">
-        <v>25.7</v>
+        <v>27.5</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -5091,39 +5118,36 @@
     </row>
     <row r="231">
       <c r="A231">
-        <v>6284</v>
+        <v>6221</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>BED-26</t>
+          <t>KOU-3</t>
         </is>
       </c>
       <c r="C231" s="2">
-        <v>45171.74477447316</v>
-      </c>
-      <c r="D231">
-        <v>27.5</v>
+        <v>45164.88572087766</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>6317</v>
+        <v>6252</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>BED-27</t>
+          <t>GOU-1</t>
         </is>
       </c>
       <c r="C232" s="2">
-        <v>45165.44873479631</v>
+        <v>45163.86773833262</v>
       </c>
       <c r="D232">
-        <v>26</v>
+        <v>27.9</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -5133,57 +5157,54 @@
     </row>
     <row r="233">
       <c r="A233">
-        <v>6321</v>
+        <v>6266</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>MOI-118</t>
+          <t>MOI-119</t>
         </is>
       </c>
       <c r="C233" s="2">
-        <v>45176.53122822641</v>
-      </c>
-      <c r="D233">
-        <v>26.9</v>
+        <v>45157.6298845025</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>6357</v>
+        <v>6284</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>BED-28</t>
+          <t>GOU-2</t>
         </is>
       </c>
       <c r="C234" s="2">
-        <v>45105.95932106242</v>
+        <v>45171.74477447316</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>6363</v>
+        <v>6324</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>BEK-11</t>
+          <t>GOU-3</t>
         </is>
       </c>
       <c r="C235" s="2">
-        <v>45115.22416727751</v>
+        <v>45174.54988851708</v>
       </c>
       <c r="D235">
-        <v>28.4</v>
+        <v>27.5</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -5193,18 +5214,18 @@
     </row>
     <row r="236">
       <c r="A236">
-        <v>6364</v>
+        <v>6334</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>BOU-72</t>
+          <t>BED-24</t>
         </is>
       </c>
       <c r="C236" s="2">
-        <v>45121.5960408525</v>
+        <v>45112.70596075692</v>
       </c>
       <c r="D236">
-        <v>27.2</v>
+        <v>26.7</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -5214,36 +5235,39 @@
     </row>
     <row r="237">
       <c r="A237">
-        <v>6447</v>
+        <v>6339</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>MOI-119</t>
+          <t>BEK-8</t>
         </is>
       </c>
       <c r="C237" s="2">
-        <v>45170.4875667587</v>
+        <v>45114.52435381764</v>
+      </c>
+      <c r="D237">
+        <v>28.2</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>6458</v>
+        <v>6349</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>BEK-12</t>
+          <t>BEK-9</t>
         </is>
       </c>
       <c r="C238" s="2">
-        <v>45162.62704590401</v>
+        <v>45108.88205722108</v>
       </c>
       <c r="D238">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -5253,18 +5277,18 @@
     </row>
     <row r="239">
       <c r="A239">
-        <v>6513</v>
+        <v>6355</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>BED-29</t>
+          <t>BED-25</t>
         </is>
       </c>
       <c r="C239" s="2">
-        <v>45173.0229124945</v>
+        <v>45109.1798101375</v>
       </c>
       <c r="D239">
-        <v>27.5</v>
+        <v>26.3</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -5274,18 +5298,18 @@
     </row>
     <row r="240">
       <c r="A240">
-        <v>6522</v>
+        <v>6356</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>BEK-13</t>
+          <t>BEK-10</t>
         </is>
       </c>
       <c r="C240" s="2">
-        <v>45187.60976323736</v>
+        <v>45118.09010323614</v>
       </c>
       <c r="D240">
-        <v>27.4</v>
+        <v>26.2</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -5295,36 +5319,39 @@
     </row>
     <row r="241">
       <c r="A241">
-        <v>6525</v>
+        <v>6357</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>KOU-5</t>
+          <t>BED-26</t>
         </is>
       </c>
       <c r="C241" s="2">
-        <v>45187.87789507692</v>
+        <v>45106.95932106242</v>
+      </c>
+      <c r="D241">
+        <v>27.3</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>6538</v>
+        <v>6370</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>BED-30</t>
+          <t>MOI-120</t>
         </is>
       </c>
       <c r="C242" s="2">
-        <v>45174.4672436503</v>
+        <v>45139.94406676217</v>
       </c>
       <c r="D242">
-        <v>25.9</v>
+        <v>28.2</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -5334,36 +5361,39 @@
     </row>
     <row r="243">
       <c r="A243">
-        <v>6550</v>
+        <v>6412</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>KOU-6</t>
+          <t>MOI-121</t>
         </is>
       </c>
       <c r="C243" s="2">
-        <v>45174.43905103994</v>
+        <v>45127.09685741185</v>
+      </c>
+      <c r="D243">
+        <v>28.5</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>6552</v>
+        <v>6447</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>BEK-14</t>
+          <t>BED-27</t>
         </is>
       </c>
       <c r="C244" s="2">
-        <v>45172.78704062275</v>
+        <v>45170.4875667587</v>
       </c>
       <c r="D244">
-        <v>28.3</v>
+        <v>27.9</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -5373,39 +5403,36 @@
     </row>
     <row r="245">
       <c r="A245">
-        <v>6559</v>
+        <v>6451</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>BED-31</t>
+          <t>BOU-80</t>
         </is>
       </c>
       <c r="C245" s="2">
-        <v>45179.64158621425</v>
-      </c>
-      <c r="D245">
-        <v>26.5</v>
+        <v>45169.46154773102</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>6710</v>
+        <v>6458</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>BOU-73</t>
+          <t>BEK-11</t>
         </is>
       </c>
       <c r="C246" s="2">
-        <v>45128.92619077267</v>
+        <v>45162.62704590401</v>
       </c>
       <c r="D246">
-        <v>28.6</v>
+        <v>26.1</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -5415,39 +5442,36 @@
     </row>
     <row r="247">
       <c r="A247">
-        <v>6762</v>
+        <v>6534</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>KOU-7</t>
+          <t>GOU-4</t>
         </is>
       </c>
       <c r="C247" s="2">
-        <v>45187.16937921479</v>
-      </c>
-      <c r="D247">
-        <v>25.3</v>
+        <v>45190.95819827051</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>6775</v>
+        <v>6628</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>MOI-120</t>
+          <t>BEK-12</t>
         </is>
       </c>
       <c r="C248" s="2">
-        <v>45166.36433189923</v>
+        <v>45122.17279501856</v>
       </c>
       <c r="D248">
-        <v>28.6</v>
+        <v>28.1</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -5457,18 +5481,18 @@
     </row>
     <row r="249">
       <c r="A249">
-        <v>6820</v>
+        <v>6651</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>BOU-74</t>
+          <t>BED-28</t>
         </is>
       </c>
       <c r="C249" s="2">
-        <v>45172.37955375794</v>
+        <v>45106.40655096353</v>
       </c>
       <c r="D249">
-        <v>29</v>
+        <v>28.5</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -5478,18 +5502,18 @@
     </row>
     <row r="250">
       <c r="A250">
-        <v>6833</v>
+        <v>6655</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>BEK-15</t>
+          <t>BEK-13</t>
         </is>
       </c>
       <c r="C250" s="2">
-        <v>45209.1130332001</v>
+        <v>45109.37419266689</v>
       </c>
       <c r="D250">
-        <v>28</v>
+        <v>27.3</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -5499,39 +5523,36 @@
     </row>
     <row r="251">
       <c r="A251">
-        <v>6840</v>
+        <v>6720</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>BEK-16</t>
+          <t>BED-29</t>
         </is>
       </c>
       <c r="C251" s="2">
-        <v>45174.57287936648</v>
-      </c>
-      <c r="D251">
-        <v>27.1</v>
+        <v>45128.58191577716</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>6862</v>
+        <v>6725</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>KOU-8</t>
+          <t>BED-30</t>
         </is>
       </c>
       <c r="C252" s="2">
-        <v>45168.56327445831</v>
+        <v>45129.24019664891</v>
       </c>
       <c r="D252">
-        <v>26.7</v>
+        <v>25.1</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -5541,18 +5562,18 @@
     </row>
     <row r="253">
       <c r="A253">
-        <v>6890</v>
+        <v>6729</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>BED-32</t>
+          <t>BOU-81</t>
         </is>
       </c>
       <c r="C253" s="2">
-        <v>45197.70899101415</v>
+        <v>45189.56383359367</v>
       </c>
       <c r="D253">
-        <v>28.5</v>
+        <v>26.6</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -5562,18 +5583,18 @@
     </row>
     <row r="254">
       <c r="A254">
-        <v>6910</v>
+        <v>6762</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>MOI-121</t>
+          <t>BED-31</t>
         </is>
       </c>
       <c r="C254" s="2">
-        <v>45181.75811716363</v>
+        <v>45187.16937921479</v>
       </c>
       <c r="D254">
-        <v>26.4</v>
+        <v>27.4</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -5583,39 +5604,36 @@
     </row>
     <row r="255">
       <c r="A255">
-        <v>6985</v>
+        <v>6820</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>BED-33</t>
+          <t>GOU-5</t>
         </is>
       </c>
       <c r="C255" s="2">
-        <v>45150.19816555857</v>
-      </c>
-      <c r="D255">
-        <v>27.1</v>
+        <v>45173.37955375794</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>7021</v>
+        <v>6854</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>MOI-122</t>
+          <t>GOU-6</t>
         </is>
       </c>
       <c r="C256" s="2">
-        <v>45136.28723842138</v>
+        <v>45174.62691609413</v>
       </c>
       <c r="D256">
-        <v>25.9</v>
+        <v>28.5</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -5625,18 +5643,18 @@
     </row>
     <row r="257">
       <c r="A257">
-        <v>7049</v>
+        <v>6863</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>MOI-123</t>
+          <t>BOU-82</t>
         </is>
       </c>
       <c r="C257" s="2">
-        <v>45188.37413700551</v>
+        <v>45178.66655052555</v>
       </c>
       <c r="D257">
-        <v>28.5</v>
+        <v>27.4</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -5646,39 +5664,36 @@
     </row>
     <row r="258">
       <c r="A258">
-        <v>7054</v>
+        <v>6887</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>BED-34</t>
+          <t>BOU-83</t>
         </is>
       </c>
       <c r="C258" s="2">
-        <v>45185.62303146782</v>
-      </c>
-      <c r="D258">
-        <v>27.2</v>
+        <v>45199.8166416646</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259">
-        <v>7067</v>
+        <v>6910</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>BED-35</t>
+          <t>MOI-122</t>
         </is>
       </c>
       <c r="C259" s="2">
-        <v>45197.13457694845</v>
+        <v>45182.75811716363</v>
       </c>
       <c r="D259">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -5688,18 +5703,18 @@
     </row>
     <row r="260">
       <c r="A260">
-        <v>7132</v>
+        <v>6914</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>BED-36</t>
+          <t>MOI-123</t>
         </is>
       </c>
       <c r="C260" s="2">
-        <v>45176.40828267092</v>
+        <v>45183.59347739987</v>
       </c>
       <c r="D260">
-        <v>26.7</v>
+        <v>27.3</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -5709,36 +5724,39 @@
     </row>
     <row r="261">
       <c r="A261">
-        <v>7161</v>
+        <v>6928</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>GOU-3</t>
+          <t>BED-32</t>
         </is>
       </c>
       <c r="C261" s="2">
-        <v>45176.71961259466</v>
+        <v>45185.98387020249</v>
+      </c>
+      <c r="D261">
+        <v>25.8</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>7163</v>
+        <v>6931</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>BED-37</t>
+          <t>BOU-84</t>
         </is>
       </c>
       <c r="C262" s="2">
-        <v>45182.50800214302</v>
+        <v>45180.29652323795</v>
       </c>
       <c r="D262">
-        <v>26.7</v>
+        <v>28.7</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -5748,57 +5766,57 @@
     </row>
     <row r="263">
       <c r="A263">
-        <v>7253</v>
+        <v>6947</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>BEK-17</t>
+          <t>BEK-14</t>
         </is>
       </c>
       <c r="C263" s="2">
-        <v>45140.94656394287</v>
-      </c>
-      <c r="D263">
-        <v>29</v>
+        <v>45119.11723128092</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>7262</v>
+        <v>6955</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>BED-38</t>
+          <t>BEK-15</t>
         </is>
       </c>
       <c r="C264" s="2">
-        <v>45160.96888237024</v>
+        <v>45116.81549898887</v>
+      </c>
+      <c r="D264">
+        <v>27</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265">
-        <v>7328</v>
+        <v>6970</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>MOI-124</t>
+          <t>BED-33</t>
         </is>
       </c>
       <c r="C265" s="2">
-        <v>45137.38668399477</v>
+        <v>45151.21300959357</v>
       </c>
       <c r="D265">
-        <v>27.8</v>
+        <v>26.8</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -5808,15 +5826,15 @@
     </row>
     <row r="266">
       <c r="A266">
-        <v>7331</v>
+        <v>7013</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>BEK-18</t>
+          <t>BED-34</t>
         </is>
       </c>
       <c r="C266" s="2">
-        <v>45138.9421337555</v>
+        <v>45138.13071156658</v>
       </c>
       <c r="D266">
         <v>28.1</v>
@@ -5829,36 +5847,39 @@
     </row>
     <row r="267">
       <c r="A267">
-        <v>7352</v>
+        <v>7033</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>BED-39</t>
+          <t>MOI-124</t>
         </is>
       </c>
       <c r="C267" s="2">
-        <v>45141.86749624342</v>
+        <v>45150.54505987703</v>
+      </c>
+      <c r="D267">
+        <v>28.7</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>7367</v>
+        <v>7036</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>BEK-19</t>
+          <t>MOI-125</t>
         </is>
       </c>
       <c r="C268" s="2">
-        <v>45194.32024743386</v>
+        <v>45134.52846909182</v>
       </c>
       <c r="D268">
-        <v>26.2</v>
+        <v>26.7</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -5868,36 +5889,39 @@
     </row>
     <row r="269">
       <c r="A269">
-        <v>7401</v>
+        <v>7101</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>GOU-4</t>
+          <t>KOU-4</t>
         </is>
       </c>
       <c r="C269" s="2">
-        <v>45171.08440506604</v>
+        <v>45175.22163843883</v>
+      </c>
+      <c r="D269">
+        <v>27.1</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270">
-        <v>7418</v>
+        <v>7132</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>GOU-5</t>
+          <t>GOU-7</t>
         </is>
       </c>
       <c r="C270" s="2">
-        <v>45186.05092572678</v>
+        <v>45176.40828267092</v>
       </c>
       <c r="D270">
-        <v>30.4</v>
+        <v>26.7</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -5907,18 +5931,18 @@
     </row>
     <row r="271">
       <c r="A271">
-        <v>7452</v>
+        <v>7144</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>GOU-6</t>
+          <t>MOI-126</t>
         </is>
       </c>
       <c r="C271" s="2">
-        <v>45181.52308345456</v>
+        <v>45173.74599948357</v>
       </c>
       <c r="D271">
-        <v>26.6</v>
+        <v>27.8</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -5928,18 +5952,18 @@
     </row>
     <row r="272">
       <c r="A272">
-        <v>7457</v>
+        <v>7163</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>BEK-20</t>
+          <t>BED-35</t>
         </is>
       </c>
       <c r="C272" s="2">
-        <v>45181.10242770913</v>
+        <v>45183.50800214302</v>
       </c>
       <c r="D272">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -5949,18 +5973,18 @@
     </row>
     <row r="273">
       <c r="A273">
-        <v>7465</v>
+        <v>7188</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>KOU-9</t>
+          <t>BEK-16</t>
         </is>
       </c>
       <c r="C273" s="2">
-        <v>45179.06879638798</v>
+        <v>45169.91406968671</v>
       </c>
       <c r="D273">
-        <v>26</v>
+        <v>27.1</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -5970,18 +5994,18 @@
     </row>
     <row r="274">
       <c r="A274">
-        <v>7600</v>
+        <v>7218</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>MOI-125</t>
+          <t>MOI-127</t>
         </is>
       </c>
       <c r="C274" s="2">
-        <v>45158.80864279444</v>
+        <v>45183.53015452086</v>
       </c>
       <c r="D274">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -5991,18 +6015,18 @@
     </row>
     <row r="275">
       <c r="A275">
-        <v>7618</v>
+        <v>7253</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>BED-40</t>
+          <t>MOI-128</t>
         </is>
       </c>
       <c r="C275" s="2">
-        <v>45164.5283690647</v>
+        <v>45141.94656394287</v>
       </c>
       <c r="D275">
-        <v>27.3</v>
+        <v>25.1</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -6012,18 +6036,18 @@
     </row>
     <row r="276">
       <c r="A276">
-        <v>7625</v>
+        <v>7274</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>BED-41</t>
+          <t>BOU-85</t>
         </is>
       </c>
       <c r="C276" s="2">
-        <v>45154.35135025391</v>
+        <v>45148.31810259932</v>
       </c>
       <c r="D276">
-        <v>27.5</v>
+        <v>28.5</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -6033,18 +6057,18 @@
     </row>
     <row r="277">
       <c r="A277">
-        <v>7632</v>
+        <v>7319</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>BED-42</t>
+          <t>BED-36</t>
         </is>
       </c>
       <c r="C277" s="2">
-        <v>45158.85430661269</v>
+        <v>45143.42077429777</v>
       </c>
       <c r="D277">
-        <v>29.8</v>
+        <v>25.4</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -6054,18 +6078,18 @@
     </row>
     <row r="278">
       <c r="A278">
-        <v>7650</v>
+        <v>7322</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>MOI-126</t>
+          <t>BEK-17</t>
         </is>
       </c>
       <c r="C278" s="2">
-        <v>45172.731154522</v>
+        <v>45148.39966854824</v>
       </c>
       <c r="D278">
-        <v>25.1</v>
+        <v>26.6</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -6075,18 +6099,18 @@
     </row>
     <row r="279">
       <c r="A279">
-        <v>7708</v>
+        <v>7356</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>BOU-75</t>
+          <t>BED-37</t>
         </is>
       </c>
       <c r="C279" s="2">
-        <v>45191.42678304935</v>
+        <v>45150.86170873643</v>
       </c>
       <c r="D279">
-        <v>26.8</v>
+        <v>27</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -6096,18 +6120,18 @@
     </row>
     <row r="280">
       <c r="A280">
-        <v>7711</v>
+        <v>7393</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>KOU-10</t>
+          <t>MOI-129</t>
         </is>
       </c>
       <c r="C280" s="2">
-        <v>45218.24850167149</v>
+        <v>45198.61012597234</v>
       </c>
       <c r="D280">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -6117,36 +6141,39 @@
     </row>
     <row r="281">
       <c r="A281">
-        <v>7727</v>
+        <v>7406</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>GOU-7</t>
+          <t>BOU-86</t>
         </is>
       </c>
       <c r="C281" s="2">
-        <v>45186.85286806872</v>
+        <v>45182.97307631654</v>
+      </c>
+      <c r="D281">
+        <v>28.5</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>7739</v>
+        <v>7418</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>BED-43</t>
+          <t>BEK-18</t>
         </is>
       </c>
       <c r="C282" s="2">
-        <v>45195.78690253645</v>
+        <v>45187.05092572678</v>
       </c>
       <c r="D282">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -6156,54 +6183,60 @@
     </row>
     <row r="283">
       <c r="A283">
-        <v>7751</v>
+        <v>7421</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>BOU-76</t>
+          <t>KOU-5</t>
         </is>
       </c>
       <c r="C283" s="2">
-        <v>45191.34420456933</v>
+        <v>45182.46042899259</v>
+      </c>
+      <c r="D283">
+        <v>28</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284">
-        <v>7795</v>
+        <v>7432</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>KOU-11</t>
+          <t>KOU-6</t>
         </is>
       </c>
       <c r="C284" s="2">
-        <v>45181.90510061485</v>
+        <v>45195.41045946699</v>
+      </c>
+      <c r="D284">
+        <v>27.4</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>7888</v>
+        <v>7465</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>BEK-21</t>
+          <t>BEK-19</t>
         </is>
       </c>
       <c r="C285" s="2">
-        <v>45186.90426325909</v>
+        <v>45179.06879638798</v>
       </c>
       <c r="D285">
-        <v>28</v>
+        <v>27.6</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -6213,18 +6246,18 @@
     </row>
     <row r="286">
       <c r="A286">
-        <v>7915</v>
+        <v>7506</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>BED-44</t>
+          <t>KOU-7</t>
         </is>
       </c>
       <c r="C286" s="2">
-        <v>45144.49102431467</v>
+        <v>45200.45891633505</v>
       </c>
       <c r="D286">
-        <v>29.5</v>
+        <v>26.8</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -6234,36 +6267,39 @@
     </row>
     <row r="287">
       <c r="A287">
-        <v>7959</v>
+        <v>7517</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>BOU-77</t>
+          <t>KOU-8</t>
         </is>
       </c>
       <c r="C287" s="2">
-        <v>45148.80562522684</v>
+        <v>45192.4785202574</v>
+      </c>
+      <c r="D287">
+        <v>28.3</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288">
-        <v>7973</v>
+        <v>7525</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>BED-45</t>
+          <t>BED-38</t>
         </is>
       </c>
       <c r="C288" s="2">
-        <v>45164.89807736564</v>
+        <v>45189.39492457949</v>
       </c>
       <c r="D288">
-        <v>27.4</v>
+        <v>27.9</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -6273,18 +6309,18 @@
     </row>
     <row r="289">
       <c r="A289">
-        <v>8002</v>
+        <v>7533</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>BED-46</t>
+          <t>BED-39</t>
         </is>
       </c>
       <c r="C289" s="2">
-        <v>45142.62106369351</v>
+        <v>45190.08808213465</v>
       </c>
       <c r="D289">
-        <v>28.5</v>
+        <v>27.6</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -6294,57 +6330,57 @@
     </row>
     <row r="290">
       <c r="A290">
-        <v>8007</v>
+        <v>7554</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>BEK-22</t>
+          <t>BED-40</t>
         </is>
       </c>
       <c r="C290" s="2">
-        <v>45149.83483466823</v>
+        <v>45180.91765684985</v>
+      </c>
+      <c r="D290">
+        <v>25</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291">
-        <v>8013</v>
+        <v>7597</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>BOU-78</t>
+          <t>MOI-130</t>
         </is>
       </c>
       <c r="C291" s="2">
-        <v>45160.61031722977</v>
-      </c>
-      <c r="D291">
-        <v>25.6</v>
+        <v>45151.94323345065</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>8014</v>
+        <v>7660</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>BEK-23</t>
+          <t>BED-41</t>
         </is>
       </c>
       <c r="C292" s="2">
-        <v>45155.61867393303</v>
+        <v>45139.25910454892</v>
       </c>
       <c r="D292">
-        <v>27.1</v>
+        <v>28</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -6354,18 +6390,18 @@
     </row>
     <row r="293">
       <c r="A293">
-        <v>8099</v>
+        <v>7663</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>BOU-79</t>
+          <t>BOU-87</t>
         </is>
       </c>
       <c r="C293" s="2">
-        <v>45197.20936526438</v>
+        <v>45139.33106347198</v>
       </c>
       <c r="D293">
-        <v>27</v>
+        <v>28.1</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -6375,18 +6411,18 @@
     </row>
     <row r="294">
       <c r="A294">
-        <v>8124</v>
+        <v>7677</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>BOU-80</t>
+          <t>BED-42</t>
         </is>
       </c>
       <c r="C294" s="2">
-        <v>45222.57966284042</v>
+        <v>45145.72021515956</v>
       </c>
       <c r="D294">
-        <v>27.8</v>
+        <v>26.8</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -6396,18 +6432,18 @@
     </row>
     <row r="295">
       <c r="A295">
-        <v>8125</v>
+        <v>7708</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>BED-47</t>
+          <t>BEK-20</t>
         </is>
       </c>
       <c r="C295" s="2">
-        <v>45219.72963556199</v>
+        <v>45191.42678304935</v>
       </c>
       <c r="D295">
-        <v>28.2</v>
+        <v>28</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -6417,57 +6453,57 @@
     </row>
     <row r="296">
       <c r="A296">
-        <v>8152</v>
+        <v>7719</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>MOI-127</t>
+          <t>GOU-8</t>
         </is>
       </c>
       <c r="C296" s="2">
-        <v>45182.55432989181</v>
+        <v>45203.42537105241</v>
+      </c>
+      <c r="D296">
+        <v>28.3</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>8191</v>
+        <v>7727</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>GOU-8</t>
+          <t>MOI-131</t>
         </is>
       </c>
       <c r="C297" s="2">
-        <v>45211.67617898893</v>
-      </c>
-      <c r="D297">
-        <v>28</v>
+        <v>45186.85286806872</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>8222</v>
+        <v>7743</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>MOI-128</t>
+          <t>GOU-9</t>
         </is>
       </c>
       <c r="C298" s="2">
-        <v>45197.66583849987</v>
+        <v>45190.8122349399</v>
       </c>
       <c r="D298">
-        <v>27.8</v>
+        <v>26.3</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -6477,39 +6513,36 @@
     </row>
     <row r="299">
       <c r="A299">
-        <v>8339</v>
+        <v>7783</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>BEK-24</t>
+          <t>BEK-21</t>
         </is>
       </c>
       <c r="C299" s="2">
-        <v>45150.09524211648</v>
-      </c>
-      <c r="D299">
-        <v>28.3</v>
+        <v>45208.18093612164</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300">
-        <v>8378</v>
+        <v>7795</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>BOU-81</t>
+          <t>GOU-10</t>
         </is>
       </c>
       <c r="C300" s="2">
-        <v>45203.45713252692</v>
+        <v>45181.90510061485</v>
       </c>
       <c r="D300">
-        <v>28.7</v>
+        <v>28.2</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -6519,36 +6552,39 @@
     </row>
     <row r="301">
       <c r="A301">
-        <v>8383</v>
+        <v>7855</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>MOI-129</t>
+          <t>MOI-132</t>
         </is>
       </c>
       <c r="C301" s="2">
-        <v>45210.18116381004</v>
+        <v>45196.18172270589</v>
+      </c>
+      <c r="D301">
+        <v>28.6</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302">
-        <v>8397</v>
+        <v>7986</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>KOU-12</t>
+          <t>BEK-22</t>
         </is>
       </c>
       <c r="C302" s="2">
-        <v>45225.42099572161</v>
+        <v>45144.95316261589</v>
       </c>
       <c r="D302">
-        <v>27.9</v>
+        <v>26.3</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -6558,18 +6594,18 @@
     </row>
     <row r="303">
       <c r="A303">
-        <v>8482</v>
+        <v>8002</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>MOI-130</t>
+          <t>MOI-133</t>
         </is>
       </c>
       <c r="C303" s="2">
-        <v>45199.41974920206</v>
+        <v>45143.62106369351</v>
       </c>
       <c r="D303">
-        <v>28.2</v>
+        <v>29.2</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -6579,18 +6615,18 @@
     </row>
     <row r="304">
       <c r="A304">
-        <v>8515</v>
+        <v>8019</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>KOU-13</t>
+          <t>BOU-88</t>
         </is>
       </c>
       <c r="C304" s="2">
-        <v>45221.5796068395</v>
+        <v>45147.43083136636</v>
       </c>
       <c r="D304">
-        <v>28.6</v>
+        <v>27.5</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -6600,18 +6636,18 @@
     </row>
     <row r="305">
       <c r="A305">
-        <v>8556</v>
+        <v>8052</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>GOU-9</t>
+          <t>GOU-11</t>
         </is>
       </c>
       <c r="C305" s="2">
-        <v>45188.12030518241</v>
+        <v>45200.27124199637</v>
       </c>
       <c r="D305">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -6621,18 +6657,18 @@
     </row>
     <row r="306">
       <c r="A306">
-        <v>8558</v>
+        <v>8060</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>BOU-82</t>
+          <t>BED-43</t>
         </is>
       </c>
       <c r="C306" s="2">
-        <v>45186.7615385938</v>
+        <v>45196.32618160658</v>
       </c>
       <c r="D306">
-        <v>25.7</v>
+        <v>30.3</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -6642,18 +6678,18 @@
     </row>
     <row r="307">
       <c r="A307">
-        <v>8581</v>
+        <v>8066</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>BED-48</t>
+          <t>GOU-12</t>
         </is>
       </c>
       <c r="C307" s="2">
-        <v>45150.23536558871</v>
+        <v>45207.04498050258</v>
       </c>
       <c r="D307">
-        <v>26.5</v>
+        <v>29.7</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -6663,18 +6699,18 @@
     </row>
     <row r="308">
       <c r="A308">
-        <v>8596</v>
+        <v>8116</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>KOU-14</t>
+          <t>BED-44</t>
         </is>
       </c>
       <c r="C308" s="2">
-        <v>45187.66956437344</v>
+        <v>45180.3729015594</v>
       </c>
       <c r="D308">
-        <v>25.7</v>
+        <v>27.1</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -6684,36 +6720,33 @@
     </row>
     <row r="309">
       <c r="A309">
-        <v>8637</v>
+        <v>8137</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>BED-49</t>
+          <t>BED-45</t>
         </is>
       </c>
       <c r="C309" s="2">
-        <v>45198.27668660138</v>
-      </c>
-      <c r="D309">
-        <v>27.9</v>
+        <v>45220.54031791605</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310">
-        <v>8675</v>
+        <v>8142</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>KOU-15</t>
+          <t>BOU-89</t>
         </is>
       </c>
       <c r="C310" s="2">
-        <v>45162.08922498164</v>
+        <v>45200.67088077328</v>
       </c>
       <c r="D310">
         <v>27.4</v>
@@ -6726,18 +6759,18 @@
     </row>
     <row r="311">
       <c r="A311">
-        <v>8677</v>
+        <v>8159</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>MOI-131</t>
+          <t>BED-46</t>
         </is>
       </c>
       <c r="C311" s="2">
-        <v>45172.84368335789</v>
+        <v>45187.04318757798</v>
       </c>
       <c r="D311">
-        <v>26.7</v>
+        <v>27.1</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -6747,36 +6780,39 @@
     </row>
     <row r="312">
       <c r="A312">
-        <v>8694</v>
+        <v>8198</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>KOU-16</t>
+          <t>MOI-134</t>
         </is>
       </c>
       <c r="C312" s="2">
-        <v>45204.72526405678</v>
+        <v>45211.81115091208</v>
+      </c>
+      <c r="D312">
+        <v>27.4</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313">
-        <v>8716</v>
+        <v>8228</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>KOU-17</t>
+          <t>BEK-23</t>
         </is>
       </c>
       <c r="C313" s="2">
-        <v>45210.08113469656</v>
+        <v>45183.83000792713</v>
       </c>
       <c r="D313">
-        <v>27.4</v>
+        <v>28.8</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -6786,39 +6822,36 @@
     </row>
     <row r="314">
       <c r="A314">
-        <v>8719</v>
+        <v>8262</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>BOU-83</t>
+          <t>BED-47</t>
         </is>
       </c>
       <c r="C314" s="2">
-        <v>45212.92672521633</v>
-      </c>
-      <c r="D314">
-        <v>27.9</v>
+        <v>45150.53515582459</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315">
-        <v>8730</v>
+        <v>8278</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>GOU-10</t>
+          <t>BED-48</t>
         </is>
       </c>
       <c r="C315" s="2">
-        <v>45209.40991488716</v>
+        <v>45168.35711648568</v>
       </c>
       <c r="D315">
-        <v>27.6</v>
+        <v>26.9</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -6828,54 +6861,60 @@
     </row>
     <row r="316">
       <c r="A316">
-        <v>8738</v>
+        <v>8313</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>KOU-18</t>
+          <t>BED-49</t>
         </is>
       </c>
       <c r="C316" s="2">
-        <v>45220.14890794801</v>
+        <v>45167.5565705545</v>
+      </c>
+      <c r="D316">
+        <v>27.4</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317">
-        <v>8832</v>
+        <v>8320</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>KOU-19</t>
+          <t>GOU-13</t>
         </is>
       </c>
       <c r="C317" s="2">
-        <v>45220.77096729531</v>
+        <v>45192.54671266495</v>
+      </c>
+      <c r="D317">
+        <v>27.5</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318">
-        <v>8923</v>
+        <v>8329</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>MOI-132</t>
+          <t>BED-50</t>
         </is>
       </c>
       <c r="C318" s="2">
-        <v>45170.01844328441</v>
+        <v>45159.01046830256</v>
       </c>
       <c r="D318">
-        <v>23.7</v>
+        <v>27.1</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -6885,18 +6924,18 @@
     </row>
     <row r="319">
       <c r="A319">
-        <v>8929</v>
+        <v>8365</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>MOI-133</t>
+          <t>BED-51</t>
         </is>
       </c>
       <c r="C319" s="2">
-        <v>45178.19134210075</v>
+        <v>45207.86576728769</v>
       </c>
       <c r="D319">
-        <v>25.3</v>
+        <v>25.8</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -6906,57 +6945,54 @@
     </row>
     <row r="320">
       <c r="A320">
-        <v>8967</v>
+        <v>8378</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>BEK-25</t>
+          <t>GOU-14</t>
         </is>
       </c>
       <c r="C320" s="2">
-        <v>45152.91728996491</v>
+        <v>45204.45713252692</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321">
-        <v>8986</v>
+        <v>8383</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>BED-50</t>
+          <t>BOU-90</t>
         </is>
       </c>
       <c r="C321" s="2">
-        <v>45173.59341180327</v>
-      </c>
-      <c r="D321">
-        <v>27.8</v>
+        <v>45210.18116381004</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322">
-        <v>8991</v>
+        <v>8420</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>KOU-20</t>
+          <t>MOI-135</t>
         </is>
       </c>
       <c r="C322" s="2">
-        <v>45172.19445507194</v>
+        <v>45189.02012588242</v>
       </c>
       <c r="D322">
-        <v>25.6</v>
+        <v>27.8</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -6966,18 +7002,18 @@
     </row>
     <row r="323">
       <c r="A323">
-        <v>9113</v>
+        <v>8457</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>MOI-134</t>
+          <t>KOU-9</t>
         </is>
       </c>
       <c r="C323" s="2">
-        <v>45205.38025427525</v>
+        <v>45219.88716338207</v>
       </c>
       <c r="D323">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -6987,36 +7023,39 @@
     </row>
     <row r="324">
       <c r="A324">
-        <v>9121</v>
+        <v>8462</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>BEK-26</t>
+          <t>BED-52</t>
         </is>
       </c>
       <c r="C324" s="2">
-        <v>45218.60236604348</v>
+        <v>45225.57190767821</v>
+      </c>
+      <c r="D324">
+        <v>28</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325">
-        <v>9232</v>
+        <v>8495</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>BOU-84</t>
+          <t>BED-53</t>
         </is>
       </c>
       <c r="C325" s="2">
-        <v>45210.32135620818</v>
+        <v>45215.96535520986</v>
       </c>
       <c r="D325">
-        <v>26.4</v>
+        <v>27.7</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -7026,54 +7065,60 @@
     </row>
     <row r="326">
       <c r="A326">
-        <v>9244</v>
+        <v>8541</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>GOU-11</t>
+          <t>BED-54</t>
         </is>
       </c>
       <c r="C326" s="2">
-        <v>45208.56036752462</v>
+        <v>45205.82916186144</v>
+      </c>
+      <c r="D326">
+        <v>27.1</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327">
-        <v>9272</v>
+        <v>8551</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>BED-51</t>
+          <t>BOU-91</t>
         </is>
       </c>
       <c r="C327" s="2">
-        <v>45178.52724176434</v>
+        <v>45191.39563368972</v>
+      </c>
+      <c r="D327">
+        <v>27</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328">
-        <v>9283</v>
+        <v>8599</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>KOU-21</t>
+          <t>BED-55</t>
         </is>
       </c>
       <c r="C328" s="2">
-        <v>45174.48167561749</v>
+        <v>45185.65147614598</v>
       </c>
       <c r="D328">
-        <v>26.1</v>
+        <v>28.1</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -7083,39 +7128,36 @@
     </row>
     <row r="329">
       <c r="A329">
-        <v>9284</v>
+        <v>8616</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>BED-52</t>
+          <t>BED-56</t>
         </is>
       </c>
       <c r="C329" s="2">
-        <v>45185.45622301212</v>
-      </c>
-      <c r="D329">
-        <v>26.8</v>
+        <v>45176.91943397863</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330">
-        <v>9288</v>
+        <v>8694</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>KOU-22</t>
+          <t>BOU-92</t>
         </is>
       </c>
       <c r="C330" s="2">
-        <v>45193.88765211606</v>
+        <v>45204.72526405678</v>
       </c>
       <c r="D330">
-        <v>25.7</v>
+        <v>27.2</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
@@ -7125,18 +7167,18 @@
     </row>
     <row r="331">
       <c r="A331">
-        <v>9289</v>
+        <v>8696</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>MOI-135</t>
+          <t>KOU-10</t>
         </is>
       </c>
       <c r="C331" s="2">
-        <v>45202.74579640119</v>
+        <v>45221.09304167581</v>
       </c>
       <c r="D331">
-        <v>28.7</v>
+        <v>27.4</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -7146,18 +7188,18 @@
     </row>
     <row r="332">
       <c r="A332">
-        <v>9310</v>
+        <v>8701</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>BED-53</t>
+          <t>GOU-15</t>
         </is>
       </c>
       <c r="C332" s="2">
-        <v>45163.01038870525</v>
+        <v>45202.51611543043</v>
       </c>
       <c r="D332">
-        <v>25.8</v>
+        <v>27.6</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -7167,18 +7209,18 @@
     </row>
     <row r="333">
       <c r="A333">
-        <v>9414</v>
+        <v>8713</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>KOU-23</t>
+          <t>GOU-16</t>
         </is>
       </c>
       <c r="C333" s="2">
-        <v>45220.63641970992</v>
+        <v>45198.59687539315</v>
       </c>
       <c r="D333">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
@@ -7188,18 +7230,18 @@
     </row>
     <row r="334">
       <c r="A334">
-        <v>9416</v>
+        <v>8716</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>BED-54</t>
+          <t>GOU-17</t>
         </is>
       </c>
       <c r="C334" s="2">
-        <v>45233.43389151656</v>
+        <v>45210.08113469656</v>
       </c>
       <c r="D334">
-        <v>26.9</v>
+        <v>24.9</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
@@ -7209,18 +7251,18 @@
     </row>
     <row r="335">
       <c r="A335">
-        <v>9424</v>
+        <v>8730</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>BEK-27</t>
+          <t>GOU-18</t>
         </is>
       </c>
       <c r="C335" s="2">
-        <v>45213.37507786936</v>
+        <v>45209.40991488716</v>
       </c>
       <c r="D335">
-        <v>27.2</v>
+        <v>27.6</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
@@ -7230,18 +7272,18 @@
     </row>
     <row r="336">
       <c r="A336">
-        <v>9462</v>
+        <v>8804</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>GOU-12</t>
+          <t>KOU-11</t>
         </is>
       </c>
       <c r="C336" s="2">
-        <v>45207.37945884126</v>
+        <v>45219.58020088668</v>
       </c>
       <c r="D336">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
@@ -7251,18 +7293,18 @@
     </row>
     <row r="337">
       <c r="A337">
-        <v>9470</v>
+        <v>8826</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>MOI-136</t>
+          <t>BED-57</t>
         </is>
       </c>
       <c r="C337" s="2">
-        <v>45224.15151937799</v>
+        <v>45218.28387265337</v>
       </c>
       <c r="D337">
-        <v>27.5</v>
+        <v>26.6</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
@@ -7272,18 +7314,18 @@
     </row>
     <row r="338">
       <c r="A338">
-        <v>9503</v>
+        <v>8842</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>KOU-24</t>
+          <t>MOI-136</t>
         </is>
       </c>
       <c r="C338" s="2">
-        <v>45201.69929401853</v>
+        <v>45210.83088702283</v>
       </c>
       <c r="D338">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
@@ -7293,18 +7335,18 @@
     </row>
     <row r="339">
       <c r="A339">
-        <v>9536</v>
+        <v>8848</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>BOU-85</t>
+          <t>BEK-24</t>
         </is>
       </c>
       <c r="C339" s="2">
-        <v>45218.46098390785</v>
+        <v>45216.36883782461</v>
       </c>
       <c r="D339">
-        <v>26.8</v>
+        <v>26.6</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
@@ -7314,57 +7356,57 @@
     </row>
     <row r="340">
       <c r="A340">
-        <v>9564</v>
+        <v>8895</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>KOU-25</t>
+          <t>BED-58</t>
         </is>
       </c>
       <c r="C340" s="2">
-        <v>45214.44639049647</v>
-      </c>
-      <c r="D340">
-        <v>26.6</v>
+        <v>45145.26716686059</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341">
-        <v>9570</v>
+        <v>8897</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>BED-55</t>
+          <t>BOU-93</t>
         </is>
       </c>
       <c r="C341" s="2">
-        <v>45225.54691981114</v>
+        <v>45159.63553152997</v>
+      </c>
+      <c r="D341">
+        <v>28</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342">
-        <v>9574</v>
+        <v>8914</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>BED-56</t>
+          <t>BED-59</t>
         </is>
       </c>
       <c r="C342" s="2">
-        <v>45216.20716405024</v>
+        <v>45185.88965399386</v>
       </c>
       <c r="D342">
-        <v>27.3</v>
+        <v>26.8</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
@@ -7374,18 +7416,18 @@
     </row>
     <row r="343">
       <c r="A343">
-        <v>9637</v>
+        <v>8923</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>BOU-86</t>
+          <t>GOU-19</t>
         </is>
       </c>
       <c r="C343" s="2">
-        <v>45179.98026257205</v>
+        <v>45170.01844328441</v>
       </c>
       <c r="D343">
-        <v>27.8</v>
+        <v>26.6</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
@@ -7395,7 +7437,7 @@
     </row>
     <row r="344">
       <c r="A344">
-        <v>9735</v>
+        <v>8931</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
@@ -7403,49 +7445,49 @@
         </is>
       </c>
       <c r="C344" s="2">
-        <v>45243.39798041979</v>
-      </c>
-      <c r="D344">
-        <v>25.8</v>
+        <v>45190.8070941525</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345">
-        <v>9743</v>
+        <v>8957</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>KOU-26</t>
+          <t>BEK-25</t>
         </is>
       </c>
       <c r="C345" s="2">
-        <v>45209.21459186074</v>
+        <v>45177.13011308876</v>
+      </c>
+      <c r="D345">
+        <v>27.5</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346">
-        <v>9745</v>
+        <v>8967</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>GOU-13</t>
+          <t>BOU-94</t>
         </is>
       </c>
       <c r="C346" s="2">
-        <v>45207.58874401829</v>
+        <v>45153.91728996491</v>
       </c>
       <c r="D346">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
@@ -7455,18 +7497,18 @@
     </row>
     <row r="347">
       <c r="A347">
-        <v>9749</v>
+        <v>8976</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>MOI-138</t>
+          <t>BEK-26</t>
         </is>
       </c>
       <c r="C347" s="2">
-        <v>45222.54659443477</v>
+        <v>45194.71854024146</v>
       </c>
       <c r="D347">
-        <v>28.4</v>
+        <v>27</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
@@ -7476,36 +7518,39 @@
     </row>
     <row r="348">
       <c r="A348">
-        <v>9773</v>
+        <v>9030</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>BED-57</t>
+          <t>KOU-12</t>
         </is>
       </c>
       <c r="C348" s="2">
-        <v>45213.39694328088</v>
+        <v>45219.52811967106</v>
+      </c>
+      <c r="D348">
+        <v>25.2</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349">
-        <v>9796</v>
+        <v>9074</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>BOU-87</t>
+          <t>BED-60</t>
         </is>
       </c>
       <c r="C349" s="2">
-        <v>45218.0872892861</v>
+        <v>45223.503451638</v>
       </c>
       <c r="D349">
-        <v>29.6</v>
+        <v>28.7</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
@@ -7515,18 +7560,18 @@
     </row>
     <row r="350">
       <c r="A350">
-        <v>9835</v>
+        <v>9121</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>BOU-88</t>
+          <t>BOU-95</t>
         </is>
       </c>
       <c r="C350" s="2">
-        <v>45209.16783045266</v>
+        <v>45219.60236604348</v>
       </c>
       <c r="D350">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
@@ -7536,18 +7581,18 @@
     </row>
     <row r="351">
       <c r="A351">
-        <v>9845</v>
+        <v>9146</v>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>BED-58</t>
+          <t>MOI-138</t>
         </is>
       </c>
       <c r="C351" s="2">
-        <v>45248.00037143286</v>
+        <v>45239.13823622199</v>
       </c>
       <c r="D351">
-        <v>28.3</v>
+        <v>27.7</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
@@ -7557,15 +7602,15 @@
     </row>
     <row r="352">
       <c r="A352">
-        <v>9847</v>
+        <v>9161</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>BOU-89</t>
+          <t>BOU-96</t>
         </is>
       </c>
       <c r="C352" s="2">
-        <v>45252.19179635945</v>
+        <v>45201.57717702619</v>
       </c>
       <c r="D352">
         <v>27.4</v>
@@ -7578,18 +7623,18 @@
     </row>
     <row r="353">
       <c r="A353">
-        <v>9867</v>
+        <v>9168</v>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>BED-59</t>
+          <t>BEK-27</t>
         </is>
       </c>
       <c r="C353" s="2">
-        <v>45227.89631790902</v>
+        <v>45219.11405266487</v>
       </c>
       <c r="D353">
-        <v>26.4</v>
+        <v>27.7</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
@@ -7599,18 +7644,18 @@
     </row>
     <row r="354">
       <c r="A354">
-        <v>9893</v>
+        <v>9230</v>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>MOI-139</t>
+          <t>BEK-28</t>
         </is>
       </c>
       <c r="C354" s="2">
-        <v>45242.15577188382</v>
+        <v>45218.35825960286</v>
       </c>
       <c r="D354">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
@@ -7620,18 +7665,18 @@
     </row>
     <row r="355">
       <c r="A355">
-        <v>9916</v>
+        <v>9244</v>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>BOU-90</t>
+          <t>BOU-97</t>
         </is>
       </c>
       <c r="C355" s="2">
-        <v>45246.28387737996</v>
+        <v>45209.56036752462</v>
       </c>
       <c r="D355">
-        <v>25</v>
+        <v>26.9</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
@@ -7641,36 +7686,39 @@
     </row>
     <row r="356">
       <c r="A356">
-        <v>9967</v>
+        <v>9336</v>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>KOU-27</t>
+          <t>BOU-98</t>
         </is>
       </c>
       <c r="C356" s="2">
-        <v>45225.54803646688</v>
+        <v>45176.30322789513</v>
+      </c>
+      <c r="D356">
+        <v>26.5</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357">
-        <v>22</v>
+        <v>9352</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>MOI-1_retest</t>
+          <t>GOU-20</t>
         </is>
       </c>
       <c r="C357" s="2">
-        <v>44816.460688308</v>
+        <v>45162.18042502193</v>
       </c>
       <c r="D357">
-        <v>26.21441213708726</v>
+        <v>26.3</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
@@ -7680,18 +7728,18 @@
     </row>
     <row r="358">
       <c r="A358">
-        <v>262</v>
+        <v>9396</v>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>MOI-14_retest</t>
+          <t>BED-61</t>
         </is>
       </c>
       <c r="C358" s="2">
-        <v>44889.65642638742</v>
+        <v>45214.93060734726</v>
       </c>
       <c r="D358">
-        <v>27.40479069428121</v>
+        <v>28.1</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
@@ -7701,18 +7749,18 @@
     </row>
     <row r="359">
       <c r="A359">
-        <v>831</v>
+        <v>9417</v>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>BOU-1_retest</t>
+          <t>BED-62</t>
         </is>
       </c>
       <c r="C359" s="2">
-        <v>44944.64070092564</v>
+        <v>45220.99867349151</v>
       </c>
       <c r="D359">
-        <v>26.95986782086363</v>
+        <v>27.7</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
@@ -7722,36 +7770,39 @@
     </row>
     <row r="360">
       <c r="A360">
-        <v>851</v>
+        <v>9418</v>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>MOI-36_retest</t>
+          <t>BOU-99</t>
         </is>
       </c>
       <c r="C360" s="2">
-        <v>44955.69771936965</v>
+        <v>45219.65257477734</v>
+      </c>
+      <c r="D360">
+        <v>25.4</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361">
-        <v>860</v>
+        <v>9423</v>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>BOU-3_retest</t>
+          <t>KOU-13</t>
         </is>
       </c>
       <c r="C361" s="2">
-        <v>44948.0368422882</v>
+        <v>45232.66080551613</v>
       </c>
       <c r="D361">
-        <v>26.78997272500722</v>
+        <v>26.2</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
@@ -7761,18 +7812,18 @@
     </row>
     <row r="362">
       <c r="A362">
-        <v>1136</v>
+        <v>9427</v>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>MOI-42_retest</t>
+          <t>BED-63</t>
         </is>
       </c>
       <c r="C362" s="2">
-        <v>44979.21784818983</v>
+        <v>45221.16876620982</v>
       </c>
       <c r="D362">
-        <v>26.07140398177497</v>
+        <v>26</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
@@ -7782,18 +7833,18 @@
     </row>
     <row r="363">
       <c r="A363">
-        <v>1366</v>
+        <v>9462</v>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>MOI-46_retest</t>
+          <t>BOU-100</t>
         </is>
       </c>
       <c r="C363" s="2">
-        <v>44975.20153183212</v>
+        <v>45208.37945884126</v>
       </c>
       <c r="D363">
-        <v>28.86354360943189</v>
+        <v>26.4</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
@@ -7803,18 +7854,18 @@
     </row>
     <row r="364">
       <c r="A364">
-        <v>2431</v>
+        <v>9491</v>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>MOI-66_retest</t>
+          <t>MOI-139</t>
         </is>
       </c>
       <c r="C364" s="2">
-        <v>45052.66071797392</v>
+        <v>45231.74824678821</v>
       </c>
       <c r="D364">
-        <v>26.90118567062084</v>
+        <v>25.9</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
@@ -7824,39 +7875,36 @@
     </row>
     <row r="365">
       <c r="A365">
-        <v>2503</v>
+        <v>9503</v>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>MOI-69_retest</t>
+          <t>MOI-140</t>
         </is>
       </c>
       <c r="C365" s="2">
-        <v>45008.3490645122</v>
-      </c>
-      <c r="D365">
-        <v>27.04797753701229</v>
+        <v>45202.69929401853</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366">
-        <v>2776</v>
+        <v>9531</v>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>BOU-30_retest</t>
+          <t>BED-64</t>
         </is>
       </c>
       <c r="C366" s="2">
-        <v>45034.70420986893</v>
+        <v>45227.77058961088</v>
       </c>
       <c r="D366">
-        <v>28.39858707353732</v>
+        <v>26.5</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
@@ -7866,36 +7914,39 @@
     </row>
     <row r="367">
       <c r="A367">
-        <v>3182</v>
+        <v>9541</v>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>BOU-38_retest</t>
+          <t>BOU-101</t>
         </is>
       </c>
       <c r="C367" s="2">
-        <v>45024.88847954694</v>
+        <v>45235.98689219028</v>
+      </c>
+      <c r="D367">
+        <v>26.3</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368">
-        <v>3231</v>
+        <v>9559</v>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>BOU-41_retest</t>
+          <t>MOI-141</t>
         </is>
       </c>
       <c r="C368" s="2">
-        <v>45064.8692527642</v>
+        <v>45226.72972436137</v>
       </c>
       <c r="D368">
-        <v>26.31723893390956</v>
+        <v>27.4</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
@@ -7905,36 +7956,39 @@
     </row>
     <row r="369">
       <c r="A369">
-        <v>4286</v>
+        <v>9627</v>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>BED-4_retest</t>
+          <t>KOU-14</t>
         </is>
       </c>
       <c r="C369" s="2">
-        <v>45121.96939557753</v>
+        <v>45192.3745491977</v>
+      </c>
+      <c r="D369">
+        <v>25.8</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370">
-        <v>4629</v>
+        <v>9680</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>BOU-54_retest</t>
+          <t>GOU-21</t>
         </is>
       </c>
       <c r="C370" s="2">
-        <v>45129.00343150909</v>
+        <v>45177.96494844627</v>
       </c>
       <c r="D370">
-        <v>26.67599151374615</v>
+        <v>27.1</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
@@ -7944,18 +7998,18 @@
     </row>
     <row r="371">
       <c r="A371">
-        <v>4843</v>
+        <v>9711</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>BOU-55_retest</t>
+          <t>KOU-15</t>
         </is>
       </c>
       <c r="C371" s="2">
-        <v>45127.63317763583</v>
+        <v>45250.85537524568</v>
       </c>
       <c r="D371">
-        <v>27.35932294312863</v>
+        <v>27.4</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
@@ -7965,18 +8019,18 @@
     </row>
     <row r="372">
       <c r="A372">
-        <v>6357</v>
+        <v>9743</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>BED-28_retest</t>
+          <t>BED-65</t>
         </is>
       </c>
       <c r="C372" s="2">
-        <v>45107.95932106242</v>
+        <v>45209.21459186074</v>
       </c>
       <c r="D372">
-        <v>27.37517128532842</v>
+        <v>26.4</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
@@ -7986,36 +8040,39 @@
     </row>
     <row r="373">
       <c r="A373">
-        <v>6550</v>
+        <v>9811</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>KOU-6_retest</t>
+          <t>BED-66</t>
         </is>
       </c>
       <c r="C373" s="2">
-        <v>45177.43905103994</v>
+        <v>45234.81755972048</v>
+      </c>
+      <c r="D373">
+        <v>26.6</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374">
-        <v>7161</v>
+        <v>9830</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>GOU-3_retest</t>
+          <t>BED-67</t>
         </is>
       </c>
       <c r="C374" s="2">
-        <v>45177.71961259466</v>
+        <v>45212.80696042936</v>
       </c>
       <c r="D374">
-        <v>27.03569555058931</v>
+        <v>29.1</v>
       </c>
       <c r="E374" t="inlineStr">
         <is>
@@ -8025,18 +8082,18 @@
     </row>
     <row r="375">
       <c r="A375">
-        <v>8152</v>
+        <v>9838</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>MOI-127_retest</t>
+          <t>BOU-102</t>
         </is>
       </c>
       <c r="C375" s="2">
-        <v>45185.55432989181</v>
+        <v>45205.17727240024</v>
       </c>
       <c r="D375">
-        <v>28.24132220042384</v>
+        <v>26.7</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
@@ -8046,39 +8103,36 @@
     </row>
     <row r="376">
       <c r="A376">
-        <v>9743</v>
+        <v>9873</v>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>KOU-26_retest</t>
+          <t>MOI-142</t>
         </is>
       </c>
       <c r="C376" s="2">
-        <v>45213.21459186074</v>
-      </c>
-      <c r="D376">
-        <v>27.58441580989046</v>
+        <v>45198.39696951231</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377">
-        <v>9773</v>
+        <v>9916</v>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>BED-57_retest</t>
+          <t>MOI-143</t>
         </is>
       </c>
       <c r="C377" s="2">
-        <v>45215.39694328088</v>
+        <v>45246.28387737996</v>
       </c>
       <c r="D377">
-        <v>26.59831771048832</v>
+        <v>27.5</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
@@ -8088,20 +8142,410 @@
     </row>
     <row r="378">
       <c r="A378">
-        <v>9967</v>
+        <v>9948</v>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>KOU-27_retest</t>
+          <t>BED-68</t>
         </is>
       </c>
       <c r="C378" s="2">
-        <v>45229.54803646688</v>
-      </c>
-      <c r="D378">
-        <v>27.44011500162427</v>
+        <v>45233.49966820492</v>
       </c>
       <c r="E378" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379">
+        <v>91</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>MOI-3_retest</t>
+        </is>
+      </c>
+      <c r="C379" s="2">
+        <v>44836.94976414814</v>
+      </c>
+      <c r="D379">
+        <v>26.64205818759252</v>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380">
+        <v>278</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>MOI-9_retest</t>
+        </is>
+      </c>
+      <c r="C380" s="2">
+        <v>44867.86357383079</v>
+      </c>
+      <c r="D380">
+        <v>29.04258840948852</v>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381">
+        <v>538</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>MOI-24_retest</t>
+        </is>
+      </c>
+      <c r="C381" s="2">
+        <v>44896.81992070255</v>
+      </c>
+      <c r="D381">
+        <v>28.0450045639515</v>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382">
+        <v>660</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>MOI-28_retest</t>
+        </is>
+      </c>
+      <c r="C382" s="2">
+        <v>44937.07808852893</v>
+      </c>
+      <c r="D382">
+        <v>26.39448609169108</v>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383">
+        <v>951</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>MOI-32_retest</t>
+        </is>
+      </c>
+      <c r="C383" s="2">
+        <v>44918.26378107126</v>
+      </c>
+      <c r="D383">
+        <v>27.2131904039028</v>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384">
+        <v>2008</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>MOI-55_retest</t>
+        </is>
+      </c>
+      <c r="C384" s="2">
+        <v>45013.09978002966</v>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385">
+        <v>2777</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>BOU-40_retest</t>
+        </is>
+      </c>
+      <c r="C385" s="2">
+        <v>45038.85204829129</v>
+      </c>
+      <c r="D385">
+        <v>26.82761339384576</v>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386">
+        <v>2856</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>MOI-75_retest</t>
+        </is>
+      </c>
+      <c r="C386" s="2">
+        <v>45062.37018561996</v>
+      </c>
+      <c r="D386">
+        <v>27.82065752625381</v>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387">
+        <v>3233</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>MOI-83_retest</t>
+        </is>
+      </c>
+      <c r="C387" s="2">
+        <v>45063.02540295778</v>
+      </c>
+      <c r="D387">
+        <v>28.72321344126781</v>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388">
+        <v>3481</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>MOI-89_retest</t>
+        </is>
+      </c>
+      <c r="C388" s="2">
+        <v>45071.42134093468</v>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>inconclusive</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389">
+        <v>4148</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>BEK-1_retest</t>
+        </is>
+      </c>
+      <c r="C389" s="2">
+        <v>45111.20682093133</v>
+      </c>
+      <c r="D389">
+        <v>26.95166194287924</v>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390">
+        <v>6820</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>GOU-5_retest</t>
+        </is>
+      </c>
+      <c r="C390" s="2">
+        <v>45174.37955375794</v>
+      </c>
+      <c r="D390">
+        <v>28.49592717298248</v>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391">
+        <v>6887</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>BOU-83_retest</t>
+        </is>
+      </c>
+      <c r="C391" s="2">
+        <v>45202.8166416646</v>
+      </c>
+      <c r="D391">
+        <v>29.37372395639387</v>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392">
+        <v>6947</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>BEK-14_retest</t>
+        </is>
+      </c>
+      <c r="C392" s="2">
+        <v>45120.11723128092</v>
+      </c>
+      <c r="D392">
+        <v>26.1166683643275</v>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393">
+        <v>7597</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>MOI-130_retest</t>
+        </is>
+      </c>
+      <c r="C393" s="2">
+        <v>45153.94323345065</v>
+      </c>
+      <c r="D393">
+        <v>28.32356852032424</v>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394">
+        <v>8378</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>GOU-14_retest</t>
+        </is>
+      </c>
+      <c r="C394" s="2">
+        <v>45205.45713252692</v>
+      </c>
+      <c r="D394">
+        <v>26.13508367152765</v>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395">
+        <v>8616</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>BED-56_retest</t>
+        </is>
+      </c>
+      <c r="C395" s="2">
+        <v>45177.91943397863</v>
+      </c>
+      <c r="D395">
+        <v>26.95749564289059</v>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396">
+        <v>8931</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>MOI-137_retest</t>
+        </is>
+      </c>
+      <c r="C396" s="2">
+        <v>45193.8070941525</v>
+      </c>
+      <c r="D396">
+        <v>26.69885417756229</v>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397">
+        <v>9503</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>MOI-140_retest</t>
+        </is>
+      </c>
+      <c r="C397" s="2">
+        <v>45205.69929401853</v>
+      </c>
+      <c r="D397">
+        <v>30.1808333830685</v>
+      </c>
+      <c r="E397" t="inlineStr">
         <is>
           <t>positive</t>
         </is>

--- a/data/final/xlsx/msf_laboratory_moissala_2023-09-24.xlsx
+++ b/data/final/xlsx/msf_laboratory_moissala_2023-09-24.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E397"/>
+  <dimension ref="A1:E366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -393,7 +393,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -401,10 +401,10 @@
         </is>
       </c>
       <c r="C2" s="2">
-        <v>44832.85478018647</v>
+        <v>44815.52902951195</v>
       </c>
       <c r="D2">
-        <v>26.6</v>
+        <v>27.7</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -414,7 +414,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -422,10 +422,10 @@
         </is>
       </c>
       <c r="C3" s="2">
-        <v>44838.39111491715</v>
+        <v>44820.90793877289</v>
       </c>
       <c r="D3">
-        <v>25.3</v>
+        <v>27.3</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -435,7 +435,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -443,7 +443,7 @@
         </is>
       </c>
       <c r="C4" s="2">
-        <v>44835.94976414814</v>
+        <v>44834.5896115322</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -453,7 +453,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -461,10 +461,10 @@
         </is>
       </c>
       <c r="C5" s="2">
-        <v>44853.8785645372</v>
+        <v>44835.94976414814</v>
       </c>
       <c r="D5">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -474,7 +474,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C6" s="2">
-        <v>44855.67708525682</v>
+        <v>44831.36100414714</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>27.4</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -495,7 +495,7 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -503,10 +503,10 @@
         </is>
       </c>
       <c r="C7" s="2">
-        <v>44845.7755746156</v>
+        <v>44847.79078528464</v>
       </c>
       <c r="D7">
-        <v>27.4</v>
+        <v>28.6</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -516,7 +516,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>236</v>
+        <v>119</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="C8" s="2">
-        <v>44872.07295598084</v>
+        <v>44841.47680415273</v>
       </c>
       <c r="D8">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -537,7 +537,7 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>264</v>
+        <v>150</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -545,10 +545,10 @@
         </is>
       </c>
       <c r="C9" s="2">
-        <v>44885.56373631555</v>
+        <v>44847.82906104482</v>
       </c>
       <c r="D9">
-        <v>27.3</v>
+        <v>29.6</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -558,7 +558,7 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>278</v>
+        <v>151</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -566,17 +566,20 @@
         </is>
       </c>
       <c r="C10" s="2">
-        <v>44865.86357383079</v>
+        <v>44848.65924692188</v>
+      </c>
+      <c r="D10">
+        <v>26.6</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -584,20 +587,17 @@
         </is>
       </c>
       <c r="C11" s="2">
-        <v>44866.54213738762</v>
-      </c>
-      <c r="D11">
-        <v>26.8</v>
+        <v>44880.90352682373</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>346</v>
+        <v>278</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -605,10 +605,10 @@
         </is>
       </c>
       <c r="C12" s="2">
-        <v>44892.79360118094</v>
+        <v>44865.86357383079</v>
       </c>
       <c r="D12">
-        <v>25.8</v>
+        <v>26.9</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -618,7 +618,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>394</v>
+        <v>285</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C13" s="2">
-        <v>44872.04704098029</v>
+        <v>44883.69398261938</v>
       </c>
       <c r="D13">
-        <v>27.4</v>
+        <v>24.9</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="C14" s="2">
-        <v>44877.31942186924</v>
+        <v>44882.65698280384</v>
       </c>
       <c r="D14">
-        <v>26.2</v>
+        <v>28.3</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -668,10 +668,10 @@
         </is>
       </c>
       <c r="C15" s="2">
-        <v>44891.43616749209</v>
+        <v>44877.31942186924</v>
       </c>
       <c r="D15">
-        <v>26.3</v>
+        <v>28.9</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C16" s="2">
-        <v>44913.52342779198</v>
+        <v>44884.1739926795</v>
       </c>
       <c r="D16">
-        <v>26.5</v>
+        <v>27.6</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -710,17 +710,20 @@
         </is>
       </c>
       <c r="C17" s="2">
-        <v>44907.11122777834</v>
+        <v>44885.84560814596</v>
+      </c>
+      <c r="D17">
+        <v>27.8</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>438</v>
+        <v>466</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -728,7 +731,7 @@
         </is>
       </c>
       <c r="C18" s="2">
-        <v>44886.16294495176</v>
+        <v>44919.55199278232</v>
       </c>
       <c r="D18">
         <v>26.9</v>
@@ -741,7 +744,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -749,20 +752,17 @@
         </is>
       </c>
       <c r="C19" s="2">
-        <v>44910.77857215742</v>
-      </c>
-      <c r="D19">
-        <v>27</v>
+        <v>44895.59733906842</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -770,10 +770,10 @@
         </is>
       </c>
       <c r="C20" s="2">
-        <v>44895.59733906842</v>
+        <v>44905.39608552265</v>
       </c>
       <c r="D20">
-        <v>28.7</v>
+        <v>27.4</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -783,7 +783,7 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>504</v>
+        <v>554</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -791,10 +791,10 @@
         </is>
       </c>
       <c r="C21" s="2">
-        <v>44905.39608552265</v>
+        <v>44914.61811548956</v>
       </c>
       <c r="D21">
-        <v>28.2</v>
+        <v>26.6</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -804,7 +804,7 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>514</v>
+        <v>561</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -812,10 +812,10 @@
         </is>
       </c>
       <c r="C22" s="2">
-        <v>44888.6888366741</v>
+        <v>44914.0324201647</v>
       </c>
       <c r="D22">
-        <v>26.2</v>
+        <v>27.3</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>519</v>
+        <v>583</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -833,10 +833,10 @@
         </is>
       </c>
       <c r="C23" s="2">
-        <v>44903.31136826523</v>
+        <v>44903.99292967886</v>
       </c>
       <c r="D23">
-        <v>28.4</v>
+        <v>25.6</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>537</v>
+        <v>733</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -854,20 +854,17 @@
         </is>
       </c>
       <c r="C24" s="2">
-        <v>44879.67350993239</v>
-      </c>
-      <c r="D24">
-        <v>27.6</v>
+        <v>44898.86193239302</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>538</v>
+        <v>750</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -875,17 +872,20 @@
         </is>
       </c>
       <c r="C25" s="2">
-        <v>44895.81992070255</v>
+        <v>44913.41765574194</v>
+      </c>
+      <c r="D25">
+        <v>25.5</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>556</v>
+        <v>773</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="C26" s="2">
-        <v>44910.10624201338</v>
+        <v>44899.99846992107</v>
       </c>
       <c r="D26">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -906,7 +906,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>592</v>
+        <v>775</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -914,10 +914,10 @@
         </is>
       </c>
       <c r="C27" s="2">
-        <v>44923.35491089767</v>
+        <v>44935.091140304</v>
       </c>
       <c r="D27">
-        <v>26.7</v>
+        <v>27.5</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>602</v>
+        <v>777</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="C28" s="2">
-        <v>44934.45694460894</v>
+        <v>44935.68546959817</v>
       </c>
       <c r="D28">
-        <v>27.3</v>
+        <v>26.4</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>660</v>
+        <v>804</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -956,17 +956,20 @@
         </is>
       </c>
       <c r="C29" s="2">
-        <v>44933.07808852893</v>
+        <v>44940.19201111265</v>
+      </c>
+      <c r="D29">
+        <v>26.9</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>804</v>
+        <v>821</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -974,7 +977,7 @@
         </is>
       </c>
       <c r="C30" s="2">
-        <v>44940.19201111265</v>
+        <v>44901.83192364582</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -984,18 +987,18 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MOI-30</t>
+          <t>BOU-1</t>
         </is>
       </c>
       <c r="C31" s="2">
-        <v>44936.99564069252</v>
+        <v>44944.19849281058</v>
       </c>
       <c r="D31">
-        <v>28.2</v>
+        <v>28.1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1005,18 +1008,18 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>866</v>
+        <v>879</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BOU-1</t>
+          <t>MOI-30</t>
         </is>
       </c>
       <c r="C32" s="2">
-        <v>44940.62604426149</v>
+        <v>44946.94494508376</v>
       </c>
       <c r="D32">
-        <v>27.5</v>
+        <v>27</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1026,7 +1029,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>914</v>
+        <v>882</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1034,10 +1037,10 @@
         </is>
       </c>
       <c r="C33" s="2">
-        <v>44939.97522180891</v>
+        <v>44962.12622685161</v>
       </c>
       <c r="D33">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1047,7 +1050,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>934</v>
+        <v>1012</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1055,10 +1058,10 @@
         </is>
       </c>
       <c r="C34" s="2">
-        <v>44941.42534251595</v>
+        <v>44926.29681310753</v>
       </c>
       <c r="D34">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1068,36 +1071,36 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>951</v>
+        <v>1030</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MOI-32</t>
+          <t>BOU-3</t>
         </is>
       </c>
       <c r="C35" s="2">
-        <v>44915.26378107126</v>
+        <v>44949.1300673394</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>960</v>
+        <v>1039</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BOU-3</t>
+          <t>MOI-32</t>
         </is>
       </c>
       <c r="C36" s="2">
-        <v>44953.96639236058</v>
+        <v>44942.0782150741</v>
       </c>
       <c r="D36">
-        <v>27.3</v>
+        <v>28.4</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1107,18 +1110,18 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>982</v>
+        <v>1080</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MOI-33</t>
+          <t>BOU-4</t>
         </is>
       </c>
       <c r="C37" s="2">
-        <v>44948.90430018147</v>
+        <v>44952.88116249233</v>
       </c>
       <c r="D37">
-        <v>27.6</v>
+        <v>26</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1128,18 +1131,18 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>987</v>
+        <v>1111</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MOI-34</t>
+          <t>BOU-5</t>
         </is>
       </c>
       <c r="C38" s="2">
-        <v>44952.03331005512</v>
+        <v>44945.71181834045</v>
       </c>
       <c r="D38">
-        <v>27.5</v>
+        <v>27.9</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1149,18 +1152,18 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>1019</v>
+        <v>1146</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BOU-4</t>
+          <t>MOI-33</t>
         </is>
       </c>
       <c r="C39" s="2">
-        <v>44951.21230595524</v>
+        <v>44965.98135560339</v>
       </c>
       <c r="D39">
-        <v>27.2</v>
+        <v>28.8</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1170,18 +1173,18 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>1075</v>
+        <v>1152</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BOU-5</t>
+          <t>MOI-34</t>
         </is>
       </c>
       <c r="C40" s="2">
-        <v>44966.98785276897</v>
+        <v>44963.12681568851</v>
       </c>
       <c r="D40">
-        <v>28</v>
+        <v>27.2</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1191,18 +1194,18 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>1080</v>
+        <v>1159</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MOI-35</t>
+          <t>BOU-6</t>
         </is>
       </c>
       <c r="C41" s="2">
-        <v>44953.88116249233</v>
+        <v>44970.10185366722</v>
       </c>
       <c r="D41">
-        <v>29.1</v>
+        <v>27.3</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1212,18 +1215,18 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>1089</v>
+        <v>1166</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MOI-36</t>
+          <t>MOI-35</t>
         </is>
       </c>
       <c r="C42" s="2">
-        <v>44954.11456234784</v>
+        <v>44963.21152161602</v>
       </c>
       <c r="D42">
-        <v>26.2</v>
+        <v>28.5</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1233,57 +1236,57 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>1111</v>
+        <v>1240</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MOI-37</t>
+          <t>BOU-7</t>
         </is>
       </c>
       <c r="C43" s="2">
-        <v>44945.71181834045</v>
+        <v>44980.43758703022</v>
+      </c>
+      <c r="D43">
+        <v>29.1</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1116</v>
+        <v>1241</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MOI-38</t>
+          <t>MOI-36</t>
         </is>
       </c>
       <c r="C44" s="2">
-        <v>44961.4810214348</v>
-      </c>
-      <c r="D44">
-        <v>25.5</v>
+        <v>44975.82405483583</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1126</v>
+        <v>1252</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MOI-39</t>
+          <t>BOU-8</t>
         </is>
       </c>
       <c r="C45" s="2">
-        <v>44965.59003268908</v>
+        <v>44974.05410212705</v>
       </c>
       <c r="D45">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1293,18 +1296,18 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>1127</v>
+        <v>1258</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MOI-40</t>
+          <t>BOU-9</t>
         </is>
       </c>
       <c r="C46" s="2">
-        <v>44968.29759356887</v>
+        <v>44975.98477279234</v>
       </c>
       <c r="D46">
-        <v>25.3</v>
+        <v>27.6</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1314,18 +1317,18 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>1148</v>
+        <v>1261</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MOI-41</t>
+          <t>BOU-10</t>
         </is>
       </c>
       <c r="C47" s="2">
-        <v>44959.09270958045</v>
+        <v>44965.14940779493</v>
       </c>
       <c r="D47">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1335,18 +1338,18 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>1152</v>
+        <v>1273</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BOU-6</t>
+          <t>MOI-37</t>
         </is>
       </c>
       <c r="C48" s="2">
-        <v>44962.12681568851</v>
+        <v>44979.47451539832</v>
       </c>
       <c r="D48">
-        <v>26.8</v>
+        <v>27.6</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1356,18 +1359,18 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>1198</v>
+        <v>1299</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MOI-42</t>
+          <t>MOI-38</t>
         </is>
       </c>
       <c r="C49" s="2">
-        <v>44961.99752621686</v>
+        <v>44965.13512117218</v>
       </c>
       <c r="D49">
-        <v>26.7</v>
+        <v>28.5</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1377,18 +1380,18 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>1251</v>
+        <v>1313</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BOU-7</t>
+          <t>MOI-39</t>
         </is>
       </c>
       <c r="C50" s="2">
-        <v>44974.04360261073</v>
+        <v>44978.23548274876</v>
       </c>
       <c r="D50">
-        <v>27.9</v>
+        <v>26.9</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1398,18 +1401,18 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>1272</v>
+        <v>1328</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BOU-8</t>
+          <t>BOU-11</t>
         </is>
       </c>
       <c r="C51" s="2">
-        <v>44986.09796685302</v>
+        <v>44982.55399975053</v>
       </c>
       <c r="D51">
-        <v>26.5</v>
+        <v>30.3</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1419,18 +1422,18 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>1273</v>
+        <v>1344</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BOU-9</t>
+          <t>MOI-40</t>
         </is>
       </c>
       <c r="C52" s="2">
-        <v>44979.47451539832</v>
+        <v>44967.63988089397</v>
       </c>
       <c r="D52">
-        <v>27.5</v>
+        <v>26.4</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1440,18 +1443,18 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>1294</v>
+        <v>1349</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MOI-43</t>
+          <t>BOU-12</t>
         </is>
       </c>
       <c r="C53" s="2">
-        <v>44969.30227425558</v>
+        <v>44992.30201913846</v>
       </c>
       <c r="D53">
-        <v>27.8</v>
+        <v>26.6</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1461,18 +1464,18 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>1306</v>
+        <v>1380</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MOI-44</t>
+          <t>MOI-41</t>
         </is>
       </c>
       <c r="C54" s="2">
-        <v>44964.24334884733</v>
+        <v>44972.83305609917</v>
       </c>
       <c r="D54">
-        <v>28.4</v>
+        <v>27.4</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1482,18 +1485,18 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>1379</v>
+        <v>1433</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MOI-45</t>
+          <t>BOU-13</t>
         </is>
       </c>
       <c r="C55" s="2">
-        <v>44965.11240427283</v>
+        <v>44978.52075544526</v>
       </c>
       <c r="D55">
-        <v>27.4</v>
+        <v>27</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1503,39 +1506,36 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>1380</v>
+        <v>1497</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BOU-10</t>
+          <t>BOU-14</t>
         </is>
       </c>
       <c r="C56" s="2">
-        <v>44973.83305609917</v>
-      </c>
-      <c r="D56">
-        <v>26.3</v>
+        <v>44996.0240531868</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>1395</v>
+        <v>1504</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MOI-46</t>
+          <t>MOI-42</t>
         </is>
       </c>
       <c r="C57" s="2">
-        <v>44970.3509593719</v>
+        <v>44985.93131288863</v>
       </c>
       <c r="D57">
-        <v>27</v>
+        <v>28.4</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1545,18 +1545,18 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>1397</v>
+        <v>1568</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BOU-11</t>
+          <t>MOI-43</t>
         </is>
       </c>
       <c r="C58" s="2">
-        <v>44980.50223520458</v>
+        <v>44980.86138258835</v>
       </c>
       <c r="D58">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1566,18 +1566,18 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>1429</v>
+        <v>1580</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BOU-12</t>
+          <t>BOU-15</t>
         </is>
       </c>
       <c r="C59" s="2">
-        <v>44980.17972537615</v>
+        <v>44993.15124751707</v>
       </c>
       <c r="D59">
-        <v>29.4</v>
+        <v>27.9</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1587,18 +1587,18 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>1442</v>
+        <v>1598</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BOU-13</t>
+          <t>MOI-44</t>
         </is>
       </c>
       <c r="C60" s="2">
-        <v>44968.99129597329</v>
+        <v>44988.28798158045</v>
       </c>
       <c r="D60">
-        <v>26.5</v>
+        <v>25.5</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1608,18 +1608,18 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>1470</v>
+        <v>1602</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BOU-14</t>
+          <t>BOU-16</t>
         </is>
       </c>
       <c r="C61" s="2">
-        <v>44984.27288470825</v>
+        <v>44994.6043183575</v>
       </c>
       <c r="D61">
-        <v>26.5</v>
+        <v>26.2</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1629,18 +1629,18 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>1497</v>
+        <v>1618</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MOI-47</t>
+          <t>BOU-17</t>
         </is>
       </c>
       <c r="C62" s="2">
-        <v>44996.0240531868</v>
+        <v>44974.21280859027</v>
       </c>
       <c r="D62">
-        <v>29.6</v>
+        <v>29</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1650,18 +1650,18 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>1501</v>
+        <v>1621</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MOI-48</t>
+          <t>MOI-45</t>
         </is>
       </c>
       <c r="C63" s="2">
-        <v>44982.79660974306</v>
+        <v>44973.54921817394</v>
       </c>
       <c r="D63">
-        <v>26.2</v>
+        <v>28.2</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1671,75 +1671,78 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>1522</v>
+        <v>1653</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MOI-49</t>
+          <t>BOU-18</t>
         </is>
       </c>
       <c r="C64" s="2">
-        <v>44981.71521283925</v>
+        <v>45004.26360381169</v>
+      </c>
+      <c r="D64">
+        <v>29.5</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>1568</v>
+        <v>1701</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BOU-15</t>
+          <t>MOI-46</t>
         </is>
       </c>
       <c r="C65" s="2">
-        <v>44981.86138258835</v>
+        <v>44987.89793674293</v>
+      </c>
+      <c r="D65">
+        <v>28.5</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>1604</v>
+        <v>1730</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BOU-16</t>
+          <t>BOU-19</t>
         </is>
       </c>
       <c r="C66" s="2">
-        <v>44990.65509367475</v>
-      </c>
-      <c r="D66">
-        <v>26.4</v>
+        <v>45004.30859678594</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>1642</v>
+        <v>1778</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MOI-50</t>
+          <t>MOI-47</t>
         </is>
       </c>
       <c r="C67" s="2">
-        <v>44997.84179973303</v>
+        <v>44998.51528349551</v>
       </c>
       <c r="D67">
-        <v>26.5</v>
+        <v>26.2</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1749,18 +1752,18 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>1660</v>
+        <v>1779</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MOI-51</t>
+          <t>BOU-20</t>
         </is>
       </c>
       <c r="C68" s="2">
-        <v>45002.33990000078</v>
+        <v>44997.65988373545</v>
       </c>
       <c r="D68">
-        <v>25.4</v>
+        <v>26.7</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -1770,18 +1773,18 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>1735</v>
+        <v>1793</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MOI-52</t>
+          <t>MOI-48</t>
         </is>
       </c>
       <c r="C69" s="2">
-        <v>45007.16042170937</v>
+        <v>44981.72346664036</v>
       </c>
       <c r="D69">
-        <v>26</v>
+        <v>27.2</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -1791,18 +1794,18 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>1739</v>
+        <v>1818</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BOU-17</t>
+          <t>BOU-21</t>
         </is>
       </c>
       <c r="C70" s="2">
-        <v>45002.36037942332</v>
+        <v>45014.30408658778</v>
       </c>
       <c r="D70">
-        <v>26.5</v>
+        <v>27.8</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -1812,39 +1815,36 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>1778</v>
+        <v>1907</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BOU-18</t>
+          <t>BOU-22</t>
         </is>
       </c>
       <c r="C71" s="2">
-        <v>44998.51528349551</v>
-      </c>
-      <c r="D71">
-        <v>26.8</v>
+        <v>45018.30181541376</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>1785</v>
+        <v>1926</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BOU-19</t>
+          <t>BOU-23</t>
         </is>
       </c>
       <c r="C72" s="2">
-        <v>44995.28422181921</v>
+        <v>45019.66612895213</v>
       </c>
       <c r="D72">
-        <v>26.8</v>
+        <v>26.4</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -1854,18 +1854,18 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>1791</v>
+        <v>1949</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BOU-20</t>
+          <t>MOI-49</t>
         </is>
       </c>
       <c r="C73" s="2">
-        <v>44980.86889441409</v>
+        <v>45006.95057200016</v>
       </c>
       <c r="D73">
-        <v>27.9</v>
+        <v>28.8</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -1875,18 +1875,18 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>1793</v>
+        <v>1971</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BOU-21</t>
+          <t>BOU-24</t>
         </is>
       </c>
       <c r="C74" s="2">
-        <v>44981.72346664036</v>
+        <v>44997.8593838927</v>
       </c>
       <c r="D74">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -1896,18 +1896,18 @@
     </row>
     <row r="75">
       <c r="A75">
-        <v>1822</v>
+        <v>2008</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MOI-53</t>
+          <t>MOI-50</t>
         </is>
       </c>
       <c r="C75" s="2">
-        <v>44998.5936682295</v>
+        <v>45011.09978002966</v>
       </c>
       <c r="D75">
-        <v>26.7</v>
+        <v>27.8</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -1917,18 +1917,18 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>1830</v>
+        <v>2065</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MOI-54</t>
+          <t>BOU-25</t>
         </is>
       </c>
       <c r="C76" s="2">
-        <v>45022.83893075613</v>
+        <v>45020.94303900286</v>
       </c>
       <c r="D76">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -1938,18 +1938,18 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>1869</v>
+        <v>2084</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BOU-22</t>
+          <t>BOU-26</t>
         </is>
       </c>
       <c r="C77" s="2">
-        <v>45002.6072143758</v>
+        <v>44995.61839153706</v>
       </c>
       <c r="D77">
-        <v>28.4</v>
+        <v>27.2</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -1959,18 +1959,18 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>1972</v>
+        <v>2142</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BOU-23</t>
+          <t>BOU-27</t>
         </is>
       </c>
       <c r="C78" s="2">
-        <v>44997.50404442361</v>
+        <v>45022.67347099251</v>
       </c>
       <c r="D78">
-        <v>26.8</v>
+        <v>26</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -1980,96 +1980,96 @@
     </row>
     <row r="79">
       <c r="A79">
-        <v>1991</v>
+        <v>2200</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BOU-24</t>
+          <t>BOU-28</t>
         </is>
       </c>
       <c r="C79" s="2">
-        <v>44992.77815739364</v>
+        <v>45024.69128170291</v>
+      </c>
+      <c r="D79">
+        <v>25.9</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>1993</v>
+        <v>2217</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>BOU-25</t>
+          <t>BOU-29</t>
         </is>
       </c>
       <c r="C80" s="2">
-        <v>44981.09071648348</v>
-      </c>
-      <c r="D80">
-        <v>26.6</v>
+        <v>45033.38628762274</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>2004</v>
+        <v>2257</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>BOU-26</t>
+          <t>MOI-51</t>
         </is>
       </c>
       <c r="C81" s="2">
-        <v>44998.20442726873</v>
-      </c>
-      <c r="D81">
-        <v>26.6</v>
+        <v>45026.49917860905</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>2008</v>
+        <v>2286</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MOI-55</t>
+          <t>MOI-52</t>
         </is>
       </c>
       <c r="C82" s="2">
-        <v>45010.09978002966</v>
+        <v>45009.63428461865</v>
+      </c>
+      <c r="D82">
+        <v>26.9</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>2026</v>
+        <v>2301</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MOI-56</t>
+          <t>MOI-53</t>
         </is>
       </c>
       <c r="C83" s="2">
-        <v>45021.91750877898</v>
+        <v>45021.72766162303</v>
       </c>
       <c r="D83">
-        <v>26.8</v>
+        <v>28.4</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2079,18 +2079,18 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>2056</v>
+        <v>2306</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>BOU-27</t>
+          <t>BOU-30</t>
         </is>
       </c>
       <c r="C84" s="2">
-        <v>45014.95709227034</v>
+        <v>45035.60344236031</v>
       </c>
       <c r="D84">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2100,18 +2100,18 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>2065</v>
+        <v>2354</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>MOI-57</t>
+          <t>MOI-54</t>
         </is>
       </c>
       <c r="C85" s="2">
-        <v>45019.94303900286</v>
+        <v>45037.32755687878</v>
       </c>
       <c r="D85">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2121,18 +2121,18 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>2078</v>
+        <v>2393</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MOI-58</t>
+          <t>MOI-55</t>
         </is>
       </c>
       <c r="C86" s="2">
-        <v>45020.31065295114</v>
+        <v>45024.42707274081</v>
       </c>
       <c r="D86">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2142,36 +2142,39 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>2083</v>
+        <v>2402</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>MOI-59</t>
+          <t>MOI-56</t>
         </is>
       </c>
       <c r="C87" s="2">
-        <v>44994.03585757473</v>
+        <v>45021.71992864476</v>
+      </c>
+      <c r="D87">
+        <v>28.8</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>2084</v>
+        <v>2431</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>BOU-28</t>
+          <t>MOI-57</t>
         </is>
       </c>
       <c r="C88" s="2">
-        <v>44995.61839153706</v>
+        <v>45048.66071797392</v>
       </c>
       <c r="D88">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2181,15 +2184,15 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>2132</v>
+        <v>2435</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>BOU-29</t>
+          <t>MOI-58</t>
         </is>
       </c>
       <c r="C89" s="2">
-        <v>45006.2717651881</v>
+        <v>45033.52615514731</v>
       </c>
       <c r="D89">
         <v>27.9</v>
@@ -2202,18 +2205,18 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>2158</v>
+        <v>2447</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>BOU-30</t>
+          <t>BOU-31</t>
         </is>
       </c>
       <c r="C90" s="2">
-        <v>45035.91677818907</v>
+        <v>45038.70849249711</v>
       </c>
       <c r="D90">
-        <v>25.9</v>
+        <v>27.4</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2223,15 +2226,15 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>2181</v>
+        <v>2529</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>MOI-60</t>
+          <t>MOI-59</t>
         </is>
       </c>
       <c r="C91" s="2">
-        <v>45022.12105951995</v>
+        <v>45039.31249111198</v>
       </c>
       <c r="D91">
         <v>28</v>
@@ -2244,18 +2247,18 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>2189</v>
+        <v>2594</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>BOU-31</t>
+          <t>BOU-32</t>
         </is>
       </c>
       <c r="C92" s="2">
-        <v>45022.76840423352</v>
+        <v>45005.8761793844</v>
       </c>
       <c r="D92">
-        <v>25.8</v>
+        <v>28.8</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2265,39 +2268,36 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>2195</v>
+        <v>2605</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>MOI-61</t>
+          <t>BOU-33</t>
         </is>
       </c>
       <c r="C93" s="2">
-        <v>45020.99484403338</v>
-      </c>
-      <c r="D93">
-        <v>28.3</v>
+        <v>45042.83954549171</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>2200</v>
+        <v>2648</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>BOU-32</t>
+          <t>MOI-60</t>
         </is>
       </c>
       <c r="C94" s="2">
-        <v>45024.69128170291</v>
+        <v>45040.91137452148</v>
       </c>
       <c r="D94">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2307,18 +2307,18 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>2235</v>
+        <v>2660</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>MOI-62</t>
+          <t>MOI-61</t>
         </is>
       </c>
       <c r="C95" s="2">
-        <v>45010.08776005487</v>
+        <v>45025.36293906324</v>
       </c>
       <c r="D95">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2328,15 +2328,15 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>2393</v>
+        <v>2674</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>BOU-33</t>
+          <t>BOU-34</t>
         </is>
       </c>
       <c r="C96" s="2">
-        <v>45024.42707274081</v>
+        <v>45054.2331317236</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2346,18 +2346,18 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>2402</v>
+        <v>2682</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>BOU-34</t>
+          <t>BOU-35</t>
         </is>
       </c>
       <c r="C97" s="2">
-        <v>45021.71992864476</v>
+        <v>45044.22582549752</v>
       </c>
       <c r="D97">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2367,18 +2367,18 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>2444</v>
+        <v>2697</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MOI-63</t>
+          <t>BOU-36</t>
         </is>
       </c>
       <c r="C98" s="2">
-        <v>45032.9098395384</v>
+        <v>45062.43978323878</v>
       </c>
       <c r="D98">
-        <v>28.2</v>
+        <v>27.5</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2388,39 +2388,36 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>2503</v>
+        <v>2702</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MOI-64</t>
+          <t>MOI-62</t>
         </is>
       </c>
       <c r="C99" s="2">
-        <v>45005.3490645122</v>
-      </c>
-      <c r="D99">
-        <v>28.4</v>
+        <v>45040.99892528904</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>2530</v>
+        <v>2735</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MOI-65</t>
+          <t>BOU-37</t>
         </is>
       </c>
       <c r="C100" s="2">
-        <v>45026.55422875434</v>
+        <v>45058.9993115356</v>
       </c>
       <c r="D100">
-        <v>27.3</v>
+        <v>25.9</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2430,39 +2427,36 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>2543</v>
+        <v>2754</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MOI-66</t>
+          <t>BOU-38</t>
         </is>
       </c>
       <c r="C101" s="2">
-        <v>45020.1802348121</v>
-      </c>
-      <c r="D101">
-        <v>29</v>
+        <v>45023.78422846401</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>2589</v>
+        <v>2780</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>BOU-35</t>
+          <t>MOI-63</t>
         </is>
       </c>
       <c r="C102" s="2">
-        <v>45052.20185733565</v>
+        <v>45037.33884778261</v>
       </c>
       <c r="D102">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2472,39 +2466,36 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>2598</v>
+        <v>2848</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>BOU-36</t>
+          <t>BOU-39</t>
         </is>
       </c>
       <c r="C103" s="2">
-        <v>45012.72100291024</v>
-      </c>
-      <c r="D103">
-        <v>27.5</v>
+        <v>45055.01068598248</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>2641</v>
+        <v>2874</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>BOU-37</t>
+          <t>BOU-40</t>
         </is>
       </c>
       <c r="C104" s="2">
-        <v>45031.52101670795</v>
+        <v>45017.60422736113</v>
       </c>
       <c r="D104">
-        <v>29</v>
+        <v>25.7</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -2514,39 +2505,36 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>2643</v>
+        <v>2890</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>MOI-67</t>
+          <t>MOI-64</t>
         </is>
       </c>
       <c r="C105" s="2">
-        <v>45031.15205087682</v>
-      </c>
-      <c r="D105">
-        <v>27.2</v>
+        <v>45017.96762746694</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>2648</v>
+        <v>2897</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>BOU-38</t>
+          <t>MOI-65</t>
         </is>
       </c>
       <c r="C106" s="2">
-        <v>45041.91137452148</v>
+        <v>45039.39037414193</v>
       </c>
       <c r="D106">
-        <v>27.1</v>
+        <v>28.9</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2556,36 +2544,39 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>2649</v>
+        <v>3100</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>BOU-39</t>
+          <t>BOU-41</t>
         </is>
       </c>
       <c r="C107" s="2">
-        <v>45039.4362911573</v>
+        <v>45052.76072005015</v>
+      </c>
+      <c r="D107">
+        <v>26.3</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>2666</v>
+        <v>3139</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>MOI-68</t>
+          <t>BOU-42</t>
         </is>
       </c>
       <c r="C108" s="2">
-        <v>45033.77477625637</v>
+        <v>45020.51863616193</v>
       </c>
       <c r="D108">
-        <v>25.8</v>
+        <v>27.3</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -2595,18 +2586,18 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>2682</v>
+        <v>3141</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>MOI-69</t>
+          <t>BOU-43</t>
         </is>
       </c>
       <c r="C109" s="2">
-        <v>45044.22582549752</v>
+        <v>45031.49291328064</v>
       </c>
       <c r="D109">
-        <v>27.1</v>
+        <v>28</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -2616,18 +2607,18 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>2684</v>
+        <v>3149</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>MOI-70</t>
+          <t>MOI-66</t>
         </is>
       </c>
       <c r="C110" s="2">
-        <v>45056.04452825906</v>
+        <v>45029.62865405576</v>
       </c>
       <c r="D110">
-        <v>26.5</v>
+        <v>28.4</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2637,18 +2628,18 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>2692</v>
+        <v>3178</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MOI-71</t>
+          <t>MOI-67</t>
         </is>
       </c>
       <c r="C111" s="2">
-        <v>45054.26987495118</v>
+        <v>45038.41378572502</v>
       </c>
       <c r="D111">
-        <v>27.4</v>
+        <v>28.1</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -2658,39 +2649,36 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>2697</v>
+        <v>3188</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MOI-72</t>
+          <t>MOI-68</t>
         </is>
       </c>
       <c r="C112" s="2">
-        <v>45063.43978323878</v>
-      </c>
-      <c r="D112">
-        <v>26.2</v>
+        <v>45050.359200769</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>2766</v>
+        <v>3218</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MOI-73</t>
+          <t>BOU-44</t>
         </is>
       </c>
       <c r="C113" s="2">
-        <v>45014.76377559066</v>
+        <v>45075.97100450785</v>
       </c>
       <c r="D113">
-        <v>26.4</v>
+        <v>27.2</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -2700,36 +2688,39 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>2777</v>
+        <v>3246</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>BOU-40</t>
+          <t>MOI-69</t>
         </is>
       </c>
       <c r="C114" s="2">
-        <v>45037.85204829129</v>
+        <v>45082.8887742243</v>
+      </c>
+      <c r="D114">
+        <v>27.1</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>2801</v>
+        <v>3266</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>BOU-41</t>
+          <t>BOU-45</t>
         </is>
       </c>
       <c r="C115" s="2">
-        <v>45028.25233260475</v>
+        <v>45024.31600639947</v>
       </c>
       <c r="D115">
-        <v>26.5</v>
+        <v>28.9</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2739,39 +2730,36 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>2803</v>
+        <v>3346</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MOI-74</t>
+          <t>BOU-46</t>
         </is>
       </c>
       <c r="C116" s="2">
-        <v>45023.39539944143</v>
-      </c>
-      <c r="D116">
-        <v>25.8</v>
+        <v>45079.09802470816</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>2806</v>
+        <v>3355</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>BOU-42</t>
+          <t>BOU-47</t>
         </is>
       </c>
       <c r="C117" s="2">
-        <v>45029.85955482703</v>
+        <v>45066.02616902138</v>
       </c>
       <c r="D117">
-        <v>27.6</v>
+        <v>27.1</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -2781,36 +2769,36 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>2856</v>
+        <v>3377</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>MOI-75</t>
+          <t>MOI-70</t>
         </is>
       </c>
       <c r="C118" s="2">
-        <v>45059.37018561996</v>
+        <v>45065.97982902497</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>2879</v>
+        <v>3390</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>BOU-43</t>
+          <t>MOI-71</t>
         </is>
       </c>
       <c r="C119" s="2">
-        <v>45029.19520492543</v>
+        <v>45028.54263939413</v>
       </c>
       <c r="D119">
-        <v>27</v>
+        <v>28.6</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -2820,18 +2808,18 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>2883</v>
+        <v>3427</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>BOU-44</t>
+          <t>MOI-72</t>
         </is>
       </c>
       <c r="C120" s="2">
-        <v>45029.89588080787</v>
+        <v>45041.82697463233</v>
       </c>
       <c r="D120">
-        <v>28.5</v>
+        <v>25.5</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -2841,18 +2829,18 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>2888</v>
+        <v>3554</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>BOU-45</t>
+          <t>MOI-73</t>
         </is>
       </c>
       <c r="C121" s="2">
-        <v>45015.52102969485</v>
+        <v>45054.42788232066</v>
       </c>
       <c r="D121">
-        <v>28.8</v>
+        <v>26</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -2862,18 +2850,18 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>2911</v>
+        <v>3574</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>BOU-46</t>
+          <t>MOI-74</t>
         </is>
       </c>
       <c r="C122" s="2">
-        <v>45051.07196598651</v>
+        <v>45041.87705960278</v>
       </c>
       <c r="D122">
-        <v>28.2</v>
+        <v>27.5</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -2883,18 +2871,18 @@
     </row>
     <row r="123">
       <c r="A123">
-        <v>2924</v>
+        <v>3580</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>MOI-76</t>
+          <t>BOU-48</t>
         </is>
       </c>
       <c r="C123" s="2">
-        <v>45040.11921934789</v>
+        <v>45060.59953734608</v>
       </c>
       <c r="D123">
-        <v>28.6</v>
+        <v>27.1</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -2904,39 +2892,36 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>2963</v>
+        <v>3587</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>MOI-77</t>
+          <t>BOU-49</t>
         </is>
       </c>
       <c r="C124" s="2">
-        <v>45062.18726216973</v>
-      </c>
-      <c r="D124">
-        <v>27.5</v>
+        <v>45033.24893399746</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>3004</v>
+        <v>3642</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>BOU-47</t>
+          <t>MOI-75</t>
         </is>
       </c>
       <c r="C125" s="2">
-        <v>45022.59313848973</v>
+        <v>45087.23222174218</v>
       </c>
       <c r="D125">
-        <v>27.6</v>
+        <v>27.1</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -2946,18 +2931,18 @@
     </row>
     <row r="126">
       <c r="A126">
-        <v>3058</v>
+        <v>3707</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>BOU-48</t>
+          <t>MOI-76</t>
         </is>
       </c>
       <c r="C126" s="2">
-        <v>45059.35554253867</v>
+        <v>45048.61053871371</v>
       </c>
       <c r="D126">
-        <v>25.5</v>
+        <v>28.4</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -2967,18 +2952,18 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>3090</v>
+        <v>3730</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>BOU-49</t>
+          <t>MOI-77</t>
         </is>
       </c>
       <c r="C127" s="2">
-        <v>45071.06666257069</v>
+        <v>45074.88038863031</v>
       </c>
       <c r="D127">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -2988,7 +2973,7 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>3111</v>
+        <v>3752</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -2996,10 +2981,10 @@
         </is>
       </c>
       <c r="C128" s="2">
-        <v>45056.15173936551</v>
+        <v>45079.83919834298</v>
       </c>
       <c r="D128">
-        <v>25.8</v>
+        <v>27.1</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -3009,7 +2994,7 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>3123</v>
+        <v>3794</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -3017,10 +3002,10 @@
         </is>
       </c>
       <c r="C129" s="2">
-        <v>45062.56655830742</v>
+        <v>45041.47538797723</v>
       </c>
       <c r="D129">
-        <v>27.9</v>
+        <v>27.1</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -3030,18 +3015,18 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>3150</v>
+        <v>3827</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>BOU-51</t>
+          <t>MOI-79</t>
         </is>
       </c>
       <c r="C130" s="2">
-        <v>45024.60304867399</v>
+        <v>45049.55989661629</v>
       </c>
       <c r="D130">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3051,28 +3036,25 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>3164</v>
+        <v>3843</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>MOI-79</t>
+          <t>BOU-51</t>
         </is>
       </c>
       <c r="C131" s="2">
-        <v>45031.10881378181</v>
-      </c>
-      <c r="D131">
-        <v>27</v>
+        <v>45085.19797355527</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>3178</v>
+        <v>3910</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -3080,10 +3062,10 @@
         </is>
       </c>
       <c r="C132" s="2">
-        <v>45039.41378572502</v>
+        <v>45081.49456742901</v>
       </c>
       <c r="D132">
-        <v>27.3</v>
+        <v>26.4</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -3093,7 +3075,7 @@
     </row>
     <row r="133">
       <c r="A133">
-        <v>3181</v>
+        <v>3915</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -3101,10 +3083,10 @@
         </is>
       </c>
       <c r="C133" s="2">
-        <v>45028.1006044419</v>
+        <v>45075.58096279972</v>
       </c>
       <c r="D133">
-        <v>28.3</v>
+        <v>26.2</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -3114,18 +3096,18 @@
     </row>
     <row r="134">
       <c r="A134">
-        <v>3196</v>
+        <v>3918</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>MOI-81</t>
+          <t>BOU-53</t>
         </is>
       </c>
       <c r="C134" s="2">
-        <v>45049.14236570967</v>
+        <v>45078.40907581955</v>
       </c>
       <c r="D134">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -3135,18 +3117,18 @@
     </row>
     <row r="135">
       <c r="A135">
-        <v>3228</v>
+        <v>3941</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>MOI-82</t>
+          <t>BOU-54</t>
         </is>
       </c>
       <c r="C135" s="2">
-        <v>45057.70067970396</v>
+        <v>45097.41931125078</v>
       </c>
       <c r="D135">
-        <v>27.1</v>
+        <v>28.2</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3156,36 +3138,39 @@
     </row>
     <row r="136">
       <c r="A136">
-        <v>3233</v>
+        <v>3954</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>MOI-83</t>
+          <t>BEK-1</t>
         </is>
       </c>
       <c r="C136" s="2">
-        <v>45062.02540295778</v>
+        <v>45102.33951905826</v>
+      </c>
+      <c r="D136">
+        <v>26.6</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>3246</v>
+        <v>3965</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>MOI-84</t>
+          <t>BED-1</t>
         </is>
       </c>
       <c r="C137" s="2">
-        <v>45082.8887742243</v>
+        <v>45108.29349389109</v>
       </c>
       <c r="D137">
-        <v>28</v>
+        <v>26.7</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3195,57 +3180,57 @@
     </row>
     <row r="138">
       <c r="A138">
-        <v>3342</v>
+        <v>3968</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>MOI-85</t>
+          <t>BOU-55</t>
         </is>
       </c>
       <c r="C138" s="2">
-        <v>45071.49779586529</v>
+        <v>45062.67189145276</v>
+      </c>
+      <c r="D138">
+        <v>28</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>3363</v>
+        <v>4027</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>BOU-53</t>
+          <t>BOU-56</t>
         </is>
       </c>
       <c r="C139" s="2">
-        <v>45066.98770369581</v>
-      </c>
-      <c r="D139">
-        <v>26</v>
+        <v>45088.92716482757</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>3368</v>
+        <v>4060</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>MOI-86</t>
+          <t>BOU-57</t>
         </is>
       </c>
       <c r="C140" s="2">
-        <v>45061.57260960942</v>
+        <v>45111.34716128658</v>
       </c>
       <c r="D140">
-        <v>27.1</v>
+        <v>26.1</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -3255,18 +3240,18 @@
     </row>
     <row r="141">
       <c r="A141">
-        <v>3377</v>
+        <v>4107</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>BOU-54</t>
+          <t>BOU-58</t>
         </is>
       </c>
       <c r="C141" s="2">
-        <v>45065.97982902497</v>
+        <v>45050.73804316539</v>
       </c>
       <c r="D141">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -3276,39 +3261,36 @@
     </row>
     <row r="142">
       <c r="A142">
-        <v>3394</v>
+        <v>4110</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>MOI-87</t>
+          <t>BOU-59</t>
         </is>
       </c>
       <c r="C142" s="2">
-        <v>45036.49999646192</v>
-      </c>
-      <c r="D142">
-        <v>28</v>
+        <v>45052.57358581254</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>3395</v>
+        <v>4138</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>MOI-88</t>
+          <t>MOI-81</t>
         </is>
       </c>
       <c r="C143" s="2">
-        <v>45035.33388972201</v>
+        <v>45099.64764755117</v>
       </c>
       <c r="D143">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -3318,36 +3300,39 @@
     </row>
     <row r="144">
       <c r="A144">
-        <v>3481</v>
+        <v>4185</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>MOI-89</t>
+          <t>BOU-60</t>
         </is>
       </c>
       <c r="C144" s="2">
-        <v>45068.42134093468</v>
+        <v>45071.62385225299</v>
+      </c>
+      <c r="D144">
+        <v>27.7</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>3546</v>
+        <v>4190</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>MOI-90</t>
+          <t>MOI-82</t>
         </is>
       </c>
       <c r="C145" s="2">
-        <v>45039.55615714521</v>
+        <v>45072.36718095656</v>
       </c>
       <c r="D145">
-        <v>28</v>
+        <v>27.6</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -3357,36 +3342,39 @@
     </row>
     <row r="146">
       <c r="A146">
-        <v>3580</v>
+        <v>4201</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>MOI-91</t>
+          <t>MOI-83</t>
         </is>
       </c>
       <c r="C146" s="2">
-        <v>45059.59953734608</v>
+        <v>45053.49165693065</v>
+      </c>
+      <c r="D146">
+        <v>26</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>3626</v>
+        <v>4251</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>MOI-92</t>
+          <t>BEK-2</t>
         </is>
       </c>
       <c r="C147" s="2">
-        <v>45079.37148472259</v>
+        <v>45113.63239683378</v>
       </c>
       <c r="D147">
-        <v>27.2</v>
+        <v>27.9</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -3396,18 +3384,18 @@
     </row>
     <row r="148">
       <c r="A148">
-        <v>3690</v>
+        <v>4267</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>BOU-55</t>
+          <t>MOI-84</t>
         </is>
       </c>
       <c r="C148" s="2">
-        <v>45061.18771924981</v>
+        <v>45104.07875474109</v>
       </c>
       <c r="D148">
-        <v>27.4</v>
+        <v>26.7</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3417,18 +3405,18 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>3694</v>
+        <v>4271</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>MOI-93</t>
+          <t>BED-2</t>
         </is>
       </c>
       <c r="C149" s="2">
-        <v>45054.48941556818</v>
+        <v>45109.24832785588</v>
       </c>
       <c r="D149">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3438,39 +3426,36 @@
     </row>
     <row r="150">
       <c r="A150">
-        <v>3699</v>
+        <v>4312</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>BOU-56</t>
+          <t>MOI-85</t>
         </is>
       </c>
       <c r="C150" s="2">
-        <v>45038.93046315743</v>
-      </c>
-      <c r="D150">
-        <v>27.7</v>
+        <v>45082.71899240385</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>3754</v>
+        <v>4346</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MOI-94</t>
+          <t>MOI-86</t>
         </is>
       </c>
       <c r="C151" s="2">
-        <v>45073.99855490464</v>
+        <v>45105.48493324564</v>
       </c>
       <c r="D151">
-        <v>29.5</v>
+        <v>28.5</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3480,18 +3465,18 @@
     </row>
     <row r="152">
       <c r="A152">
-        <v>3777</v>
+        <v>4351</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>MOI-95</t>
+          <t>BEK-3</t>
         </is>
       </c>
       <c r="C152" s="2">
-        <v>45047.0185070953</v>
+        <v>45105.19905090863</v>
       </c>
       <c r="D152">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -3501,18 +3486,18 @@
     </row>
     <row r="153">
       <c r="A153">
-        <v>3781</v>
+        <v>4423</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MOI-96</t>
+          <t>MOI-87</t>
         </is>
       </c>
       <c r="C153" s="2">
-        <v>45052.58504206374</v>
+        <v>45085.83453179699</v>
       </c>
       <c r="D153">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -3522,18 +3507,18 @@
     </row>
     <row r="154">
       <c r="A154">
-        <v>3814</v>
+        <v>4435</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>MOI-97</t>
+          <t>BOU-61</t>
         </is>
       </c>
       <c r="C154" s="2">
-        <v>45053.84980243554</v>
+        <v>45084.20161982889</v>
       </c>
       <c r="D154">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -3543,18 +3528,18 @@
     </row>
     <row r="155">
       <c r="A155">
-        <v>3858</v>
+        <v>4453</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>MOI-98</t>
+          <t>MOI-88</t>
         </is>
       </c>
       <c r="C155" s="2">
-        <v>45103.21001256564</v>
+        <v>45089.85777125707</v>
       </c>
       <c r="D155">
-        <v>27.9</v>
+        <v>26</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -3564,39 +3549,36 @@
     </row>
     <row r="156">
       <c r="A156">
-        <v>3897</v>
+        <v>4457</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>BOU-57</t>
+          <t>BEK-4</t>
         </is>
       </c>
       <c r="C156" s="2">
-        <v>45062.32736522541</v>
-      </c>
-      <c r="D156">
-        <v>27.8</v>
+        <v>45110.09691840466</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>3910</v>
+        <v>4469</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>BOU-58</t>
+          <t>BEK-5</t>
         </is>
       </c>
       <c r="C157" s="2">
-        <v>45082.49456742901</v>
+        <v>45119.18496933944</v>
       </c>
       <c r="D157">
-        <v>25.6</v>
+        <v>26.1</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -3606,39 +3588,36 @@
     </row>
     <row r="158">
       <c r="A158">
-        <v>3918</v>
+        <v>4481</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>BOU-59</t>
+          <t>BED-3</t>
         </is>
       </c>
       <c r="C158" s="2">
-        <v>45077.40907581955</v>
-      </c>
-      <c r="D158">
-        <v>27.3</v>
+        <v>45111.67648241362</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>3924</v>
+        <v>4502</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>MOI-99</t>
+          <t>BEK-6</t>
         </is>
       </c>
       <c r="C159" s="2">
-        <v>45088.6765715794</v>
+        <v>45109.0334261766</v>
       </c>
       <c r="D159">
-        <v>26.2</v>
+        <v>28.8</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -3648,18 +3627,18 @@
     </row>
     <row r="160">
       <c r="A160">
-        <v>3938</v>
+        <v>4537</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>BOU-60</t>
+          <t>BOU-62</t>
         </is>
       </c>
       <c r="C160" s="2">
-        <v>45091.32063200872</v>
+        <v>45071.36381209672</v>
       </c>
       <c r="D160">
-        <v>26.5</v>
+        <v>27.7</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -3669,18 +3648,18 @@
     </row>
     <row r="161">
       <c r="A161">
-        <v>3942</v>
+        <v>4538</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>BED-1</t>
+          <t>MOI-89</t>
         </is>
       </c>
       <c r="C161" s="2">
-        <v>45092.25924597024</v>
+        <v>45079.07933378885</v>
       </c>
       <c r="D161">
-        <v>27</v>
+        <v>25.5</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -3690,18 +3669,18 @@
     </row>
     <row r="162">
       <c r="A162">
-        <v>3951</v>
+        <v>4583</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>BOU-61</t>
+          <t>BOU-63</t>
         </is>
       </c>
       <c r="C162" s="2">
-        <v>45101.58511808</v>
+        <v>45124.52647241264</v>
       </c>
       <c r="D162">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -3711,18 +3690,18 @@
     </row>
     <row r="163">
       <c r="A163">
-        <v>3964</v>
+        <v>4595</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>MOI-100</t>
+          <t>BEK-7</t>
         </is>
       </c>
       <c r="C163" s="2">
-        <v>45112.69298222162</v>
+        <v>45120.77622264682</v>
       </c>
       <c r="D163">
-        <v>26.3</v>
+        <v>26</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -3732,18 +3711,18 @@
     </row>
     <row r="164">
       <c r="A164">
-        <v>3968</v>
+        <v>4629</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>MOI-101</t>
+          <t>BED-4</t>
         </is>
       </c>
       <c r="C164" s="2">
-        <v>45063.67189145276</v>
+        <v>45125.00343150909</v>
       </c>
       <c r="D164">
-        <v>28.5</v>
+        <v>27.2</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -3753,75 +3732,78 @@
     </row>
     <row r="165">
       <c r="A165">
-        <v>4016</v>
+        <v>4649</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>BOU-62</t>
+          <t>MOI-90</t>
         </is>
       </c>
       <c r="C165" s="2">
-        <v>45051.38394084573</v>
+        <v>45087.20345041373</v>
+      </c>
+      <c r="D165">
+        <v>28.1</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>4023</v>
+        <v>4708</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>BOU-63</t>
+          <t>BOU-64</t>
         </is>
       </c>
       <c r="C166" s="2">
-        <v>45082.14370035002</v>
-      </c>
-      <c r="D166">
-        <v>27.5</v>
+        <v>45132.23107343615</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>4026</v>
+        <v>4721</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>BED-2</t>
+          <t>BED-5</t>
         </is>
       </c>
       <c r="C167" s="2">
-        <v>45094.04713785452</v>
+        <v>45130.57867075819</v>
+      </c>
+      <c r="D167">
+        <v>27.7</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>4027</v>
+        <v>4744</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>MOI-102</t>
+          <t>BED-6</t>
         </is>
       </c>
       <c r="C168" s="2">
-        <v>45088.92716482757</v>
+        <v>45140.05362611557</v>
       </c>
       <c r="D168">
-        <v>25.7</v>
+        <v>25.9</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -3831,18 +3813,18 @@
     </row>
     <row r="169">
       <c r="A169">
-        <v>4048</v>
+        <v>4789</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>BOU-64</t>
+          <t>BEK-8</t>
         </is>
       </c>
       <c r="C169" s="2">
-        <v>45093.64160694399</v>
+        <v>45145.63775884475</v>
       </c>
       <c r="D169">
-        <v>27.1</v>
+        <v>28.7</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -3852,36 +3834,39 @@
     </row>
     <row r="170">
       <c r="A170">
-        <v>4148</v>
+        <v>4842</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>BEK-1</t>
+          <t>BOU-65</t>
         </is>
       </c>
       <c r="C170" s="2">
-        <v>45107.20682093133</v>
+        <v>45132.6131958538</v>
+      </c>
+      <c r="D170">
+        <v>28.3</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>4158</v>
+        <v>4887</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>BOU-65</t>
+          <t>MOI-91</t>
         </is>
       </c>
       <c r="C171" s="2">
-        <v>45100.97887953722</v>
+        <v>45083.17291071928</v>
       </c>
       <c r="D171">
-        <v>28.1</v>
+        <v>26.2</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -3891,18 +3876,18 @@
     </row>
     <row r="172">
       <c r="A172">
-        <v>4177</v>
+        <v>4890</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>MOI-103</t>
+          <t>MOI-92</t>
         </is>
       </c>
       <c r="C172" s="2">
-        <v>45114.06236330172</v>
+        <v>45097.01578037633</v>
       </c>
       <c r="D172">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -3912,18 +3897,18 @@
     </row>
     <row r="173">
       <c r="A173">
-        <v>4209</v>
+        <v>4946</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>MOI-104</t>
+          <t>BED-7</t>
         </is>
       </c>
       <c r="C173" s="2">
-        <v>45053.07505267931</v>
+        <v>45138.82359309382</v>
       </c>
       <c r="D173">
-        <v>28.2</v>
+        <v>27.4</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -3933,18 +3918,18 @@
     </row>
     <row r="174">
       <c r="A174">
-        <v>4213</v>
+        <v>4964</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>MOI-105</t>
+          <t>MOI-93</t>
         </is>
       </c>
       <c r="C174" s="2">
-        <v>45069.74680257317</v>
+        <v>45137.53601004006</v>
       </c>
       <c r="D174">
-        <v>26.6</v>
+        <v>27.8</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -3954,7 +3939,7 @@
     </row>
     <row r="175">
       <c r="A175">
-        <v>4221</v>
+        <v>5021</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -3962,10 +3947,10 @@
         </is>
       </c>
       <c r="C175" s="2">
-        <v>45080.22256439082</v>
+        <v>45087.13962757086</v>
       </c>
       <c r="D175">
-        <v>28.4</v>
+        <v>28</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -3975,36 +3960,33 @@
     </row>
     <row r="176">
       <c r="A176">
-        <v>4224</v>
+        <v>5031</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>MOI-106</t>
+          <t>MOI-94</t>
         </is>
       </c>
       <c r="C176" s="2">
-        <v>45078.68296847444</v>
-      </c>
-      <c r="D176">
-        <v>27.4</v>
+        <v>45094.77008653119</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>4251</v>
+        <v>5047</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>MOI-107</t>
+          <t>BOU-67</t>
         </is>
       </c>
       <c r="C177" s="2">
-        <v>45113.63239683378</v>
+        <v>45099.74798795408</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -4014,18 +3996,18 @@
     </row>
     <row r="178">
       <c r="A178">
-        <v>4278</v>
+        <v>5056</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>BEK-2</t>
+          <t>BOU-68</t>
         </is>
       </c>
       <c r="C178" s="2">
-        <v>45136.15651897936</v>
+        <v>45083.14819444307</v>
       </c>
       <c r="D178">
-        <v>28.5</v>
+        <v>29</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -4035,18 +4017,18 @@
     </row>
     <row r="179">
       <c r="A179">
-        <v>4286</v>
+        <v>5114</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>BED-3</t>
+          <t>BED-8</t>
         </is>
       </c>
       <c r="C179" s="2">
-        <v>45118.96939557753</v>
+        <v>45138.15478144643</v>
       </c>
       <c r="D179">
-        <v>26.9</v>
+        <v>27.6</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -4056,18 +4038,18 @@
     </row>
     <row r="180">
       <c r="A180">
-        <v>4346</v>
+        <v>5120</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>BEK-3</t>
+          <t>BOU-69</t>
         </is>
       </c>
       <c r="C180" s="2">
-        <v>45104.48493324564</v>
+        <v>45129.65405553098</v>
       </c>
       <c r="D180">
-        <v>26.6</v>
+        <v>25.8</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -4077,18 +4059,18 @@
     </row>
     <row r="181">
       <c r="A181">
-        <v>4421</v>
+        <v>5160</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>BED-4</t>
+          <t>MOI-95</t>
         </is>
       </c>
       <c r="C181" s="2">
-        <v>45094.87216097932</v>
+        <v>45106.86404010892</v>
       </c>
       <c r="D181">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -4098,18 +4080,18 @@
     </row>
     <row r="182">
       <c r="A182">
-        <v>4535</v>
+        <v>5195</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>MOI-108</t>
+          <t>BOU-70</t>
         </is>
       </c>
       <c r="C182" s="2">
-        <v>45082.29106518293</v>
+        <v>45097.62754264536</v>
       </c>
       <c r="D182">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -4119,39 +4101,36 @@
     </row>
     <row r="183">
       <c r="A183">
-        <v>4536</v>
+        <v>5230</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>BOU-67</t>
+          <t>BED-9</t>
         </is>
       </c>
       <c r="C183" s="2">
-        <v>45077.07689498448</v>
-      </c>
-      <c r="D183">
-        <v>27.3</v>
+        <v>45140.43773123628</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>4541</v>
+        <v>5337</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>MOI-109</t>
+          <t>BEK-9</t>
         </is>
       </c>
       <c r="C184" s="2">
-        <v>45079.32565878319</v>
+        <v>45104.20881707312</v>
       </c>
       <c r="D184">
-        <v>28.1</v>
+        <v>25.3</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -4161,18 +4140,18 @@
     </row>
     <row r="185">
       <c r="A185">
-        <v>4583</v>
+        <v>5374</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>MOI-110</t>
+          <t>BEK-10</t>
         </is>
       </c>
       <c r="C185" s="2">
-        <v>45125.52647241264</v>
+        <v>45154.82909536589</v>
       </c>
       <c r="D185">
-        <v>25.5</v>
+        <v>26.8</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -4182,18 +4161,18 @@
     </row>
     <row r="186">
       <c r="A186">
-        <v>4604</v>
+        <v>5408</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>BOU-68</t>
+          <t>BOU-71</t>
         </is>
       </c>
       <c r="C186" s="2">
-        <v>45124.59835864417</v>
+        <v>45150.90464353126</v>
       </c>
       <c r="D186">
-        <v>25.6</v>
+        <v>26.6</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -4203,18 +4182,18 @@
     </row>
     <row r="187">
       <c r="A187">
-        <v>4720</v>
+        <v>5433</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>BOU-69</t>
+          <t>BED-10</t>
         </is>
       </c>
       <c r="C187" s="2">
-        <v>45132.21919616275</v>
+        <v>45145.13718047093</v>
       </c>
       <c r="D187">
-        <v>28.1</v>
+        <v>27.4</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -4224,18 +4203,18 @@
     </row>
     <row r="188">
       <c r="A188">
-        <v>4741</v>
+        <v>5488</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>BED-5</t>
+          <t>BOU-72</t>
         </is>
       </c>
       <c r="C188" s="2">
-        <v>45134.99469063235</v>
+        <v>45108.8683163808</v>
       </c>
       <c r="D188">
-        <v>27.9</v>
+        <v>27.2</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -4245,18 +4224,18 @@
     </row>
     <row r="189">
       <c r="A189">
-        <v>4790</v>
+        <v>5513</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>BED-6</t>
+          <t>BEK-11</t>
         </is>
       </c>
       <c r="C189" s="2">
-        <v>45143.41485211848</v>
+        <v>45161.60218286538</v>
       </c>
       <c r="D189">
-        <v>26.3</v>
+        <v>27.7</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -4266,18 +4245,18 @@
     </row>
     <row r="190">
       <c r="A190">
-        <v>4796</v>
+        <v>5536</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>BEK-4</t>
+          <t>BED-11</t>
         </is>
       </c>
       <c r="C190" s="2">
-        <v>45131.93488816659</v>
+        <v>45159.52390386894</v>
       </c>
       <c r="D190">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -4287,15 +4266,15 @@
     </row>
     <row r="191">
       <c r="A191">
-        <v>4830</v>
+        <v>5620</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>MOI-111</t>
+          <t>BEK-12</t>
         </is>
       </c>
       <c r="C191" s="2">
-        <v>45135.00119856636</v>
+        <v>45171.05337911229</v>
       </c>
       <c r="D191">
         <v>27</v>
@@ -4308,18 +4287,18 @@
     </row>
     <row r="192">
       <c r="A192">
-        <v>4842</v>
+        <v>5622</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>BED-7</t>
+          <t>BOU-73</t>
         </is>
       </c>
       <c r="C192" s="2">
-        <v>45132.6131958538</v>
+        <v>45157.98020379896</v>
       </c>
       <c r="D192">
-        <v>26</v>
+        <v>26.9</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -4329,18 +4308,18 @@
     </row>
     <row r="193">
       <c r="A193">
-        <v>4866</v>
+        <v>5638</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>BOU-70</t>
+          <t>BEK-13</t>
         </is>
       </c>
       <c r="C193" s="2">
-        <v>45140.00766137287</v>
+        <v>45164.7079287462</v>
       </c>
       <c r="D193">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -4350,18 +4329,18 @@
     </row>
     <row r="194">
       <c r="A194">
-        <v>4903</v>
+        <v>5652</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>BOU-71</t>
+          <t>BEK-14</t>
         </is>
       </c>
       <c r="C194" s="2">
-        <v>45093.92952258451</v>
+        <v>45124.5166833838</v>
       </c>
       <c r="D194">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -4371,18 +4350,18 @@
     </row>
     <row r="195">
       <c r="A195">
-        <v>5025</v>
+        <v>5677</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>MOI-112</t>
+          <t>BEK-15</t>
         </is>
       </c>
       <c r="C195" s="2">
-        <v>45086.48865014339</v>
+        <v>45110.32403905356</v>
       </c>
       <c r="D195">
-        <v>26.3</v>
+        <v>25.4</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -4392,18 +4371,18 @@
     </row>
     <row r="196">
       <c r="A196">
-        <v>5047</v>
+        <v>5695</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>BED-8</t>
+          <t>BED-12</t>
         </is>
       </c>
       <c r="C196" s="2">
-        <v>45100.74798795408</v>
+        <v>45115.8263661087</v>
       </c>
       <c r="D196">
-        <v>26.6</v>
+        <v>26.8</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -4413,18 +4392,18 @@
     </row>
     <row r="197">
       <c r="A197">
-        <v>5114</v>
+        <v>5720</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>BEK-5</t>
+          <t>BED-13</t>
         </is>
       </c>
       <c r="C197" s="2">
-        <v>45138.15478144643</v>
+        <v>45150.09895806389</v>
       </c>
       <c r="D197">
-        <v>29.6</v>
+        <v>27.4</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -4434,18 +4413,18 @@
     </row>
     <row r="198">
       <c r="A198">
-        <v>5120</v>
+        <v>5733</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>BEK-6</t>
+          <t>BED-14</t>
         </is>
       </c>
       <c r="C198" s="2">
-        <v>45129.65405553098</v>
+        <v>45163.49250626079</v>
       </c>
       <c r="D198">
-        <v>27.1</v>
+        <v>27.8</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -4455,18 +4434,18 @@
     </row>
     <row r="199">
       <c r="A199">
-        <v>5122</v>
+        <v>5742</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>BOU-72</t>
+          <t>KOU-1</t>
         </is>
       </c>
       <c r="C199" s="2">
-        <v>45139.25651070851</v>
+        <v>45154.55616614491</v>
       </c>
       <c r="D199">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -4476,15 +4455,15 @@
     </row>
     <row r="200">
       <c r="A200">
-        <v>5169</v>
+        <v>5750</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>MOI-113</t>
+          <t>MOI-96</t>
         </is>
       </c>
       <c r="C200" s="2">
-        <v>45097.76746935285</v>
+        <v>45159.48019661372</v>
       </c>
       <c r="D200">
         <v>27.7</v>
@@ -4497,18 +4476,18 @@
     </row>
     <row r="201">
       <c r="A201">
-        <v>5220</v>
+        <v>5781</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>BED-9</t>
+          <t>BOU-74</t>
         </is>
       </c>
       <c r="C201" s="2">
-        <v>45148.07338214567</v>
+        <v>45156.78562242621</v>
       </c>
       <c r="D201">
-        <v>27.7</v>
+        <v>25.7</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -4518,18 +4497,18 @@
     </row>
     <row r="202">
       <c r="A202">
-        <v>5221</v>
+        <v>5785</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>BED-10</t>
+          <t>BED-15</t>
         </is>
       </c>
       <c r="C202" s="2">
-        <v>45140.23516150457</v>
+        <v>45154.24864862632</v>
       </c>
       <c r="D202">
-        <v>27.5</v>
+        <v>26.4</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -4539,18 +4518,18 @@
     </row>
     <row r="203">
       <c r="A203">
-        <v>5230</v>
+        <v>5817</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>BED-11</t>
+          <t>MOI-97</t>
         </is>
       </c>
       <c r="C203" s="2">
-        <v>45141.43773123628</v>
+        <v>45178.11109259038</v>
       </c>
       <c r="D203">
-        <v>26.9</v>
+        <v>27.5</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -4560,36 +4539,39 @@
     </row>
     <row r="204">
       <c r="A204">
-        <v>5290</v>
+        <v>5847</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>BED-12</t>
+          <t>BEK-16</t>
         </is>
       </c>
       <c r="C204" s="2">
-        <v>45161.92767917434</v>
+        <v>45111.27816127708</v>
+      </c>
+      <c r="D204">
+        <v>26.9</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>5296</v>
+        <v>5854</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>MOI-114</t>
+          <t>BOU-75</t>
         </is>
       </c>
       <c r="C205" s="2">
-        <v>45096.10347152814</v>
+        <v>45129.02441958332</v>
       </c>
       <c r="D205">
-        <v>26</v>
+        <v>27.2</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -4599,18 +4581,18 @@
     </row>
     <row r="206">
       <c r="A206">
-        <v>5300</v>
+        <v>5871</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>BOU-73</t>
+          <t>MOI-98</t>
         </is>
       </c>
       <c r="C206" s="2">
-        <v>45088.5401944347</v>
+        <v>45120.43757728559</v>
       </c>
       <c r="D206">
-        <v>27.6</v>
+        <v>29.9</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -4620,18 +4602,18 @@
     </row>
     <row r="207">
       <c r="A207">
-        <v>5311</v>
+        <v>5941</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>BOU-74</t>
+          <t>BOU-76</t>
         </is>
       </c>
       <c r="C207" s="2">
-        <v>45105.73744488944</v>
+        <v>45153.76086770748</v>
       </c>
       <c r="D207">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -4641,18 +4623,18 @@
     </row>
     <row r="208">
       <c r="A208">
-        <v>5392</v>
+        <v>5976</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>BED-13</t>
+          <t>KOU-2</t>
         </is>
       </c>
       <c r="C208" s="2">
-        <v>45146.26597947811</v>
+        <v>45156.32501105856</v>
       </c>
       <c r="D208">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -4662,18 +4644,18 @@
     </row>
     <row r="209">
       <c r="A209">
-        <v>5450</v>
+        <v>6011</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>MOI-115</t>
+          <t>KOU-3</t>
         </is>
       </c>
       <c r="C209" s="2">
-        <v>45097.6352121728</v>
+        <v>45161.49647937245</v>
       </c>
       <c r="D209">
-        <v>26.7</v>
+        <v>28.9</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -4683,18 +4665,18 @@
     </row>
     <row r="210">
       <c r="A210">
-        <v>5478</v>
+        <v>6024</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>BED-14</t>
+          <t>BEK-17</t>
         </is>
       </c>
       <c r="C210" s="2">
-        <v>45118.22969539791</v>
+        <v>45175.53604157017</v>
       </c>
       <c r="D210">
-        <v>27.2</v>
+        <v>28.7</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -4704,18 +4686,18 @@
     </row>
     <row r="211">
       <c r="A211">
-        <v>5488</v>
+        <v>6059</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>BED-15</t>
+          <t>BOU-77</t>
         </is>
       </c>
       <c r="C211" s="2">
-        <v>45108.8683163808</v>
+        <v>45167.00236643468</v>
       </c>
       <c r="D211">
-        <v>26.7</v>
+        <v>27.7</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -4725,18 +4707,18 @@
     </row>
     <row r="212">
       <c r="A212">
-        <v>5524</v>
+        <v>6145</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>BED-16</t>
+          <t>BOU-78</t>
         </is>
       </c>
       <c r="C212" s="2">
-        <v>45162.39564056885</v>
+        <v>45174.73589734273</v>
       </c>
       <c r="D212">
-        <v>25.3</v>
+        <v>28</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -4746,39 +4728,36 @@
     </row>
     <row r="213">
       <c r="A213">
-        <v>5532</v>
+        <v>6258</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>BED-17</t>
+          <t>BED-16</t>
         </is>
       </c>
       <c r="C213" s="2">
-        <v>45157.62355695136</v>
-      </c>
-      <c r="D213">
-        <v>25.3</v>
+        <v>45168.21335372077</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>5540</v>
+        <v>6269</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>MOI-116</t>
+          <t>KOU-4</t>
         </is>
       </c>
       <c r="C214" s="2">
-        <v>45147.87602922673</v>
+        <v>45194.22672074291</v>
       </c>
       <c r="D214">
-        <v>28.6</v>
+        <v>26.1</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -4788,33 +4767,36 @@
     </row>
     <row r="215">
       <c r="A215">
-        <v>5565</v>
+        <v>6284</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>BED-18</t>
+          <t>BED-17</t>
         </is>
       </c>
       <c r="C215" s="2">
-        <v>45159.49463536756</v>
+        <v>45171.74477447316</v>
+      </c>
+      <c r="D215">
+        <v>28.7</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>5620</v>
+        <v>6295</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>MOI-117</t>
+          <t>BED-18</t>
         </is>
       </c>
       <c r="C216" s="2">
-        <v>45171.05337911229</v>
+        <v>45170.44599685843</v>
       </c>
       <c r="D216">
         <v>28</v>
@@ -4827,18 +4809,18 @@
     </row>
     <row r="217">
       <c r="A217">
-        <v>5625</v>
+        <v>6321</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>BOU-75</t>
+          <t>GOU-1</t>
         </is>
       </c>
       <c r="C217" s="2">
-        <v>45156.9420356448</v>
+        <v>45177.53122822641</v>
       </c>
       <c r="D217">
-        <v>29</v>
+        <v>27.5</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -4848,18 +4830,18 @@
     </row>
     <row r="218">
       <c r="A218">
-        <v>5693</v>
+        <v>6326</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>BOU-76</t>
+          <t>BED-19</t>
         </is>
       </c>
       <c r="C218" s="2">
-        <v>45119.67873527878</v>
+        <v>45174.55295883075</v>
       </c>
       <c r="D218">
-        <v>27.9</v>
+        <v>28.4</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -4869,18 +4851,18 @@
     </row>
     <row r="219">
       <c r="A219">
-        <v>5755</v>
+        <v>6328</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>BED-19</t>
+          <t>BED-20</t>
         </is>
       </c>
       <c r="C219" s="2">
-        <v>45149.42252159246</v>
+        <v>45166.97310620428</v>
       </c>
       <c r="D219">
-        <v>26.8</v>
+        <v>26.3</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -4890,36 +4872,39 @@
     </row>
     <row r="220">
       <c r="A220">
-        <v>5787</v>
+        <v>6334</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>KOU-1</t>
+          <t>MOI-99</t>
         </is>
       </c>
       <c r="C220" s="2">
-        <v>45159.85383977472</v>
+        <v>45113.70596075692</v>
+      </c>
+      <c r="D220">
+        <v>27.1</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>5854</v>
+        <v>6339</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>BEK-7</t>
+          <t>BED-21</t>
         </is>
       </c>
       <c r="C221" s="2">
-        <v>45128.02441958332</v>
+        <v>45115.52435381764</v>
       </c>
       <c r="D221">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -4929,39 +4914,36 @@
     </row>
     <row r="222">
       <c r="A222">
-        <v>5857</v>
+        <v>6412</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>MOI-118</t>
+          <t>BOU-79</t>
         </is>
       </c>
       <c r="C222" s="2">
-        <v>45128.16138892582</v>
-      </c>
-      <c r="D222">
-        <v>26.7</v>
+        <v>45126.09685741185</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>5927</v>
+        <v>6458</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>BOU-77</t>
+          <t>MOI-100</t>
         </is>
       </c>
       <c r="C223" s="2">
-        <v>45152.75095487626</v>
+        <v>45162.62704590401</v>
       </c>
       <c r="D223">
-        <v>28.5</v>
+        <v>27.6</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -4971,18 +4953,18 @@
     </row>
     <row r="224">
       <c r="A224">
-        <v>5961</v>
+        <v>6530</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>KOU-2</t>
+          <t>GOU-2</t>
         </is>
       </c>
       <c r="C224" s="2">
-        <v>45159.43242269414</v>
+        <v>45196.14473346797</v>
       </c>
       <c r="D224">
-        <v>26.9</v>
+        <v>28.5</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -4992,18 +4974,18 @@
     </row>
     <row r="225">
       <c r="A225">
-        <v>5965</v>
+        <v>6538</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>BOU-78</t>
+          <t>BED-22</t>
         </is>
       </c>
       <c r="C225" s="2">
-        <v>45162.66513864809</v>
+        <v>45175.4672436503</v>
       </c>
       <c r="D225">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -5013,18 +4995,18 @@
     </row>
     <row r="226">
       <c r="A226">
-        <v>6061</v>
+        <v>6540</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>BED-20</t>
+          <t>BED-23</t>
         </is>
       </c>
       <c r="C226" s="2">
-        <v>45160.01992525295</v>
+        <v>45168.08528192536</v>
       </c>
       <c r="D226">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -5034,18 +5016,18 @@
     </row>
     <row r="227">
       <c r="A227">
-        <v>6099</v>
+        <v>6551</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>BED-21</t>
+          <t>GOU-3</t>
         </is>
       </c>
       <c r="C227" s="2">
-        <v>45128.93591358</v>
+        <v>45163.61773295922</v>
       </c>
       <c r="D227">
-        <v>26.6</v>
+        <v>28.4</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -5055,18 +5037,18 @@
     </row>
     <row r="228">
       <c r="A228">
-        <v>6129</v>
+        <v>6559</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>BOU-79</t>
+          <t>KOU-5</t>
         </is>
       </c>
       <c r="C228" s="2">
-        <v>45122.7528719812</v>
+        <v>45180.64158621425</v>
       </c>
       <c r="D228">
-        <v>26.7</v>
+        <v>28</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -5076,18 +5058,18 @@
     </row>
     <row r="229">
       <c r="A229">
-        <v>6139</v>
+        <v>6610</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>BED-22</t>
+          <t>MOI-101</t>
         </is>
       </c>
       <c r="C229" s="2">
-        <v>45117.71016102487</v>
+        <v>45177.37004644299</v>
       </c>
       <c r="D229">
-        <v>27.1</v>
+        <v>28.2</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -5097,18 +5079,18 @@
     </row>
     <row r="230">
       <c r="A230">
-        <v>6143</v>
+        <v>6621</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>BED-23</t>
+          <t>KOU-6</t>
         </is>
       </c>
       <c r="C230" s="2">
-        <v>45169.14132735787</v>
+        <v>45177.73092346285</v>
       </c>
       <c r="D230">
-        <v>27.5</v>
+        <v>28.2</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -5118,36 +5100,39 @@
     </row>
     <row r="231">
       <c r="A231">
-        <v>6221</v>
+        <v>6651</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>KOU-3</t>
+          <t>BOU-80</t>
         </is>
       </c>
       <c r="C231" s="2">
-        <v>45164.88572087766</v>
+        <v>45106.40655096353</v>
+      </c>
+      <c r="D231">
+        <v>26.9</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>6252</v>
+        <v>6729</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>GOU-1</t>
+          <t>BED-24</t>
         </is>
       </c>
       <c r="C232" s="2">
-        <v>45163.86773833262</v>
+        <v>45188.56383359367</v>
       </c>
       <c r="D232">
-        <v>27.9</v>
+        <v>28.4</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -5157,54 +5142,60 @@
     </row>
     <row r="233">
       <c r="A233">
-        <v>6266</v>
+        <v>6840</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>MOI-119</t>
+          <t>MOI-102</t>
         </is>
       </c>
       <c r="C233" s="2">
-        <v>45157.6298845025</v>
+        <v>45175.57287936648</v>
+      </c>
+      <c r="D233">
+        <v>27.8</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>6284</v>
+        <v>6886</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>GOU-2</t>
+          <t>BEK-18</t>
         </is>
       </c>
       <c r="C234" s="2">
-        <v>45171.74477447316</v>
+        <v>45192.44973884018</v>
+      </c>
+      <c r="D234">
+        <v>28</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>6324</v>
+        <v>6890</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>GOU-3</t>
+          <t>MOI-103</t>
         </is>
       </c>
       <c r="C235" s="2">
-        <v>45174.54988851708</v>
+        <v>45198.70899101415</v>
       </c>
       <c r="D235">
-        <v>27.5</v>
+        <v>27</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -5214,18 +5205,18 @@
     </row>
     <row r="236">
       <c r="A236">
-        <v>6334</v>
+        <v>6902</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>BED-24</t>
+          <t>BOU-81</t>
         </is>
       </c>
       <c r="C236" s="2">
-        <v>45112.70596075692</v>
+        <v>45200.75956304708</v>
       </c>
       <c r="D236">
-        <v>26.7</v>
+        <v>25.8</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -5235,18 +5226,18 @@
     </row>
     <row r="237">
       <c r="A237">
-        <v>6339</v>
+        <v>6909</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>BEK-8</t>
+          <t>GOU-4</t>
         </is>
       </c>
       <c r="C237" s="2">
-        <v>45114.52435381764</v>
+        <v>45180.63939145725</v>
       </c>
       <c r="D237">
-        <v>28.2</v>
+        <v>27.4</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -5256,18 +5247,18 @@
     </row>
     <row r="238">
       <c r="A238">
-        <v>6349</v>
+        <v>6931</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>BEK-9</t>
+          <t>BED-25</t>
         </is>
       </c>
       <c r="C238" s="2">
-        <v>45108.88205722108</v>
+        <v>45179.29652323795</v>
       </c>
       <c r="D238">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -5277,18 +5268,18 @@
     </row>
     <row r="239">
       <c r="A239">
-        <v>6355</v>
+        <v>6947</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>BED-25</t>
+          <t>BED-26</t>
         </is>
       </c>
       <c r="C239" s="2">
-        <v>45109.1798101375</v>
+        <v>45119.11723128092</v>
       </c>
       <c r="D239">
-        <v>26.3</v>
+        <v>26.7</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -5298,18 +5289,18 @@
     </row>
     <row r="240">
       <c r="A240">
-        <v>6356</v>
+        <v>6959</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>BEK-10</t>
+          <t>MOI-104</t>
         </is>
       </c>
       <c r="C240" s="2">
-        <v>45118.09010323614</v>
+        <v>45134.40757888983</v>
       </c>
       <c r="D240">
-        <v>26.2</v>
+        <v>27.7</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -5319,18 +5310,18 @@
     </row>
     <row r="241">
       <c r="A241">
-        <v>6357</v>
+        <v>6972</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>BED-26</t>
+          <t>BOU-82</t>
         </is>
       </c>
       <c r="C241" s="2">
-        <v>45106.95932106242</v>
+        <v>45139.33999227778</v>
       </c>
       <c r="D241">
-        <v>27.3</v>
+        <v>26.4</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -5340,39 +5331,36 @@
     </row>
     <row r="242">
       <c r="A242">
-        <v>6370</v>
+        <v>6997</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>MOI-120</t>
+          <t>BEK-19</t>
         </is>
       </c>
       <c r="C242" s="2">
-        <v>45139.94406676217</v>
-      </c>
-      <c r="D242">
-        <v>28.2</v>
+        <v>45142.13412484194</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>6412</v>
+        <v>7021</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>MOI-121</t>
+          <t>BOU-83</t>
         </is>
       </c>
       <c r="C243" s="2">
-        <v>45127.09685741185</v>
+        <v>45137.28723842138</v>
       </c>
       <c r="D243">
-        <v>28.5</v>
+        <v>27.8</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -5382,7 +5370,7 @@
     </row>
     <row r="244">
       <c r="A244">
-        <v>6447</v>
+        <v>7024</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -5390,49 +5378,49 @@
         </is>
       </c>
       <c r="C244" s="2">
-        <v>45170.4875667587</v>
-      </c>
-      <c r="D244">
-        <v>27.9</v>
+        <v>45134.389769195</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>6451</v>
+        <v>7059</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>BOU-80</t>
+          <t>BEK-20</t>
         </is>
       </c>
       <c r="C245" s="2">
-        <v>45169.46154773102</v>
+        <v>45193.75973281503</v>
+      </c>
+      <c r="D245">
+        <v>27.9</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>6458</v>
+        <v>7101</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>BEK-11</t>
+          <t>MOI-105</t>
         </is>
       </c>
       <c r="C246" s="2">
-        <v>45162.62704590401</v>
+        <v>45174.22163843883</v>
       </c>
       <c r="D246">
-        <v>26.1</v>
+        <v>27.2</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -5442,78 +5430,75 @@
     </row>
     <row r="247">
       <c r="A247">
-        <v>6534</v>
+        <v>7218</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>GOU-4</t>
+          <t>BED-28</t>
         </is>
       </c>
       <c r="C247" s="2">
-        <v>45190.95819827051</v>
+        <v>45183.53015452086</v>
+      </c>
+      <c r="D247">
+        <v>27.4</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>6628</v>
+        <v>7262</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>BEK-12</t>
+          <t>BED-29</t>
         </is>
       </c>
       <c r="C248" s="2">
-        <v>45122.17279501856</v>
-      </c>
-      <c r="D248">
-        <v>28.1</v>
+        <v>45161.96888237024</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249">
-        <v>6651</v>
+        <v>7310</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>BED-28</t>
+          <t>BED-30</t>
         </is>
       </c>
       <c r="C249" s="2">
-        <v>45106.40655096353</v>
-      </c>
-      <c r="D249">
-        <v>28.5</v>
+        <v>45141.32575217079</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250">
-        <v>6655</v>
+        <v>7319</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>BEK-13</t>
+          <t>BOU-84</t>
         </is>
       </c>
       <c r="C250" s="2">
-        <v>45109.37419266689</v>
+        <v>45144.42077429777</v>
       </c>
       <c r="D250">
-        <v>27.3</v>
+        <v>27.9</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -5523,36 +5508,39 @@
     </row>
     <row r="251">
       <c r="A251">
-        <v>6720</v>
+        <v>7327</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>BED-29</t>
+          <t>MOI-106</t>
         </is>
       </c>
       <c r="C251" s="2">
-        <v>45128.58191577716</v>
+        <v>45138.29588920528</v>
+      </c>
+      <c r="D251">
+        <v>26.9</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>6725</v>
+        <v>7348</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>BED-30</t>
+          <t>BOU-85</t>
         </is>
       </c>
       <c r="C252" s="2">
-        <v>45129.24019664891</v>
+        <v>45155.89595665617</v>
       </c>
       <c r="D252">
-        <v>25.1</v>
+        <v>28.4</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -5562,18 +5550,18 @@
     </row>
     <row r="253">
       <c r="A253">
-        <v>6729</v>
+        <v>7358</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>BOU-81</t>
+          <t>BED-31</t>
         </is>
       </c>
       <c r="C253" s="2">
-        <v>45189.56383359367</v>
+        <v>45149.68811080208</v>
       </c>
       <c r="D253">
-        <v>26.6</v>
+        <v>26.8</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -5583,18 +5571,18 @@
     </row>
     <row r="254">
       <c r="A254">
-        <v>6762</v>
+        <v>7363</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>BED-31</t>
+          <t>KOU-7</t>
         </is>
       </c>
       <c r="C254" s="2">
-        <v>45187.16937921479</v>
+        <v>45196.98869877633</v>
       </c>
       <c r="D254">
-        <v>27.4</v>
+        <v>26.8</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -5604,7 +5592,7 @@
     </row>
     <row r="255">
       <c r="A255">
-        <v>6820</v>
+        <v>7398</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -5612,28 +5600,31 @@
         </is>
       </c>
       <c r="C255" s="2">
-        <v>45173.37955375794</v>
+        <v>45178.490340376</v>
+      </c>
+      <c r="D255">
+        <v>27.4</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>6854</v>
+        <v>7413</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>GOU-6</t>
+          <t>MOI-107</t>
         </is>
       </c>
       <c r="C256" s="2">
-        <v>45174.62691609413</v>
+        <v>45181.71500495843</v>
       </c>
       <c r="D256">
-        <v>28.5</v>
+        <v>27.7</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -5643,18 +5634,18 @@
     </row>
     <row r="257">
       <c r="A257">
-        <v>6863</v>
+        <v>7437</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>BOU-82</t>
+          <t>BED-32</t>
         </is>
       </c>
       <c r="C257" s="2">
-        <v>45178.66655052555</v>
+        <v>45179.55027416719</v>
       </c>
       <c r="D257">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -5664,36 +5655,39 @@
     </row>
     <row r="258">
       <c r="A258">
-        <v>6887</v>
+        <v>7452</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>BOU-83</t>
+          <t>BOU-86</t>
         </is>
       </c>
       <c r="C258" s="2">
-        <v>45199.8166416646</v>
+        <v>45181.52308345456</v>
+      </c>
+      <c r="D258">
+        <v>26.5</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259">
-        <v>6910</v>
+        <v>7465</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>MOI-122</t>
+          <t>BED-33</t>
         </is>
       </c>
       <c r="C259" s="2">
-        <v>45182.75811716363</v>
+        <v>45179.06879638798</v>
       </c>
       <c r="D259">
-        <v>26.3</v>
+        <v>27.8</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -5703,18 +5697,18 @@
     </row>
     <row r="260">
       <c r="A260">
-        <v>6914</v>
+        <v>7529</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>MOI-123</t>
+          <t>BED-34</t>
         </is>
       </c>
       <c r="C260" s="2">
-        <v>45183.59347739987</v>
+        <v>45188.56844684208</v>
       </c>
       <c r="D260">
-        <v>27.3</v>
+        <v>29.5</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -5724,18 +5718,18 @@
     </row>
     <row r="261">
       <c r="A261">
-        <v>6928</v>
+        <v>7533</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>BED-32</t>
+          <t>BEK-21</t>
         </is>
       </c>
       <c r="C261" s="2">
-        <v>45185.98387020249</v>
+        <v>45189.08808213465</v>
       </c>
       <c r="D261">
-        <v>25.8</v>
+        <v>27.5</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -5745,57 +5739,57 @@
     </row>
     <row r="262">
       <c r="A262">
-        <v>6931</v>
+        <v>7597</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>BOU-84</t>
+          <t>BOU-87</t>
         </is>
       </c>
       <c r="C262" s="2">
-        <v>45180.29652323795</v>
-      </c>
-      <c r="D262">
-        <v>28.7</v>
+        <v>45152.94323345065</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263">
-        <v>6947</v>
+        <v>7610</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>BEK-14</t>
+          <t>BEK-22</t>
         </is>
       </c>
       <c r="C263" s="2">
-        <v>45119.11723128092</v>
+        <v>45152.31329086491</v>
+      </c>
+      <c r="D263">
+        <v>26.2</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>6955</v>
+        <v>7613</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>BEK-15</t>
+          <t>BOU-88</t>
         </is>
       </c>
       <c r="C264" s="2">
-        <v>45116.81549898887</v>
+        <v>45155.90103268932</v>
       </c>
       <c r="D264">
-        <v>27</v>
+        <v>26.6</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -5805,18 +5799,18 @@
     </row>
     <row r="265">
       <c r="A265">
-        <v>6970</v>
+        <v>7625</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>BED-33</t>
+          <t>BEK-23</t>
         </is>
       </c>
       <c r="C265" s="2">
-        <v>45151.21300959357</v>
+        <v>45155.35135025391</v>
       </c>
       <c r="D265">
-        <v>26.8</v>
+        <v>26.2</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -5826,18 +5820,18 @@
     </row>
     <row r="266">
       <c r="A266">
-        <v>7013</v>
+        <v>7639</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>BED-34</t>
+          <t>BED-35</t>
         </is>
       </c>
       <c r="C266" s="2">
-        <v>45138.13071156658</v>
+        <v>45138.52004593911</v>
       </c>
       <c r="D266">
-        <v>28.1</v>
+        <v>25.9</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -5847,18 +5841,18 @@
     </row>
     <row r="267">
       <c r="A267">
-        <v>7033</v>
+        <v>7652</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>MOI-124</t>
+          <t>BEK-24</t>
         </is>
       </c>
       <c r="C267" s="2">
-        <v>45150.54505987703</v>
+        <v>45156.69260430185</v>
       </c>
       <c r="D267">
-        <v>28.7</v>
+        <v>28.1</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -5868,18 +5862,18 @@
     </row>
     <row r="268">
       <c r="A268">
-        <v>7036</v>
+        <v>7663</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>MOI-125</t>
+          <t>BED-36</t>
         </is>
       </c>
       <c r="C268" s="2">
-        <v>45134.52846909182</v>
+        <v>45138.33106347198</v>
       </c>
       <c r="D268">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -5889,18 +5883,18 @@
     </row>
     <row r="269">
       <c r="A269">
-        <v>7101</v>
+        <v>7727</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>KOU-4</t>
+          <t>BEK-25</t>
         </is>
       </c>
       <c r="C269" s="2">
-        <v>45175.22163843883</v>
+        <v>45187.85286806872</v>
       </c>
       <c r="D269">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -5910,18 +5904,18 @@
     </row>
     <row r="270">
       <c r="A270">
-        <v>7132</v>
+        <v>7731</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>GOU-7</t>
+          <t>BED-37</t>
         </is>
       </c>
       <c r="C270" s="2">
-        <v>45176.40828267092</v>
+        <v>45199.03585839176</v>
       </c>
       <c r="D270">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -5931,18 +5925,18 @@
     </row>
     <row r="271">
       <c r="A271">
-        <v>7144</v>
+        <v>7783</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>MOI-126</t>
+          <t>GOU-6</t>
         </is>
       </c>
       <c r="C271" s="2">
-        <v>45173.74599948357</v>
+        <v>45209.18093612164</v>
       </c>
       <c r="D271">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -5952,18 +5946,18 @@
     </row>
     <row r="272">
       <c r="A272">
-        <v>7163</v>
+        <v>7810</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>BED-35</t>
+          <t>KOU-8</t>
         </is>
       </c>
       <c r="C272" s="2">
-        <v>45183.50800214302</v>
+        <v>45188.32456565036</v>
       </c>
       <c r="D272">
-        <v>27.6</v>
+        <v>25.6</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -5973,18 +5967,18 @@
     </row>
     <row r="273">
       <c r="A273">
-        <v>7188</v>
+        <v>7888</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>BEK-16</t>
+          <t>BEK-26</t>
         </is>
       </c>
       <c r="C273" s="2">
-        <v>45169.91406968671</v>
+        <v>45186.90426325909</v>
       </c>
       <c r="D273">
-        <v>27.1</v>
+        <v>28.4</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -5994,18 +5988,18 @@
     </row>
     <row r="274">
       <c r="A274">
-        <v>7218</v>
+        <v>7946</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>MOI-127</t>
+          <t>BEK-27</t>
         </is>
       </c>
       <c r="C274" s="2">
-        <v>45183.53015452086</v>
+        <v>45163.86179700383</v>
       </c>
       <c r="D274">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -6015,18 +6009,18 @@
     </row>
     <row r="275">
       <c r="A275">
-        <v>7253</v>
+        <v>7948</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>MOI-128</t>
+          <t>GOU-7</t>
         </is>
       </c>
       <c r="C275" s="2">
-        <v>45141.94656394287</v>
+        <v>45173.40722984401</v>
       </c>
       <c r="D275">
-        <v>25.1</v>
+        <v>27.7</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -6036,18 +6030,18 @@
     </row>
     <row r="276">
       <c r="A276">
-        <v>7274</v>
+        <v>7959</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>BOU-85</t>
+          <t>BOU-89</t>
         </is>
       </c>
       <c r="C276" s="2">
-        <v>45148.31810259932</v>
+        <v>45149.80562522684</v>
       </c>
       <c r="D276">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -6057,39 +6051,36 @@
     </row>
     <row r="277">
       <c r="A277">
-        <v>7319</v>
+        <v>7988</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>BED-36</t>
+          <t>BOU-90</t>
         </is>
       </c>
       <c r="C277" s="2">
-        <v>45143.42077429777</v>
-      </c>
-      <c r="D277">
-        <v>25.4</v>
+        <v>45143.46706873258</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>7322</v>
+        <v>7997</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>BEK-17</t>
+          <t>MOI-108</t>
         </is>
       </c>
       <c r="C278" s="2">
-        <v>45148.39966854824</v>
+        <v>45154.42336394312</v>
       </c>
       <c r="D278">
-        <v>26.6</v>
+        <v>28.1</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -6099,18 +6090,18 @@
     </row>
     <row r="279">
       <c r="A279">
-        <v>7356</v>
+        <v>8007</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>BED-37</t>
+          <t>BEK-28</t>
         </is>
       </c>
       <c r="C279" s="2">
-        <v>45150.86170873643</v>
+        <v>45149.83483466823</v>
       </c>
       <c r="D279">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -6120,15 +6111,15 @@
     </row>
     <row r="280">
       <c r="A280">
-        <v>7393</v>
+        <v>8060</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>MOI-129</t>
+          <t>BEK-29</t>
         </is>
       </c>
       <c r="C280" s="2">
-        <v>45198.61012597234</v>
+        <v>45195.32618160658</v>
       </c>
       <c r="D280">
         <v>27.7</v>
@@ -6141,18 +6132,18 @@
     </row>
     <row r="281">
       <c r="A281">
-        <v>7406</v>
+        <v>8075</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>BOU-86</t>
+          <t>MOI-109</t>
         </is>
       </c>
       <c r="C281" s="2">
-        <v>45182.97307631654</v>
+        <v>45199.12047957807</v>
       </c>
       <c r="D281">
-        <v>28.5</v>
+        <v>27.9</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -6162,18 +6153,18 @@
     </row>
     <row r="282">
       <c r="A282">
-        <v>7418</v>
+        <v>8116</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>BEK-18</t>
+          <t>BOU-91</t>
         </is>
       </c>
       <c r="C282" s="2">
-        <v>45187.05092572678</v>
+        <v>45180.3729015594</v>
       </c>
       <c r="D282">
-        <v>27.2</v>
+        <v>28.2</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -6183,15 +6174,15 @@
     </row>
     <row r="283">
       <c r="A283">
-        <v>7421</v>
+        <v>8134</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>KOU-5</t>
+          <t>MOI-110</t>
         </is>
       </c>
       <c r="C283" s="2">
-        <v>45182.46042899259</v>
+        <v>45216.61489413357</v>
       </c>
       <c r="D283">
         <v>28</v>
@@ -6204,39 +6195,36 @@
     </row>
     <row r="284">
       <c r="A284">
-        <v>7432</v>
+        <v>8137</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>KOU-6</t>
+          <t>MOI-111</t>
         </is>
       </c>
       <c r="C284" s="2">
-        <v>45195.41045946699</v>
-      </c>
-      <c r="D284">
-        <v>27.4</v>
+        <v>45220.54031791605</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>7465</v>
+        <v>8196</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>BEK-19</t>
+          <t>KOU-9</t>
         </is>
       </c>
       <c r="C285" s="2">
-        <v>45179.06879638798</v>
+        <v>45209.70098029613</v>
       </c>
       <c r="D285">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -6246,18 +6234,18 @@
     </row>
     <row r="286">
       <c r="A286">
-        <v>7506</v>
+        <v>8206</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>KOU-7</t>
+          <t>BEK-30</t>
         </is>
       </c>
       <c r="C286" s="2">
-        <v>45200.45891633505</v>
+        <v>45196.31861820158</v>
       </c>
       <c r="D286">
-        <v>26.8</v>
+        <v>26.3</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -6267,18 +6255,18 @@
     </row>
     <row r="287">
       <c r="A287">
-        <v>7517</v>
+        <v>8235</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>KOU-8</t>
+          <t>BED-38</t>
         </is>
       </c>
       <c r="C287" s="2">
-        <v>45192.4785202574</v>
+        <v>45184.44995545875</v>
       </c>
       <c r="D287">
-        <v>28.3</v>
+        <v>26.5</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -6288,18 +6276,18 @@
     </row>
     <row r="288">
       <c r="A288">
-        <v>7525</v>
+        <v>8249</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>BED-38</t>
+          <t>MOI-112</t>
         </is>
       </c>
       <c r="C288" s="2">
-        <v>45189.39492457949</v>
+        <v>45138.29664859176</v>
       </c>
       <c r="D288">
-        <v>27.9</v>
+        <v>25.8</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -6309,18 +6297,18 @@
     </row>
     <row r="289">
       <c r="A289">
-        <v>7533</v>
+        <v>8261</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>BED-39</t>
+          <t>MOI-113</t>
         </is>
       </c>
       <c r="C289" s="2">
-        <v>45190.08808213465</v>
+        <v>45158.10853070008</v>
       </c>
       <c r="D289">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -6330,57 +6318,54 @@
     </row>
     <row r="290">
       <c r="A290">
-        <v>7554</v>
+        <v>8311</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>BED-40</t>
+          <t>BOU-92</t>
         </is>
       </c>
       <c r="C290" s="2">
-        <v>45180.91765684985</v>
-      </c>
-      <c r="D290">
-        <v>25</v>
+        <v>45170.20993077818</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291">
-        <v>7597</v>
+        <v>8339</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>MOI-130</t>
+          <t>MOI-114</t>
         </is>
       </c>
       <c r="C291" s="2">
-        <v>45151.94323345065</v>
+        <v>45151.09524211648</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>7660</v>
+        <v>8389</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>BED-41</t>
+          <t>BED-39</t>
         </is>
       </c>
       <c r="C292" s="2">
-        <v>45139.25910454892</v>
+        <v>45217.47689930713</v>
       </c>
       <c r="D292">
-        <v>28</v>
+        <v>27.7</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -6390,18 +6375,18 @@
     </row>
     <row r="293">
       <c r="A293">
-        <v>7663</v>
+        <v>8430</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>BOU-87</t>
+          <t>BEK-31</t>
         </is>
       </c>
       <c r="C293" s="2">
-        <v>45139.33106347198</v>
+        <v>45205.49477241038</v>
       </c>
       <c r="D293">
-        <v>28.1</v>
+        <v>27.5</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -6411,39 +6396,36 @@
     </row>
     <row r="294">
       <c r="A294">
-        <v>7677</v>
+        <v>8482</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>BED-42</t>
+          <t>BED-40</t>
         </is>
       </c>
       <c r="C294" s="2">
-        <v>45145.72021515956</v>
-      </c>
-      <c r="D294">
-        <v>26.8</v>
+        <v>45199.41974920206</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>7708</v>
+        <v>8527</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>BEK-20</t>
+          <t>BED-41</t>
         </is>
       </c>
       <c r="C295" s="2">
-        <v>45191.42678304935</v>
+        <v>45224.35884960314</v>
       </c>
       <c r="D295">
-        <v>28</v>
+        <v>25.5</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -6453,18 +6435,18 @@
     </row>
     <row r="296">
       <c r="A296">
-        <v>7719</v>
+        <v>8531</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>GOU-8</t>
+          <t>KOU-10</t>
         </is>
       </c>
       <c r="C296" s="2">
-        <v>45203.42537105241</v>
+        <v>45220.99394057046</v>
       </c>
       <c r="D296">
-        <v>28.3</v>
+        <v>27.4</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -6474,36 +6456,39 @@
     </row>
     <row r="297">
       <c r="A297">
-        <v>7727</v>
+        <v>8545</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>MOI-131</t>
+          <t>BED-42</t>
         </is>
       </c>
       <c r="C297" s="2">
-        <v>45186.85286806872</v>
+        <v>45199.47954762496</v>
+      </c>
+      <c r="D297">
+        <v>26.3</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>7743</v>
+        <v>8652</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>GOU-9</t>
+          <t>KOU-11</t>
         </is>
       </c>
       <c r="C298" s="2">
-        <v>45190.8122349399</v>
+        <v>45173.0680848308</v>
       </c>
       <c r="D298">
-        <v>26.3</v>
+        <v>25.8</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -6513,36 +6498,39 @@
     </row>
     <row r="299">
       <c r="A299">
-        <v>7783</v>
+        <v>8663</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>BEK-21</t>
+          <t>KOU-12</t>
         </is>
       </c>
       <c r="C299" s="2">
-        <v>45208.18093612164</v>
+        <v>45156.6948792755</v>
+      </c>
+      <c r="D299">
+        <v>27.7</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300">
-        <v>7795</v>
+        <v>8685</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>GOU-10</t>
+          <t>BOU-93</t>
         </is>
       </c>
       <c r="C300" s="2">
-        <v>45181.90510061485</v>
+        <v>45209.22471916889</v>
       </c>
       <c r="D300">
-        <v>28.2</v>
+        <v>27.7</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -6552,39 +6540,36 @@
     </row>
     <row r="301">
       <c r="A301">
-        <v>7855</v>
+        <v>8696</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>MOI-132</t>
+          <t>KOU-13</t>
         </is>
       </c>
       <c r="C301" s="2">
-        <v>45196.18172270589</v>
-      </c>
-      <c r="D301">
-        <v>28.6</v>
+        <v>45222.09304167581</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302">
-        <v>7986</v>
+        <v>8730</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>BEK-22</t>
+          <t>BED-43</t>
         </is>
       </c>
       <c r="C302" s="2">
-        <v>45144.95316261589</v>
+        <v>45209.40991488716</v>
       </c>
       <c r="D302">
-        <v>26.3</v>
+        <v>26.9</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -6594,18 +6579,18 @@
     </row>
     <row r="303">
       <c r="A303">
-        <v>8002</v>
+        <v>8739</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>MOI-133</t>
+          <t>BEK-32</t>
         </is>
       </c>
       <c r="C303" s="2">
-        <v>45143.62106369351</v>
+        <v>45220.7604131616</v>
       </c>
       <c r="D303">
-        <v>29.2</v>
+        <v>27.8</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -6615,18 +6600,18 @@
     </row>
     <row r="304">
       <c r="A304">
-        <v>8019</v>
+        <v>8804</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>BOU-88</t>
+          <t>BED-44</t>
         </is>
       </c>
       <c r="C304" s="2">
-        <v>45147.43083136636</v>
+        <v>45220.58020088668</v>
       </c>
       <c r="D304">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -6636,18 +6621,18 @@
     </row>
     <row r="305">
       <c r="A305">
-        <v>8052</v>
+        <v>8817</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>GOU-11</t>
+          <t>BED-45</t>
         </is>
       </c>
       <c r="C305" s="2">
-        <v>45200.27124199637</v>
+        <v>45225.5882069425</v>
       </c>
       <c r="D305">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -6657,39 +6642,36 @@
     </row>
     <row r="306">
       <c r="A306">
-        <v>8060</v>
+        <v>8826</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>BED-43</t>
+          <t>BEK-33</t>
         </is>
       </c>
       <c r="C306" s="2">
-        <v>45196.32618160658</v>
-      </c>
-      <c r="D306">
-        <v>30.3</v>
+        <v>45217.28387265337</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307">
-        <v>8066</v>
+        <v>8848</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>GOU-12</t>
+          <t>BEK-34</t>
         </is>
       </c>
       <c r="C307" s="2">
-        <v>45207.04498050258</v>
+        <v>45215.36883782461</v>
       </c>
       <c r="D307">
-        <v>29.7</v>
+        <v>28.7</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -6699,18 +6681,18 @@
     </row>
     <row r="308">
       <c r="A308">
-        <v>8116</v>
+        <v>8886</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>BED-44</t>
+          <t>BOU-94</t>
         </is>
       </c>
       <c r="C308" s="2">
-        <v>45180.3729015594</v>
+        <v>45192.23019886097</v>
       </c>
       <c r="D308">
-        <v>27.1</v>
+        <v>25.7</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -6720,33 +6702,36 @@
     </row>
     <row r="309">
       <c r="A309">
-        <v>8137</v>
+        <v>8890</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>BED-45</t>
+          <t>GOU-8</t>
         </is>
       </c>
       <c r="C309" s="2">
-        <v>45220.54031791605</v>
+        <v>45194.13789513528</v>
+      </c>
+      <c r="D309">
+        <v>27</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310">
-        <v>8142</v>
+        <v>8897</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>BOU-89</t>
+          <t>BOU-95</t>
         </is>
       </c>
       <c r="C310" s="2">
-        <v>45200.67088077328</v>
+        <v>45159.63553152997</v>
       </c>
       <c r="D310">
         <v>27.4</v>
@@ -6759,15 +6744,15 @@
     </row>
     <row r="311">
       <c r="A311">
-        <v>8159</v>
+        <v>8914</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>BED-46</t>
+          <t>GOU-9</t>
         </is>
       </c>
       <c r="C311" s="2">
-        <v>45187.04318757798</v>
+        <v>45185.88965399386</v>
       </c>
       <c r="D311">
         <v>27.1</v>
@@ -6780,39 +6765,36 @@
     </row>
     <row r="312">
       <c r="A312">
-        <v>8198</v>
+        <v>8931</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>MOI-134</t>
+          <t>GOU-10</t>
         </is>
       </c>
       <c r="C312" s="2">
-        <v>45211.81115091208</v>
-      </c>
-      <c r="D312">
-        <v>27.4</v>
+        <v>45191.8070941525</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313">
-        <v>8228</v>
+        <v>9023</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>BEK-23</t>
+          <t>BED-46</t>
         </is>
       </c>
       <c r="C313" s="2">
-        <v>45183.83000792713</v>
+        <v>45228.4963750578</v>
       </c>
       <c r="D313">
-        <v>28.8</v>
+        <v>27.3</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -6822,7 +6804,7 @@
     </row>
     <row r="314">
       <c r="A314">
-        <v>8262</v>
+        <v>9036</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
@@ -6830,7 +6812,7 @@
         </is>
       </c>
       <c r="C314" s="2">
-        <v>45150.53515582459</v>
+        <v>45209.48934685705</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -6840,15 +6822,15 @@
     </row>
     <row r="315">
       <c r="A315">
-        <v>8278</v>
+        <v>9042</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>BED-48</t>
+          <t>MOI-115</t>
         </is>
       </c>
       <c r="C315" s="2">
-        <v>45168.35711648568</v>
+        <v>45205.01642452326</v>
       </c>
       <c r="D315">
         <v>26.9</v>
@@ -6861,18 +6843,18 @@
     </row>
     <row r="316">
       <c r="A316">
-        <v>8313</v>
+        <v>9052</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>BED-49</t>
+          <t>BEK-35</t>
         </is>
       </c>
       <c r="C316" s="2">
-        <v>45167.5565705545</v>
+        <v>45205.00454068703</v>
       </c>
       <c r="D316">
-        <v>27.4</v>
+        <v>27.9</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
@@ -6882,18 +6864,18 @@
     </row>
     <row r="317">
       <c r="A317">
-        <v>8320</v>
+        <v>9121</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>GOU-13</t>
+          <t>KOU-14</t>
         </is>
       </c>
       <c r="C317" s="2">
-        <v>45192.54671266495</v>
+        <v>45218.60236604348</v>
       </c>
       <c r="D317">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -6903,18 +6885,18 @@
     </row>
     <row r="318">
       <c r="A318">
-        <v>8329</v>
+        <v>9157</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>BED-50</t>
+          <t>KOU-15</t>
         </is>
       </c>
       <c r="C318" s="2">
-        <v>45159.01046830256</v>
+        <v>45196.9292477173</v>
       </c>
       <c r="D318">
-        <v>27.1</v>
+        <v>25.4</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -6924,54 +6906,54 @@
     </row>
     <row r="319">
       <c r="A319">
-        <v>8365</v>
+        <v>9160</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>BED-51</t>
+          <t>BEK-36</t>
         </is>
       </c>
       <c r="C319" s="2">
-        <v>45207.86576728769</v>
-      </c>
-      <c r="D319">
-        <v>25.8</v>
+        <v>45198.84840299474</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320">
-        <v>8378</v>
+        <v>9188</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>GOU-14</t>
+          <t>BEK-37</t>
         </is>
       </c>
       <c r="C320" s="2">
-        <v>45204.45713252692</v>
+        <v>45228.40644802985</v>
+      </c>
+      <c r="D320">
+        <v>27.7</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321">
-        <v>8383</v>
+        <v>9271</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>BOU-90</t>
+          <t>BOU-96</t>
         </is>
       </c>
       <c r="C321" s="2">
-        <v>45210.18116381004</v>
+        <v>45161.69923498484</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -6981,18 +6963,18 @@
     </row>
     <row r="322">
       <c r="A322">
-        <v>8420</v>
+        <v>9272</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>MOI-135</t>
+          <t>BEK-38</t>
         </is>
       </c>
       <c r="C322" s="2">
-        <v>45189.02012588242</v>
+        <v>45179.52724176434</v>
       </c>
       <c r="D322">
-        <v>27.8</v>
+        <v>26.4</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -7002,18 +6984,18 @@
     </row>
     <row r="323">
       <c r="A323">
-        <v>8457</v>
+        <v>9284</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>KOU-9</t>
+          <t>BED-48</t>
         </is>
       </c>
       <c r="C323" s="2">
-        <v>45219.88716338207</v>
+        <v>45186.45622301212</v>
       </c>
       <c r="D323">
-        <v>27.5</v>
+        <v>25.7</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -7023,18 +7005,18 @@
     </row>
     <row r="324">
       <c r="A324">
-        <v>8462</v>
+        <v>9296</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>BED-52</t>
+          <t>BED-49</t>
         </is>
       </c>
       <c r="C324" s="2">
-        <v>45225.57190767821</v>
+        <v>45182.8298291992</v>
       </c>
       <c r="D324">
-        <v>28</v>
+        <v>26.9</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -7044,18 +7026,18 @@
     </row>
     <row r="325">
       <c r="A325">
-        <v>8495</v>
+        <v>9321</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>BED-53</t>
+          <t>MOI-116</t>
         </is>
       </c>
       <c r="C325" s="2">
-        <v>45215.96535520986</v>
+        <v>45177.50159276649</v>
       </c>
       <c r="D325">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -7065,18 +7047,18 @@
     </row>
     <row r="326">
       <c r="A326">
-        <v>8541</v>
+        <v>9336</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>BED-54</t>
+          <t>BED-50</t>
         </is>
       </c>
       <c r="C326" s="2">
-        <v>45205.82916186144</v>
+        <v>45177.30322789513</v>
       </c>
       <c r="D326">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
@@ -7086,18 +7068,18 @@
     </row>
     <row r="327">
       <c r="A327">
-        <v>8551</v>
+        <v>9377</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>BOU-91</t>
+          <t>BEK-39</t>
         </is>
       </c>
       <c r="C327" s="2">
-        <v>45191.39563368972</v>
+        <v>45214.82677032868</v>
       </c>
       <c r="D327">
-        <v>27</v>
+        <v>25.6</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -7107,18 +7089,18 @@
     </row>
     <row r="328">
       <c r="A328">
-        <v>8599</v>
+        <v>9379</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>BED-55</t>
+          <t>BOU-97</t>
         </is>
       </c>
       <c r="C328" s="2">
-        <v>45185.65147614598</v>
+        <v>45224.13816087501</v>
       </c>
       <c r="D328">
-        <v>28.1</v>
+        <v>25.5</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -7128,15 +7110,15 @@
     </row>
     <row r="329">
       <c r="A329">
-        <v>8616</v>
+        <v>9418</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>BED-56</t>
+          <t>BEK-40</t>
         </is>
       </c>
       <c r="C329" s="2">
-        <v>45176.91943397863</v>
+        <v>45220.65257477734</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
@@ -7146,18 +7128,18 @@
     </row>
     <row r="330">
       <c r="A330">
-        <v>8694</v>
+        <v>9447</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>BOU-92</t>
+          <t>BEK-41</t>
         </is>
       </c>
       <c r="C330" s="2">
-        <v>45204.72526405678</v>
+        <v>45230.70282645509</v>
       </c>
       <c r="D330">
-        <v>27.2</v>
+        <v>28.8</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
@@ -7167,18 +7149,18 @@
     </row>
     <row r="331">
       <c r="A331">
-        <v>8696</v>
+        <v>9486</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>KOU-10</t>
+          <t>BOU-98</t>
         </is>
       </c>
       <c r="C331" s="2">
-        <v>45221.09304167581</v>
+        <v>45241.3623868561</v>
       </c>
       <c r="D331">
-        <v>27.4</v>
+        <v>26.7</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -7188,18 +7170,18 @@
     </row>
     <row r="332">
       <c r="A332">
-        <v>8701</v>
+        <v>9598</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>GOU-15</t>
+          <t>BED-51</t>
         </is>
       </c>
       <c r="C332" s="2">
-        <v>45202.51611543043</v>
+        <v>45158.99508221754</v>
       </c>
       <c r="D332">
-        <v>27.6</v>
+        <v>27.9</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -7209,18 +7191,18 @@
     </row>
     <row r="333">
       <c r="A333">
-        <v>8713</v>
+        <v>9608</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>GOU-16</t>
+          <t>GOU-11</t>
         </is>
       </c>
       <c r="C333" s="2">
-        <v>45198.59687539315</v>
+        <v>45185.56060870523</v>
       </c>
       <c r="D333">
-        <v>26.9</v>
+        <v>27.7</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
@@ -7230,18 +7212,18 @@
     </row>
     <row r="334">
       <c r="A334">
-        <v>8716</v>
+        <v>9621</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>GOU-17</t>
+          <t>BED-52</t>
         </is>
       </c>
       <c r="C334" s="2">
-        <v>45210.08113469656</v>
+        <v>45207.90204202349</v>
       </c>
       <c r="D334">
-        <v>24.9</v>
+        <v>28.2</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
@@ -7251,15 +7233,15 @@
     </row>
     <row r="335">
       <c r="A335">
-        <v>8730</v>
+        <v>9700</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>GOU-18</t>
+          <t>GOU-12</t>
         </is>
       </c>
       <c r="C335" s="2">
-        <v>45209.40991488716</v>
+        <v>45173.55474010164</v>
       </c>
       <c r="D335">
         <v>27.6</v>
@@ -7272,18 +7254,18 @@
     </row>
     <row r="336">
       <c r="A336">
-        <v>8804</v>
+        <v>9726</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>KOU-11</t>
+          <t>BED-53</t>
         </is>
       </c>
       <c r="C336" s="2">
-        <v>45219.58020088668</v>
+        <v>45232.09418326713</v>
       </c>
       <c r="D336">
-        <v>27.2</v>
+        <v>26.4</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
@@ -7293,18 +7275,18 @@
     </row>
     <row r="337">
       <c r="A337">
-        <v>8826</v>
+        <v>9749</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>BED-57</t>
+          <t>KOU-16</t>
         </is>
       </c>
       <c r="C337" s="2">
-        <v>45218.28387265337</v>
+        <v>45222.54659443477</v>
       </c>
       <c r="D337">
-        <v>26.6</v>
+        <v>28</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
@@ -7314,18 +7296,18 @@
     </row>
     <row r="338">
       <c r="A338">
-        <v>8842</v>
+        <v>9754</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>MOI-136</t>
+          <t>BOU-99</t>
         </is>
       </c>
       <c r="C338" s="2">
-        <v>45210.83088702283</v>
+        <v>45227.49423946369</v>
       </c>
       <c r="D338">
-        <v>26.9</v>
+        <v>25.5</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
@@ -7335,18 +7317,18 @@
     </row>
     <row r="339">
       <c r="A339">
-        <v>8848</v>
+        <v>9773</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>BEK-24</t>
+          <t>KOU-17</t>
         </is>
       </c>
       <c r="C339" s="2">
-        <v>45216.36883782461</v>
+        <v>45213.39694328088</v>
       </c>
       <c r="D339">
-        <v>26.6</v>
+        <v>26.4</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
@@ -7356,36 +7338,39 @@
     </row>
     <row r="340">
       <c r="A340">
-        <v>8895</v>
+        <v>9781</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>BED-58</t>
+          <t>MOI-117</t>
         </is>
       </c>
       <c r="C340" s="2">
-        <v>45145.26716686059</v>
+        <v>45221.31703066244</v>
+      </c>
+      <c r="D340">
+        <v>27.8</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341">
-        <v>8897</v>
+        <v>9789</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>BOU-93</t>
+          <t>BED-54</t>
         </is>
       </c>
       <c r="C341" s="2">
-        <v>45159.63553152997</v>
+        <v>45220.55425832837</v>
       </c>
       <c r="D341">
-        <v>28</v>
+        <v>27.3</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
@@ -7395,39 +7380,36 @@
     </row>
     <row r="342">
       <c r="A342">
-        <v>8914</v>
+        <v>9825</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>BED-59</t>
+          <t>KOU-18</t>
         </is>
       </c>
       <c r="C342" s="2">
-        <v>45185.88965399386</v>
-      </c>
-      <c r="D342">
-        <v>26.8</v>
+        <v>45238.85267471702</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>inconclusive</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343">
-        <v>8923</v>
+        <v>9838</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>GOU-19</t>
+          <t>KOU-19</t>
         </is>
       </c>
       <c r="C343" s="2">
-        <v>45170.01844328441</v>
+        <v>45205.17727240024</v>
       </c>
       <c r="D343">
-        <v>26.6</v>
+        <v>28.6</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
@@ -7437,36 +7419,39 @@
     </row>
     <row r="344">
       <c r="A344">
-        <v>8931</v>
+        <v>9867</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>MOI-137</t>
+          <t>BED-55</t>
         </is>
       </c>
       <c r="C344" s="2">
-        <v>45190.8070941525</v>
+        <v>45227.89631790902</v>
+      </c>
+      <c r="D344">
+        <v>28.6</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345">
-        <v>8957</v>
+        <v>9873</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>BEK-25</t>
+          <t>GOU-13</t>
         </is>
       </c>
       <c r="C345" s="2">
-        <v>45177.13011308876</v>
+        <v>45197.39696951231</v>
       </c>
       <c r="D345">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
@@ -7476,18 +7461,18 @@
     </row>
     <row r="346">
       <c r="A346">
-        <v>8967</v>
+        <v>9885</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>BOU-94</t>
+          <t>BED-56</t>
         </is>
       </c>
       <c r="C346" s="2">
-        <v>45153.91728996491</v>
+        <v>45236.46306166558</v>
       </c>
       <c r="D346">
-        <v>25.6</v>
+        <v>27.4</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
@@ -7497,39 +7482,36 @@
     </row>
     <row r="347">
       <c r="A347">
-        <v>8976</v>
+        <v>9893</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>BEK-26</t>
+          <t>BED-57</t>
         </is>
       </c>
       <c r="C347" s="2">
-        <v>45194.71854024146</v>
-      </c>
-      <c r="D347">
-        <v>27</v>
+        <v>45243.15577188382</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348">
-        <v>9030</v>
+        <v>51</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>KOU-12</t>
+          <t>MOI-3_retest</t>
         </is>
       </c>
       <c r="C348" s="2">
-        <v>45219.52811967106</v>
+        <v>44836.5896115322</v>
       </c>
       <c r="D348">
-        <v>25.2</v>
+        <v>26.82226004185487</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
@@ -7539,18 +7521,18 @@
     </row>
     <row r="349">
       <c r="A349">
-        <v>9074</v>
+        <v>2257</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>BED-60</t>
+          <t>MOI-51_retest</t>
         </is>
       </c>
       <c r="C349" s="2">
-        <v>45223.503451638</v>
+        <v>45028.49917860905</v>
       </c>
       <c r="D349">
-        <v>28.7</v>
+        <v>26.64133587542806</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
@@ -7560,18 +7542,18 @@
     </row>
     <row r="350">
       <c r="A350">
-        <v>9121</v>
+        <v>2605</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>BOU-95</t>
+          <t>BOU-33_retest</t>
         </is>
       </c>
       <c r="C350" s="2">
-        <v>45219.60236604348</v>
+        <v>45044.83954549171</v>
       </c>
       <c r="D350">
-        <v>29.2</v>
+        <v>28.04316954299649</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
@@ -7581,18 +7563,18 @@
     </row>
     <row r="351">
       <c r="A351">
-        <v>9146</v>
+        <v>2754</v>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>MOI-138</t>
+          <t>BOU-38_retest</t>
         </is>
       </c>
       <c r="C351" s="2">
-        <v>45239.13823622199</v>
+        <v>45027.78422846401</v>
       </c>
       <c r="D351">
-        <v>27.7</v>
+        <v>29.67942152092569</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
@@ -7602,18 +7584,18 @@
     </row>
     <row r="352">
       <c r="A352">
-        <v>9161</v>
+        <v>2890</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>BOU-96</t>
+          <t>MOI-64_retest</t>
         </is>
       </c>
       <c r="C352" s="2">
-        <v>45201.57717702619</v>
+        <v>45021.96762746694</v>
       </c>
       <c r="D352">
-        <v>27.4</v>
+        <v>27.75395345216996</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
@@ -7623,18 +7605,18 @@
     </row>
     <row r="353">
       <c r="A353">
-        <v>9168</v>
+        <v>3587</v>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>BEK-27</t>
+          <t>BOU-49_retest</t>
         </is>
       </c>
       <c r="C353" s="2">
-        <v>45219.11405266487</v>
+        <v>45035.24893399746</v>
       </c>
       <c r="D353">
-        <v>27.7</v>
+        <v>27.2382251382418</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
@@ -7644,18 +7626,18 @@
     </row>
     <row r="354">
       <c r="A354">
-        <v>9230</v>
+        <v>3843</v>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>BEK-28</t>
+          <t>BOU-51_retest</t>
         </is>
       </c>
       <c r="C354" s="2">
-        <v>45218.35825960286</v>
+        <v>45086.19797355527</v>
       </c>
       <c r="D354">
-        <v>25.8</v>
+        <v>27.31076430606529</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
@@ -7665,39 +7647,36 @@
     </row>
     <row r="355">
       <c r="A355">
-        <v>9244</v>
+        <v>4312</v>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>BOU-97</t>
+          <t>MOI-85_retest</t>
         </is>
       </c>
       <c r="C355" s="2">
-        <v>45209.56036752462</v>
-      </c>
-      <c r="D355">
-        <v>26.9</v>
+        <v>45085.71899240385</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356">
-        <v>9336</v>
+        <v>4457</v>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>BOU-98</t>
+          <t>BEK-4_retest</t>
         </is>
       </c>
       <c r="C356" s="2">
-        <v>45176.30322789513</v>
+        <v>45112.09691840466</v>
       </c>
       <c r="D356">
-        <v>26.5</v>
+        <v>27.46084138764376</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
@@ -7707,18 +7686,18 @@
     </row>
     <row r="357">
       <c r="A357">
-        <v>9352</v>
+        <v>4708</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>GOU-20</t>
+          <t>BOU-64_retest</t>
         </is>
       </c>
       <c r="C357" s="2">
-        <v>45162.18042502193</v>
+        <v>45134.23107343615</v>
       </c>
       <c r="D357">
-        <v>26.3</v>
+        <v>27.57943869020456</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
@@ -7728,18 +7707,18 @@
     </row>
     <row r="358">
       <c r="A358">
-        <v>9396</v>
+        <v>5031</v>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>BED-61</t>
+          <t>MOI-94_retest</t>
         </is>
       </c>
       <c r="C358" s="2">
-        <v>45214.93060734726</v>
+        <v>45096.77008653119</v>
       </c>
       <c r="D358">
-        <v>28.1</v>
+        <v>25.73702606943474</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
@@ -7749,18 +7728,18 @@
     </row>
     <row r="359">
       <c r="A359">
-        <v>9417</v>
+        <v>6997</v>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>BED-62</t>
+          <t>BEK-19_retest</t>
         </is>
       </c>
       <c r="C359" s="2">
-        <v>45220.99867349151</v>
+        <v>45146.13412484194</v>
       </c>
       <c r="D359">
-        <v>27.7</v>
+        <v>27.27827493064709</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
@@ -7770,18 +7749,18 @@
     </row>
     <row r="360">
       <c r="A360">
-        <v>9418</v>
+        <v>7024</v>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>BOU-99</t>
+          <t>BED-27_retest</t>
         </is>
       </c>
       <c r="C360" s="2">
-        <v>45219.65257477734</v>
+        <v>45135.389769195</v>
       </c>
       <c r="D360">
-        <v>25.4</v>
+        <v>28.04506637860782</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
@@ -7791,18 +7770,18 @@
     </row>
     <row r="361">
       <c r="A361">
-        <v>9423</v>
+        <v>7988</v>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>KOU-13</t>
+          <t>BOU-90_retest</t>
         </is>
       </c>
       <c r="C361" s="2">
-        <v>45232.66080551613</v>
+        <v>45145.46706873258</v>
       </c>
       <c r="D361">
-        <v>26.2</v>
+        <v>26.53153288199891</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
@@ -7812,39 +7791,36 @@
     </row>
     <row r="362">
       <c r="A362">
-        <v>9427</v>
+        <v>8137</v>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>BED-63</t>
+          <t>MOI-111_retest</t>
         </is>
       </c>
       <c r="C362" s="2">
-        <v>45221.16876620982</v>
-      </c>
-      <c r="D362">
-        <v>26</v>
+        <v>45222.54031791605</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363">
-        <v>9462</v>
+        <v>8482</v>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>BOU-100</t>
+          <t>BED-40_retest</t>
         </is>
       </c>
       <c r="C363" s="2">
-        <v>45208.37945884126</v>
+        <v>45202.41974920206</v>
       </c>
       <c r="D363">
-        <v>26.4</v>
+        <v>27.23470882423668</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
@@ -7854,18 +7830,18 @@
     </row>
     <row r="364">
       <c r="A364">
-        <v>9491</v>
+        <v>8931</v>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>MOI-139</t>
+          <t>GOU-10_retest</t>
         </is>
       </c>
       <c r="C364" s="2">
-        <v>45231.74824678821</v>
+        <v>45195.8070941525</v>
       </c>
       <c r="D364">
-        <v>25.9</v>
+        <v>24.99674167379984</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
@@ -7875,677 +7851,41 @@
     </row>
     <row r="365">
       <c r="A365">
-        <v>9503</v>
+        <v>9418</v>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>MOI-140</t>
+          <t>BEK-40_retest</t>
         </is>
       </c>
       <c r="C365" s="2">
-        <v>45202.69929401853</v>
+        <v>45223.65257477734</v>
+      </c>
+      <c r="D365">
+        <v>27.76573397920876</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>inconclusive</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366">
-        <v>9531</v>
+        <v>9825</v>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>BED-64</t>
+          <t>KOU-18_retest</t>
         </is>
       </c>
       <c r="C366" s="2">
-        <v>45227.77058961088</v>
+        <v>45240.85267471702</v>
       </c>
       <c r="D366">
-        <v>26.5</v>
+        <v>28.76726479925177</v>
       </c>
       <c r="E366" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367">
-        <v>9541</v>
-      </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>BOU-101</t>
-        </is>
-      </c>
-      <c r="C367" s="2">
-        <v>45235.98689219028</v>
-      </c>
-      <c r="D367">
-        <v>26.3</v>
-      </c>
-      <c r="E367" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368">
-        <v>9559</v>
-      </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>MOI-141</t>
-        </is>
-      </c>
-      <c r="C368" s="2">
-        <v>45226.72972436137</v>
-      </c>
-      <c r="D368">
-        <v>27.4</v>
-      </c>
-      <c r="E368" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369">
-        <v>9627</v>
-      </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>KOU-14</t>
-        </is>
-      </c>
-      <c r="C369" s="2">
-        <v>45192.3745491977</v>
-      </c>
-      <c r="D369">
-        <v>25.8</v>
-      </c>
-      <c r="E369" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370">
-        <v>9680</v>
-      </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>GOU-21</t>
-        </is>
-      </c>
-      <c r="C370" s="2">
-        <v>45177.96494844627</v>
-      </c>
-      <c r="D370">
-        <v>27.1</v>
-      </c>
-      <c r="E370" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371">
-        <v>9711</v>
-      </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>KOU-15</t>
-        </is>
-      </c>
-      <c r="C371" s="2">
-        <v>45250.85537524568</v>
-      </c>
-      <c r="D371">
-        <v>27.4</v>
-      </c>
-      <c r="E371" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372">
-        <v>9743</v>
-      </c>
-      <c r="B372" t="inlineStr">
-        <is>
-          <t>BED-65</t>
-        </is>
-      </c>
-      <c r="C372" s="2">
-        <v>45209.21459186074</v>
-      </c>
-      <c r="D372">
-        <v>26.4</v>
-      </c>
-      <c r="E372" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373">
-        <v>9811</v>
-      </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>BED-66</t>
-        </is>
-      </c>
-      <c r="C373" s="2">
-        <v>45234.81755972048</v>
-      </c>
-      <c r="D373">
-        <v>26.6</v>
-      </c>
-      <c r="E373" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374">
-        <v>9830</v>
-      </c>
-      <c r="B374" t="inlineStr">
-        <is>
-          <t>BED-67</t>
-        </is>
-      </c>
-      <c r="C374" s="2">
-        <v>45212.80696042936</v>
-      </c>
-      <c r="D374">
-        <v>29.1</v>
-      </c>
-      <c r="E374" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375">
-        <v>9838</v>
-      </c>
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>BOU-102</t>
-        </is>
-      </c>
-      <c r="C375" s="2">
-        <v>45205.17727240024</v>
-      </c>
-      <c r="D375">
-        <v>26.7</v>
-      </c>
-      <c r="E375" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376">
-        <v>9873</v>
-      </c>
-      <c r="B376" t="inlineStr">
-        <is>
-          <t>MOI-142</t>
-        </is>
-      </c>
-      <c r="C376" s="2">
-        <v>45198.39696951231</v>
-      </c>
-      <c r="E376" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377">
-        <v>9916</v>
-      </c>
-      <c r="B377" t="inlineStr">
-        <is>
-          <t>MOI-143</t>
-        </is>
-      </c>
-      <c r="C377" s="2">
-        <v>45246.28387737996</v>
-      </c>
-      <c r="D377">
-        <v>27.5</v>
-      </c>
-      <c r="E377" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378">
-        <v>9948</v>
-      </c>
-      <c r="B378" t="inlineStr">
-        <is>
-          <t>BED-68</t>
-        </is>
-      </c>
-      <c r="C378" s="2">
-        <v>45233.49966820492</v>
-      </c>
-      <c r="E378" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379">
-        <v>91</v>
-      </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>MOI-3_retest</t>
-        </is>
-      </c>
-      <c r="C379" s="2">
-        <v>44836.94976414814</v>
-      </c>
-      <c r="D379">
-        <v>26.64205818759252</v>
-      </c>
-      <c r="E379" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380">
-        <v>278</v>
-      </c>
-      <c r="B380" t="inlineStr">
-        <is>
-          <t>MOI-9_retest</t>
-        </is>
-      </c>
-      <c r="C380" s="2">
-        <v>44867.86357383079</v>
-      </c>
-      <c r="D380">
-        <v>29.04258840948852</v>
-      </c>
-      <c r="E380" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381">
-        <v>538</v>
-      </c>
-      <c r="B381" t="inlineStr">
-        <is>
-          <t>MOI-24_retest</t>
-        </is>
-      </c>
-      <c r="C381" s="2">
-        <v>44896.81992070255</v>
-      </c>
-      <c r="D381">
-        <v>28.0450045639515</v>
-      </c>
-      <c r="E381" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382">
-        <v>660</v>
-      </c>
-      <c r="B382" t="inlineStr">
-        <is>
-          <t>MOI-28_retest</t>
-        </is>
-      </c>
-      <c r="C382" s="2">
-        <v>44937.07808852893</v>
-      </c>
-      <c r="D382">
-        <v>26.39448609169108</v>
-      </c>
-      <c r="E382" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383">
-        <v>951</v>
-      </c>
-      <c r="B383" t="inlineStr">
-        <is>
-          <t>MOI-32_retest</t>
-        </is>
-      </c>
-      <c r="C383" s="2">
-        <v>44918.26378107126</v>
-      </c>
-      <c r="D383">
-        <v>27.2131904039028</v>
-      </c>
-      <c r="E383" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384">
-        <v>2008</v>
-      </c>
-      <c r="B384" t="inlineStr">
-        <is>
-          <t>MOI-55_retest</t>
-        </is>
-      </c>
-      <c r="C384" s="2">
-        <v>45013.09978002966</v>
-      </c>
-      <c r="E384" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385">
-        <v>2777</v>
-      </c>
-      <c r="B385" t="inlineStr">
-        <is>
-          <t>BOU-40_retest</t>
-        </is>
-      </c>
-      <c r="C385" s="2">
-        <v>45038.85204829129</v>
-      </c>
-      <c r="D385">
-        <v>26.82761339384576</v>
-      </c>
-      <c r="E385" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386">
-        <v>2856</v>
-      </c>
-      <c r="B386" t="inlineStr">
-        <is>
-          <t>MOI-75_retest</t>
-        </is>
-      </c>
-      <c r="C386" s="2">
-        <v>45062.37018561996</v>
-      </c>
-      <c r="D386">
-        <v>27.82065752625381</v>
-      </c>
-      <c r="E386" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387">
-        <v>3233</v>
-      </c>
-      <c r="B387" t="inlineStr">
-        <is>
-          <t>MOI-83_retest</t>
-        </is>
-      </c>
-      <c r="C387" s="2">
-        <v>45063.02540295778</v>
-      </c>
-      <c r="D387">
-        <v>28.72321344126781</v>
-      </c>
-      <c r="E387" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388">
-        <v>3481</v>
-      </c>
-      <c r="B388" t="inlineStr">
-        <is>
-          <t>MOI-89_retest</t>
-        </is>
-      </c>
-      <c r="C388" s="2">
-        <v>45071.42134093468</v>
-      </c>
-      <c r="E388" t="inlineStr">
-        <is>
-          <t>inconclusive</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389">
-        <v>4148</v>
-      </c>
-      <c r="B389" t="inlineStr">
-        <is>
-          <t>BEK-1_retest</t>
-        </is>
-      </c>
-      <c r="C389" s="2">
-        <v>45111.20682093133</v>
-      </c>
-      <c r="D389">
-        <v>26.95166194287924</v>
-      </c>
-      <c r="E389" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390">
-        <v>6820</v>
-      </c>
-      <c r="B390" t="inlineStr">
-        <is>
-          <t>GOU-5_retest</t>
-        </is>
-      </c>
-      <c r="C390" s="2">
-        <v>45174.37955375794</v>
-      </c>
-      <c r="D390">
-        <v>28.49592717298248</v>
-      </c>
-      <c r="E390" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391">
-        <v>6887</v>
-      </c>
-      <c r="B391" t="inlineStr">
-        <is>
-          <t>BOU-83_retest</t>
-        </is>
-      </c>
-      <c r="C391" s="2">
-        <v>45202.8166416646</v>
-      </c>
-      <c r="D391">
-        <v>29.37372395639387</v>
-      </c>
-      <c r="E391" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392">
-        <v>6947</v>
-      </c>
-      <c r="B392" t="inlineStr">
-        <is>
-          <t>BEK-14_retest</t>
-        </is>
-      </c>
-      <c r="C392" s="2">
-        <v>45120.11723128092</v>
-      </c>
-      <c r="D392">
-        <v>26.1166683643275</v>
-      </c>
-      <c r="E392" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393">
-        <v>7597</v>
-      </c>
-      <c r="B393" t="inlineStr">
-        <is>
-          <t>MOI-130_retest</t>
-        </is>
-      </c>
-      <c r="C393" s="2">
-        <v>45153.94323345065</v>
-      </c>
-      <c r="D393">
-        <v>28.32356852032424</v>
-      </c>
-      <c r="E393" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394">
-        <v>8378</v>
-      </c>
-      <c r="B394" t="inlineStr">
-        <is>
-          <t>GOU-14_retest</t>
-        </is>
-      </c>
-      <c r="C394" s="2">
-        <v>45205.45713252692</v>
-      </c>
-      <c r="D394">
-        <v>26.13508367152765</v>
-      </c>
-      <c r="E394" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395">
-        <v>8616</v>
-      </c>
-      <c r="B395" t="inlineStr">
-        <is>
-          <t>BED-56_retest</t>
-        </is>
-      </c>
-      <c r="C395" s="2">
-        <v>45177.91943397863</v>
-      </c>
-      <c r="D395">
-        <v>26.95749564289059</v>
-      </c>
-      <c r="E395" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396">
-        <v>8931</v>
-      </c>
-      <c r="B396" t="inlineStr">
-        <is>
-          <t>MOI-137_retest</t>
-        </is>
-      </c>
-      <c r="C396" s="2">
-        <v>45193.8070941525</v>
-      </c>
-      <c r="D396">
-        <v>26.69885417756229</v>
-      </c>
-      <c r="E396" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397">
-        <v>9503</v>
-      </c>
-      <c r="B397" t="inlineStr">
-        <is>
-          <t>MOI-140_retest</t>
-        </is>
-      </c>
-      <c r="C397" s="2">
-        <v>45205.69929401853</v>
-      </c>
-      <c r="D397">
-        <v>30.1808333830685</v>
-      </c>
-      <c r="E397" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
